--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="query_user_amount" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,16 +57,6 @@
   </si>
   <si>
     <t>param</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel": "roma",
-  "sourceCode": "roma",
-  "sourceUserId": "46",
-  "userId": 37259945271382016,
-  "productCode": "XJ_ROMA_CAR"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -94,114 +84,6 @@
     <rPh sb="2" eb="3">
       <t>shou xin</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel": "roma",
-  "sourceCode": "roma",
-  "sourceUserId": "46",
-  "transactionId": "Test_46",
-  "serviceSn": "1547905999999",
-  "applyInfo": {
-    "applyTime": "2019-02-27 14:11:05",
-    "productCode": "XJ_ROMA_CAR",
-    "applySource": "api",
-    "financeChannel": 1,
-    "liveAddressProvince": "110000",
-    "liveAddressCity": "110100",
-    "liveAddressBorough": "110105",
-    "liveDetailAddress": "四川省测试地址"
-  },
-  "cardInfo": {
-    "bankCode": 34,
-    "bankCardNo": "6217002200003225701",
-    "bankPhone": "18366582857",
-    "bankNameSub": "建设银行"
-  },
-  "riskSuggestion": {
-    "disburseNum": 1,
-    "repayNum": 1,
-    "lendingNum": 1,
-    "lendingAmount": 1,
-    "firstCreditDate": "2018-01-01 09:00:00"
-  },
-  "creditInfo": {
-    "sourceCreditAmt": 1000.00,
-    "sourceCreditRate": 1
-  },
-  "personalInfo": {
-    "cardNum": "61070119850813550X",
-    "custName": "黎丹蝶",
-    "phone": "18366582979",
-    "sex": 0,
-    "age": 35,
-    "maritalStatus": 1,
-    "hasChildren": 1,
-    "personalPurchaseHouse": 2,
-    "fourVerifyResult": 0,
-    "registeredAddressProvince": "110000",
-    "registeredAddressCity": "110100",
-    "registeredAddressBorough": "110105",
-    "registeredDetailAddress": "测试地址"
-  },
-  "contactInfo": {
-    "spouseName": "人厚",
-    "spouseCardNum": "81232919711203455X",
-    "firstContactRelationship": 6,
-    "firstContactName": "小二丝",
-    "firstContactCardNum": "81232919711203455X",
-    "firstContactPhone": "13731854665"
-  },
-  "orderDetail": {
-    "dealerName": "北京王二麻子车行",
-    "manageAddressProvince": "110000",
-    "manageAddressCity": "110100",
-    "manageAddressBorough": "110105",
-    "manageDetailAddress": "北京",
-    "secondHandCarTradeName": "哈利路亚交易市场",
-    "boothNoS": "hello",
-    "manageTime": 5,
-    "employeeNum": 4,
-    "stallNum": 2,
-    "hasCompany": 0,
-    "companyName": "北京哈利路亚有线车行公司",
-    "enterpriseRegisterNumber": "123456789098765",
-    "companyType": "有线责任工资",
-    "incumbencyPosition": "法人",
-    "shareRatio": 1,
-    "carCompanyNames": "中三",
-    "currentBusinessScale": 4,
-    "manageCarPreferences": 1,
-    "stockCarTotalNum": 10,
-    "stockCarPriceRange": "10-100",
-    "stockCarPriceMidValue": 100,
-    "stockCarPriceMeanValue": 10,
-    "stockCarPriceCycleMidValue": 10,
-    "stockCarPriceCycleMeanValue": 1,
-    "manageEvaluation": 4,
-    "totalCarRelatedAmt": 10000000,
-    "averageCarRelatedAmt": 1,
-    "totalCarRelatedCnt": 3,
-    "averageCarRelatedCnt": 5
-  },
-  "imageInfo": {
-    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
-  }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel": "roma",
-  "sourceCode": "roma",
-  "creditId": "37259945351061504"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -528,12 +410,137 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>{
+  "X-TBC-SOURCE":"tbc_zhtb_lmd",
+  "X-TBC-SIGN":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "46",
+  "userId": 37259945271382016,
+  "productCode": "XJ_CZB_CAR"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "46",
+  "transactionId": "Test_46",
+  "serviceSn": "1547905999999",
+  "applyInfo": {
+    "applyTime": "2019-02-27 14:11:05",
+    "productCode": "XJ_CZB_CAR",
+    "applySource": "api",
+    "financeChannel": 1,
+    "liveAddressProvince": "110000",
+    "liveAddressCity": "110100",
+    "liveAddressBorough": "110105",
+    "liveDetailAddress": "四川省测试地址"
+  },
+  "cardInfo": {
+    "bankCode": 34,
+    "bankCardNo": "6217002200003225701",
+    "bankPhone": "18366582857",
+    "bankNameSub": "建设银行"
+  },
+  "riskSuggestion": {
+    "disburseNum": 1,
+    "repayNum": 1,
+    "lendingNum": 1,
+    "lendingAmount": 1,
+    "firstCreditDate": "2018-01-01 09:00:00"
+  },
+  "creditInfo": {
+    "sourceCreditAmt": 1000.00,
+    "sourceCreditRate": 1
+  },
+  "personalInfo": {
+    "cardNum": "61070119850813550X",
+    "custName": "黎丹蝶",
+    "phone": "18366582979",
+    "sex": 0,
+    "age": 35,
+    "maritalStatus": 1,
+    "hasChildren": 1,
+    "personalPurchaseHouse": 2,
+    "fourVerifyResult": 0,
+    "registeredAddressProvince": "110000",
+    "registeredAddressCity": "110100",
+    "registeredAddressBorough": "110105",
+    "registeredDetailAddress": "测试地址"
+  },
+  "contactInfo": {
+    "spouseName": "人厚",
+    "spouseCardNum": "81232919711203455X",
+    "firstContactRelationship": 6,
+    "firstContactName": "小二丝",
+    "firstContactCardNum": "81232919711203455X",
+    "firstContactPhone": "13731854665"
+  },
+  "orderDetail": {
+    "dealerName": "北京王二麻子车行",
+    "manageAddressProvince": "110000",
+    "manageAddressCity": "110100",
+    "manageAddressBorough": "110105",
+    "manageDetailAddress": "北京",
+    "secondHandCarTradeName": "哈利路亚交易市场",
+    "boothNoS": "hello",
+    "manageTime": 5,
+    "employeeNum": 4,
+    "stallNum": 2,
+    "hasCompany": 0,
+    "companyName": "北京哈利路亚有线车行公司",
+    "enterpriseRegisterNumber": "123456789098765",
+    "companyType": "有线责任工资",
+    "incumbencyPosition": "法人",
+    "shareRatio": 1,
+    "carCompanyNames": "中三",
+    "currentBusinessScale": 4,
+    "manageCarPreferences": 1,
+    "stockCarTotalNum": 10,
+    "stockCarPriceRange": "10-100",
+    "stockCarPriceMidValue": 100,
+    "stockCarPriceMeanValue": 10,
+    "stockCarPriceCycleMidValue": 10,
+    "stockCarPriceCycleMeanValue": 1,
+    "manageEvaluation": 4,
+    "totalCarRelatedAmt": 10000000,
+    "averageCarRelatedAmt": 1,
+    "totalCarRelatedCnt": 3,
+    "averageCarRelatedCnt": 5
+  },
+  "imageInfo": {
+    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "creditId": "37259945351061504"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -544,6 +551,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -567,8 +592,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -582,8 +611,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -861,7 +894,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -887,20 +920,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="128" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -909,7 +946,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -934,16 +971,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -957,7 +996,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -982,16 +1021,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1004,15 +1045,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1030,16 +1071,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1053,7 +1096,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1086,13 +1129,16 @@
     </row>
     <row r="2" spans="1:10" ht="171" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -1108,6 +1154,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1115,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1140,16 +1187,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="128" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1163,7 +1212,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1188,14 +1237,16 @@
     </row>
     <row r="2" spans="1:4" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1209,7 +1260,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1236,14 +1287,16 @@
     </row>
     <row r="2" spans="1:4" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1310,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1282,14 +1335,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D2" s="2"/>
     </row>
   </sheetData>
@@ -1303,7 +1358,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1328,14 +1383,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D2" s="2"/>
     </row>
   </sheetData>
@@ -1349,7 +1406,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1376,14 +1433,16 @@
     </row>
     <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1397,7 +1456,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1424,14 +1483,16 @@
     </row>
     <row r="2" spans="1:4" ht="288" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="query_user_amount" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,19 +299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-  "associationId":"34745104849707008",
-  "channel":"roma",
-  "contractId":"34746648307441664",
-  "contractType":2,
-  "requestTime":"2019-02-13 11:29:29",
-  "serviceSn":"1547902959779",
-  "sourceCode":"roma",
-  "sourceUserId":"36"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>放款接口</t>
     <rPh sb="0" eb="1">
       <t>fang kuan</t>
@@ -320,27 +307,6 @@
   </si>
   <si>
     <t>/busi-api/api/v1/busi/loan/pfa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel": "roma",
-  "sourceCode": "roma",
-  "sourceProjectId": "10357490",
-  "projectId": "37562553282338816",
-  "sourceUserId": "46",
-  "serviceSn": "154790",
-  "amount": 500.00,
-  "currency": "CNY",
-  "accountNo": "6217002200003225701",
-  "accountType": 0,
-  "accountProp": 0,
-  "accountName": "黎丹蝶",
-  "id": "61070119850813550X",
-  "bankPhone": "18366582857",
-  "idType": 0,
-  "bankCode": 34
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -532,6 +498,49 @@
   "channel": "czb",
   "sourceCode": "czb",
   "creditId": "37259945351061504"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "associationId":"34745104849707008",
+  "channel":"czb",
+  "contractId":"34746648307441664",
+  "contractType":2,
+  "requestTime":"2019-02-13 11:29:29",
+  "serviceSn":"1547902959779",
+  "sourceCode":"czb",
+  "sourceUserId":"36"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"",
+  "projectId":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceProjectId": "10357490",
+  "projectId": "37562553282338816",
+  "sourceUserId": "46",
+  "serviceSn": "154790",
+  "amount": 500.00,
+  "currency": "CNY",
+  "accountNo": "6217002200003225701",
+  "accountType": 0,
+  "accountProp": 0,
+  "accountName": "黎丹蝶",
+  "id": "61070119850813550X",
+  "bankPhone": "18366582857",
+  "idType": 0,
+  "bankCode": 34
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -928,10 +937,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -973,16 +982,16 @@
     </row>
     <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1023,16 +1032,16 @@
     </row>
     <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1045,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1073,16 +1082,16 @@
     </row>
     <row r="2" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1135,10 +1144,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -1162,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1195,10 +1204,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1211,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1243,7 +1252,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -1259,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1285,7 +1294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="409" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1293,10 +1302,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1343,7 +1352,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1358,7 +1367,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1391,7 +1400,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1406,7 +1415,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1439,10 +1448,10 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1456,7 +1465,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1483,16 +1492,16 @@
     </row>
     <row r="2" spans="1:4" ht="288" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="query_user_amount" sheetId="2" r:id="rId1"/>
@@ -378,13 +378,6 @@
   </si>
   <si>
     <t>{
-  "X-TBC-SOURCE":"tbc_zhtb_lmd",
-  "X-TBC-SIGN":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
   "channel": "czb",
   "sourceCode": "czb",
   "sourceUserId": "46",
@@ -541,6 +534,13 @@
   "bankPhone": "18366582857",
   "idType": 0,
   "bankCode": 34
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "X-TBC-SOURCE":"tbc_zhtb_czb",
+  "X-TBC-SIGN":""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -937,10 +937,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +955,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -988,7 +988,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
@@ -1038,7 +1038,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1088,7 +1088,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1144,10 +1144,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1204,10 +1204,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1221,7 +1221,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1252,7 +1252,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -1269,7 +1269,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1302,10 +1302,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1319,7 +1319,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1352,7 +1352,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1367,7 +1367,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1400,7 +1400,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1415,7 +1415,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1448,10 +1448,10 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1465,7 +1465,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1498,10 +1498,10 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="query_user_amount" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
     <rPh sb="4" eb="5">
       <t>cha xun</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/credit/queryUserAmount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -215,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/busi-api/api/v1/credit/queryResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>额度授信结果查询</t>
     <rPh sb="0" eb="1">
       <t>e du</t>
@@ -542,6 +534,18 @@
   "X-TBC-SOURCE":"tbc_zhtb_czb",
   "X-TBC-SIGN":""
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/credit/queryResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/credit/queryUserAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/credit/apply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -902,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -934,13 +938,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -982,16 +986,16 @@
     </row>
     <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1032,16 +1036,16 @@
     </row>
     <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1082,16 +1086,16 @@
     </row>
     <row r="2" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1105,7 +1109,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1138,16 +1142,16 @@
     </row>
     <row r="2" spans="1:10" ht="171" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -1172,7 +1176,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1198,16 +1202,16 @@
     </row>
     <row r="2" spans="1:4" ht="128" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1220,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1246,16 +1250,16 @@
     </row>
     <row r="2" spans="1:4" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1296,16 +1300,16 @@
     </row>
     <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1346,13 +1350,13 @@
     </row>
     <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1394,13 +1398,13 @@
     </row>
     <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1442,16 +1446,16 @@
     </row>
     <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1492,16 +1496,16 @@
     </row>
     <row r="2" spans="1:4" ht="288" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="query_user_amount" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,344 @@
     <rPh sb="2" eb="3">
       <t>shou xin</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额度授信结果查询</t>
+    <rPh sb="0" eb="1">
+      <t>e du</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou xin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie guo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cha xun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/project/apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/project/queryApplyResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件结果查询接口</t>
+    <rPh sb="2" eb="3">
+      <t>jie guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cha xun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/file/upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影像传输接口</t>
+    <rPh sb="0" eb="1">
+      <t>ying xiang chuan shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同传输接口</t>
+    <rPh sb="0" eb="1">
+      <t>he tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chuan shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/contract/sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看协议结果接口</t>
+    <rPh sb="0" eb="1">
+      <t>cha kan xie yi jie guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/contract/query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款接口</t>
+    <rPh sb="0" eb="1">
+      <t>fang kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/loan/pfa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前结清试算接口</t>
+    <rPh sb="0" eb="1">
+      <t>ti qian jie qing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/project/preClearCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "projectId": "35734386141831168"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询当前还款计划接口</t>
+    <rPh sb="0" eb="1">
+      <t>cha xun dang qian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huan kuan ji hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "projectId":"35734386141831168"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/project/queryRepaymentPlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回购后收款通知接口</t>
+    <rPh sb="0" eb="1">
+      <t>hui gou hou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou kuan tong zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/project/receiptsNotice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "projectId":"30844098113970111",
+  "clearTime":"2019-01-01 11:11:11"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "46",
+  "userId": 37259945271382016,
+  "productCode": "XJ_CZB_CAR"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "46",
+  "transactionId": "Test_46",
+  "serviceSn": "1547905999999",
+  "applyInfo": {
+    "applyTime": "2019-02-27 14:11:05",
+    "productCode": "XJ_CZB_CAR",
+    "applySource": "api",
+    "financeChannel": 1,
+    "liveAddressProvince": "110000",
+    "liveAddressCity": "110100",
+    "liveAddressBorough": "110105",
+    "liveDetailAddress": "四川省测试地址"
+  },
+  "cardInfo": {
+    "bankCode": 34,
+    "bankCardNo": "6217002200003225701",
+    "bankPhone": "18366582857",
+    "bankNameSub": "建设银行"
+  },
+  "riskSuggestion": {
+    "disburseNum": 1,
+    "repayNum": 1,
+    "lendingNum": 1,
+    "lendingAmount": 1,
+    "firstCreditDate": "2018-01-01 09:00:00"
+  },
+  "creditInfo": {
+    "sourceCreditAmt": 1000.00,
+    "sourceCreditRate": 1
+  },
+  "personalInfo": {
+    "cardNum": "61070119850813550X",
+    "custName": "黎丹蝶",
+    "phone": "18366582979",
+    "sex": 0,
+    "age": 35,
+    "maritalStatus": 1,
+    "hasChildren": 1,
+    "personalPurchaseHouse": 2,
+    "fourVerifyResult": 0,
+    "registeredAddressProvince": "110000",
+    "registeredAddressCity": "110100",
+    "registeredAddressBorough": "110105",
+    "registeredDetailAddress": "测试地址"
+  },
+  "contactInfo": {
+    "spouseName": "人厚",
+    "spouseCardNum": "81232919711203455X",
+    "firstContactRelationship": 6,
+    "firstContactName": "小二丝",
+    "firstContactCardNum": "81232919711203455X",
+    "firstContactPhone": "13731854665"
+  },
+  "orderDetail": {
+    "dealerName": "北京王二麻子车行",
+    "manageAddressProvince": "110000",
+    "manageAddressCity": "110100",
+    "manageAddressBorough": "110105",
+    "manageDetailAddress": "北京",
+    "secondHandCarTradeName": "哈利路亚交易市场",
+    "boothNoS": "hello",
+    "manageTime": 5,
+    "employeeNum": 4,
+    "stallNum": 2,
+    "hasCompany": 0,
+    "companyName": "北京哈利路亚有线车行公司",
+    "enterpriseRegisterNumber": "123456789098765",
+    "companyType": "有线责任工资",
+    "incumbencyPosition": "法人",
+    "shareRatio": 1,
+    "carCompanyNames": "中三",
+    "currentBusinessScale": 4,
+    "manageCarPreferences": 1,
+    "stockCarTotalNum": 10,
+    "stockCarPriceRange": "10-100",
+    "stockCarPriceMidValue": 100,
+    "stockCarPriceMeanValue": 10,
+    "stockCarPriceCycleMidValue": 10,
+    "stockCarPriceCycleMeanValue": 1,
+    "manageEvaluation": 4,
+    "totalCarRelatedAmt": 10000000,
+    "averageCarRelatedAmt": 1,
+    "totalCarRelatedCnt": 3,
+    "averageCarRelatedCnt": 5
+  },
+  "imageInfo": {
+    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "creditId": "37259945351061504"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "associationId":"34745104849707008",
+  "channel":"czb",
+  "contractId":"34746648307441664",
+  "contractType":2,
+  "requestTime":"2019-02-13 11:29:29",
+  "serviceSn":"1547902959779",
+  "sourceCode":"czb",
+  "sourceUserId":"36"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"",
+  "projectId":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceProjectId": "10357490",
+  "projectId": "37562553282338816",
+  "sourceUserId": "46",
+  "serviceSn": "154790",
+  "amount": 500.00,
+  "currency": "CNY",
+  "accountNo": "6217002200003225701",
+  "accountType": 0,
+  "accountProp": 0,
+  "accountName": "黎丹蝶",
+  "id": "61070119850813550X",
+  "bankPhone": "18366582857",
+  "idType": 0,
+  "bankCode": 34
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "X-TBC-SOURCE":"tbc_zhtb_czb",
+  "X-TBC-SIGN":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/credit/queryResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/credit/queryUserAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/credit/apply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -211,341 +549,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>额度授信结果查询</t>
-    <rPh sb="0" eb="1">
-      <t>e du</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shou xin</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jie guo</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>cha xun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进件接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/busi/project/apply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/busi/project/queryApplyResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进件结果查询接口</t>
-    <rPh sb="2" eb="3">
-      <t>jie guo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>cha xun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/busi/file/upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影像传输接口</t>
-    <rPh sb="0" eb="1">
-      <t>ying xiang chuan shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jie kou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同传输接口</t>
-    <rPh sb="0" eb="1">
-      <t>he tong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chuan shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jie kou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/busi/contract/sign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看协议结果接口</t>
-    <rPh sb="0" eb="1">
-      <t>cha kan xie yi jie guo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/busi/contract/query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放款接口</t>
-    <rPh sb="0" eb="1">
-      <t>fang kuan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/busi/loan/pfa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提前结清试算接口</t>
-    <rPh sb="0" eb="1">
-      <t>ti qian jie qing</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shi suan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/busi/project/preClearCalculate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "projectId": "35734386141831168"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询当前还款计划接口</t>
-    <rPh sb="0" eb="1">
-      <t>cha xun dang qian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>huan kuan ji hua</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>jie kou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "projectId":"35734386141831168"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/busi/project/queryRepaymentPlan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回购后收款通知接口</t>
-    <rPh sb="0" eb="1">
-      <t>hui gou hou</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shou kuan tong zhi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>jie kou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/busi/project/receiptsNotice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "projectId":"30844098113970111",
-  "clearTime":"2019-01-01 11:11:11"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel": "czb",
-  "sourceCode": "czb",
-  "sourceUserId": "46",
-  "userId": 37259945271382016,
-  "productCode": "XJ_CZB_CAR"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel": "czb",
-  "sourceCode": "czb",
-  "sourceUserId": "46",
-  "transactionId": "Test_46",
-  "serviceSn": "1547905999999",
-  "applyInfo": {
-    "applyTime": "2019-02-27 14:11:05",
-    "productCode": "XJ_CZB_CAR",
-    "applySource": "api",
-    "financeChannel": 1,
-    "liveAddressProvince": "110000",
-    "liveAddressCity": "110100",
-    "liveAddressBorough": "110105",
-    "liveDetailAddress": "四川省测试地址"
-  },
-  "cardInfo": {
-    "bankCode": 34,
-    "bankCardNo": "6217002200003225701",
-    "bankPhone": "18366582857",
-    "bankNameSub": "建设银行"
-  },
-  "riskSuggestion": {
-    "disburseNum": 1,
-    "repayNum": 1,
-    "lendingNum": 1,
-    "lendingAmount": 1,
-    "firstCreditDate": "2018-01-01 09:00:00"
-  },
-  "creditInfo": {
-    "sourceCreditAmt": 1000.00,
-    "sourceCreditRate": 1
-  },
-  "personalInfo": {
-    "cardNum": "61070119850813550X",
-    "custName": "黎丹蝶",
-    "phone": "18366582979",
-    "sex": 0,
-    "age": 35,
-    "maritalStatus": 1,
-    "hasChildren": 1,
-    "personalPurchaseHouse": 2,
-    "fourVerifyResult": 0,
-    "registeredAddressProvince": "110000",
-    "registeredAddressCity": "110100",
-    "registeredAddressBorough": "110105",
-    "registeredDetailAddress": "测试地址"
-  },
-  "contactInfo": {
-    "spouseName": "人厚",
-    "spouseCardNum": "81232919711203455X",
-    "firstContactRelationship": 6,
-    "firstContactName": "小二丝",
-    "firstContactCardNum": "81232919711203455X",
-    "firstContactPhone": "13731854665"
-  },
-  "orderDetail": {
-    "dealerName": "北京王二麻子车行",
-    "manageAddressProvince": "110000",
-    "manageAddressCity": "110100",
-    "manageAddressBorough": "110105",
-    "manageDetailAddress": "北京",
-    "secondHandCarTradeName": "哈利路亚交易市场",
-    "boothNoS": "hello",
-    "manageTime": 5,
-    "employeeNum": 4,
-    "stallNum": 2,
-    "hasCompany": 0,
-    "companyName": "北京哈利路亚有线车行公司",
-    "enterpriseRegisterNumber": "123456789098765",
-    "companyType": "有线责任工资",
-    "incumbencyPosition": "法人",
-    "shareRatio": 1,
-    "carCompanyNames": "中三",
-    "currentBusinessScale": 4,
-    "manageCarPreferences": 1,
-    "stockCarTotalNum": 10,
-    "stockCarPriceRange": "10-100",
-    "stockCarPriceMidValue": 100,
-    "stockCarPriceMeanValue": 10,
-    "stockCarPriceCycleMidValue": 10,
-    "stockCarPriceCycleMeanValue": 1,
-    "manageEvaluation": 4,
-    "totalCarRelatedAmt": 10000000,
-    "averageCarRelatedAmt": 1,
-    "totalCarRelatedCnt": 3,
-    "averageCarRelatedCnt": 5
-  },
-  "imageInfo": {
-    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
-  }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel": "czb",
-  "sourceCode": "czb",
-  "creditId": "37259945351061504"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "associationId":"34745104849707008",
-  "channel":"czb",
-  "contractId":"34746648307441664",
-  "contractType":2,
-  "requestTime":"2019-02-13 11:29:29",
-  "serviceSn":"1547902959779",
-  "sourceCode":"czb",
-  "sourceUserId":"36"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel":"czb",
-  "sourceCode":"czb",
-  "sourceProjectId":"",
-  "projectId":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel": "czb",
-  "sourceCode": "czb",
-  "sourceProjectId": "10357490",
-  "projectId": "37562553282338816",
-  "sourceUserId": "46",
-  "serviceSn": "154790",
-  "amount": 500.00,
-  "currency": "CNY",
-  "accountNo": "6217002200003225701",
-  "accountType": 0,
-  "accountProp": 0,
-  "accountName": "黎丹蝶",
-  "id": "61070119850813550X",
-  "bankPhone": "18366582857",
-  "idType": 0,
-  "bankCode": 34
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
   "X-TBC-SOURCE":"tbc_zhtb_czb",
   "X-TBC-SIGN":""
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/credit/queryResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/credit/queryUserAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/credit/apply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,13 +945,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -986,16 +993,16 @@
     </row>
     <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1036,16 +1043,16 @@
     </row>
     <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1086,16 +1093,16 @@
     </row>
     <row r="2" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1145,13 +1152,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -1202,16 +1209,16 @@
     </row>
     <row r="2" spans="1:4" ht="128" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1224,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1250,16 +1257,16 @@
     </row>
     <row r="2" spans="1:4" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1300,16 +1307,16 @@
     </row>
     <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1350,13 +1357,13 @@
     </row>
     <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1370,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1398,13 +1405,13 @@
     </row>
     <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1446,16 +1453,16 @@
     </row>
     <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1496,16 +1503,16 @@
     </row>
     <row r="2" spans="1:4" ht="288" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="query_user_amount" sheetId="2" r:id="rId1"/>
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1377,7 +1377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="query_user_amount" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="pre_clear_calculate" sheetId="10" r:id="rId10"/>
     <sheet name="repayment_plan" sheetId="11" r:id="rId11"/>
     <sheet name="receipts_notice" sheetId="12" r:id="rId12"/>
+    <sheet name="czb_credit_apply_data" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,106 +248,6 @@
   "sourceUserId": "46",
   "userId": 37259945271382016,
   "productCode": "XJ_CZB_CAR"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel": "czb",
-  "sourceCode": "czb",
-  "sourceUserId": "46",
-  "transactionId": "Test_46",
-  "serviceSn": "1547905999999",
-  "applyInfo": {
-    "applyTime": "2019-02-27 14:11:05",
-    "productCode": "XJ_CZB_CAR",
-    "applySource": "api",
-    "financeChannel": 1,
-    "liveAddressProvince": "110000",
-    "liveAddressCity": "110100",
-    "liveAddressBorough": "110105",
-    "liveDetailAddress": "四川省测试地址"
-  },
-  "cardInfo": {
-    "bankCode": 34,
-    "bankCardNo": "6217002200003225701",
-    "bankPhone": "18366582857",
-    "bankNameSub": "建设银行"
-  },
-  "riskSuggestion": {
-    "disburseNum": 1,
-    "repayNum": 1,
-    "lendingNum": 1,
-    "lendingAmount": 1,
-    "firstCreditDate": "2018-01-01 09:00:00"
-  },
-  "creditInfo": {
-    "sourceCreditAmt": 1000.00,
-    "sourceCreditRate": 1
-  },
-  "personalInfo": {
-    "cardNum": "61070119850813550X",
-    "custName": "黎丹蝶",
-    "phone": "18366582979",
-    "sex": 0,
-    "age": 35,
-    "maritalStatus": 1,
-    "hasChildren": 1,
-    "personalPurchaseHouse": 2,
-    "fourVerifyResult": 0,
-    "registeredAddressProvince": "110000",
-    "registeredAddressCity": "110100",
-    "registeredAddressBorough": "110105",
-    "registeredDetailAddress": "测试地址"
-  },
-  "contactInfo": {
-    "spouseName": "人厚",
-    "spouseCardNum": "81232919711203455X",
-    "firstContactRelationship": 6,
-    "firstContactName": "小二丝",
-    "firstContactCardNum": "81232919711203455X",
-    "firstContactPhone": "13731854665"
-  },
-  "orderDetail": {
-    "dealerName": "北京王二麻子车行",
-    "manageAddressProvince": "110000",
-    "manageAddressCity": "110100",
-    "manageAddressBorough": "110105",
-    "manageDetailAddress": "北京",
-    "secondHandCarTradeName": "哈利路亚交易市场",
-    "boothNoS": "hello",
-    "manageTime": 5,
-    "employeeNum": 4,
-    "stallNum": 2,
-    "hasCompany": 0,
-    "companyName": "北京哈利路亚有线车行公司",
-    "enterpriseRegisterNumber": "123456789098765",
-    "companyType": "有线责任工资",
-    "incumbencyPosition": "法人",
-    "shareRatio": 1,
-    "carCompanyNames": "中三",
-    "currentBusinessScale": 4,
-    "manageCarPreferences": 1,
-    "stockCarTotalNum": 10,
-    "stockCarPriceRange": "10-100",
-    "stockCarPriceMidValue": 100,
-    "stockCarPriceMeanValue": 10,
-    "stockCarPriceCycleMidValue": 10,
-    "stockCarPriceCycleMeanValue": 1,
-    "manageEvaluation": 4,
-    "totalCarRelatedAmt": 10000000,
-    "averageCarRelatedAmt": 1,
-    "totalCarRelatedCnt": 3,
-    "averageCarRelatedCnt": 5
-  },
-  "imageInfo": {
-    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
-  }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,6 +319,192 @@
   </si>
   <si>
     <t>/busi-api/api/v1/credit/apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "X-TBC-SOURCE":"tbc_zhtb_czb",
+  "X-TBC-SIGN":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>czb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sourceCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sourceUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transactionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceSn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "applyTime": "2019-02-27 14:11:05",
+    "productCode": "XJ_CZB_CAR",
+    "applySource": "api",
+    "financeChannel": 1,
+    "liveAddressProvince": "110000",
+    "liveAddressCity": "110100",
+    "liveAddressBorough": "110105",
+    "liveDetailAddress": "四川省测试地址"
+  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "bankCode": 34,
+    "bankCardNo": "6217002200003225701",
+    "bankPhone": "18366582857",
+    "bankNameSub": "建设银行"
+  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "disburseNum": 1,
+    "repayNum": 1,
+    "lendingNum": 1,
+    "lendingAmount": 1,
+    "firstCreditDate": "2018-01-01 09:00:00",
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creditInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contactInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "spouseName": "人厚",
+    "spouseCardNum": "81232919711203455X",
+    "firstContactRelationship": 6,
+    "firstContactName": "小二丝",
+    "firstContactCardNum": "81232919711203455X",
+    "firstContactPhone": "13731854665"
+  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "dealerName": "北京王二麻子车行",
+    "manageAddressProvince": "110000",
+    "manageAddressCity": "110100",
+    "manageAddressBorough": "110105",
+    "manageDetailAddress": "北京",
+    "secondHandCarTradeName": "哈利路亚交易市场",
+    "boothNoS": "hello",
+    "manageTime": 5,
+    "employeeNum": 4,
+    "stallNum": 2,
+    "hasCompany": 0,
+    "companyName": "北京哈利路亚有线车行公司",
+    "enterpriseRegisterNumber": "123456789098765",
+    "companyType": "有线责任公司",
+    "incumbencyPosition": "法人",
+    "shareRatio": 1,
+    "carCompanyNames": "中三",
+    "currentBusinessScale": 4,
+    "manageCarPreferences": 1,
+    "stockCarTotalNum": 10,
+    "stockCarPriceRange": "10-100",
+    "stockCarPriceMidValue": 100,
+    "stockCarPriceMeanValue": 10,
+    "stockCarPriceCycleMidValue": 10,
+    "stockCarPriceCycleMeanValue": 1,
+    "manageEvaluation": 4,
+    "totalCarRelatedAmt": 10000000,
+    "averageCarRelatedAmt": 1,
+    "totalCarRelatedCnt": 3,
+    "averageCarRelatedCnt": 5,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imageInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
+  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riskSuggestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "sourceCreditAmt": 200000.00,
+    "sourceCreditRate": 1
+  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personalInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "cardNum": "61070119850813550X",
+    "custName": "黎丹蝶",
+    "phone": "18366582979",
+    "sex": 0,
+    "age": 35,
+    "maritalStatus": 1,
+    "hasChildren": 1,
+    "personalPurchaseHouse": 2,
+    "fourVerifyResult": 0,
+    "registeredAddressProvince": "110000",
+    "registeredAddressCity": "110100",
+    "registeredAddressBorough": "110105",
+    "registeredDetailAddress": "测试地址"
+  }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -550,8 +637,101 @@
   </si>
   <si>
     <t>{
-  "X-TBC-SOURCE":"tbc_zhtb_czb",
-  "X-TBC-SIGN":""
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "46",
+  "transactionId": "Test_46",
+  "serviceSn": "1547905999999",
+  "applyInfo": {
+    "applyTime": "2019-02-27 14:11:05",
+    "productCode": "XJ_CZB_CAR",
+    "applySource": "api",
+    "financeChannel": 1,
+    "liveAddressProvince": "110000",
+    "liveAddressCity": "110100",
+    "liveAddressBorough": "110105",
+    "liveDetailAddress": "四川省测试地址"
+  },
+  "cardInfo": {
+    "bankCode": 34,
+    "bankCardNo": "6217002200003225701",
+    "bankPhone": "18366582857",
+    "bankNameSub": "建设银行"
+  },
+  "riskSuggestion": {
+    "disburseNum": 1,
+    "repayNum": 1,
+    "lendingNum": 1,
+    "lendingAmount": 1,
+    "firstCreditDate": "2018-01-01 09:00:00"
+  },
+  "creditInfo": {
+    "sourceCreditAmt": 1000.00,
+    "sourceCreditRate": 1
+  },
+  "personalInfo": {
+    "cardNum": "61070119850813550X",
+    "custName": "黎丹蝶",
+    "phone": "18366582979",
+    "sex": 0,
+    "age": 35,
+    "maritalStatus": 1,
+    "hasChildren": 1,
+    "personalPurchaseHouse": 2,
+    "fourVerifyResult": 0,
+    "registeredAddressProvince": "110000",
+    "registeredAddressCity": "110100",
+    "registeredAddressBorough": "110105",
+    "registeredDetailAddress": "测试地址"
+  },
+  "contactInfo": {
+    "spouseName": "人厚",
+    "spouseCardNum": "81232919711203455X",
+    "firstContactRelationship": 6,
+    "firstContactName": "小二丝",
+    "firstContactCardNum": "81232919711203455X",
+    "firstContactPhone": "13731854665"
+  },
+  "orderDetail": {
+    "dealerName": "北京王二麻子车行",
+    "manageAddressProvince": "110000",
+    "manageAddressCity": "110100",
+    "manageAddressBorough": "110105",
+    "manageDetailAddress": "北京",
+    "secondHandCarTradeName": "哈利路亚交易市场",
+    "boothNoS": "hello",
+    "manageTime": 5,
+    "employeeNum": 4,
+    "stallNum": 2,
+    "hasCompany": 0,
+    "companyName": "北京哈利路亚有线车行公司",
+    "enterpriseRegisterNumber": "123456789098765",
+    "companyType": "有线责任工资",
+    "incumbencyPosition": "法人",
+    "shareRatio": 1,
+    "carCompanyNames": "中三",
+    "currentBusinessScale": 4,
+    "manageCarPreferences": 1,
+    "stockCarTotalNum": 10,
+    "stockCarPriceRange": "10-100",
+    "stockCarPriceMidValue": 100,
+    "stockCarPriceMeanValue": 10,
+    "stockCarPriceCycleMidValue": 10,
+    "stockCarPriceCycleMeanValue": 1,
+    "manageEvaluation": 4,
+    "totalCarRelatedAmt": 10000000,
+    "averageCarRelatedAmt": 1,
+    "totalCarRelatedCnt": 3,
+    "averageCarRelatedCnt": 5
+  },
+  "imageInfo": {
+    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
+  }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -612,14 +792,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -630,13 +832,38 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="27">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -913,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -945,10 +1172,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -999,7 +1226,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -1049,7 +1276,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
@@ -1099,7 +1326,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
@@ -1108,6 +1335,126 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+    <col min="4" max="4" width="72" customWidth="1"/>
+    <col min="6" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.33203125" customWidth="1"/>
+    <col min="10" max="10" width="34.1640625" customWidth="1"/>
+    <col min="11" max="11" width="40.83203125" customWidth="1"/>
+    <col min="12" max="13" width="26.83203125" customWidth="1"/>
+    <col min="14" max="14" width="46.1640625" customWidth="1"/>
+    <col min="16" max="16" width="47.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="409" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1115,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1152,13 +1499,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -1183,7 +1530,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1212,13 +1559,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1263,10 +1610,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1313,10 +1660,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1363,7 +1710,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1378,14 +1725,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
     <col min="4" max="4" width="82.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1411,7 +1758,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1459,10 +1806,10 @@
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1509,10 +1856,10 @@
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="query_user_amount" sheetId="2" r:id="rId1"/>
@@ -269,36 +269,6 @@
   "serviceSn":"1547902959779",
   "sourceCode":"czb",
   "sourceUserId":"36"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel":"czb",
-  "sourceCode":"czb",
-  "sourceProjectId":"",
-  "projectId":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel": "czb",
-  "sourceCode": "czb",
-  "sourceProjectId": "10357490",
-  "projectId": "37562553282338816",
-  "sourceUserId": "46",
-  "serviceSn": "154790",
-  "amount": 500.00,
-  "currency": "CNY",
-  "accountNo": "6217002200003225701",
-  "accountType": 0,
-  "accountProp": 0,
-  "accountName": "黎丹蝶",
-  "id": "61070119850813550X",
-  "bankPhone": "18366582857",
-  "idType": 0,
-  "bankCode": 34
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -732,6 +702,36 @@
     "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
     "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
   }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"",
+  "projectId":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceProjectId": "10357490",
+  "projectId": "37562553282338816",
+  "sourceUserId": "46",
+  "serviceSn": "154790",
+  "amount": 5000.00,
+  "currency": "CNY",
+  "accountNo": "6217002200003225701",
+  "accountType": 0,
+  "accountProp": 0,
+  "accountName": "黎丹蝶",
+  "id": "61070119850813550X",
+  "bankPhone": "18366582857",
+  "idType": 0,
+  "bankCode": 34
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1172,10 +1172,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -1226,7 +1226,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -1276,7 +1276,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
@@ -1326,7 +1326,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
@@ -1371,43 +1371,43 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="409" x14ac:dyDescent="0.2">
@@ -1415,40 +1415,40 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="L2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="N2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1499,13 +1499,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -1559,10 +1559,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -1610,10 +1610,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1627,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1660,10 +1660,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1710,7 +1710,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1758,7 +1758,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1806,7 +1806,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
@@ -1822,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1856,10 +1856,10 @@
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="query_user_amount" sheetId="2" r:id="rId1"/>
@@ -475,6 +475,136 @@
     "registeredAddressBorough": "110105",
     "registeredDetailAddress": "测试地址"
   }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "46",
+  "transactionId": "Test_46",
+  "serviceSn": "1547905999999",
+  "applyInfo": {
+    "applyTime": "2019-02-27 14:11:05",
+    "productCode": "XJ_CZB_CAR",
+    "applySource": "api",
+    "financeChannel": 1,
+    "liveAddressProvince": "110000",
+    "liveAddressCity": "110100",
+    "liveAddressBorough": "110105",
+    "liveDetailAddress": "四川省测试地址"
+  },
+  "cardInfo": {
+    "bankCode": 34,
+    "bankCardNo": "6217002200003225701",
+    "bankPhone": "18366582857",
+    "bankNameSub": "建设银行"
+  },
+  "riskSuggestion": {
+    "disburseNum": 1,
+    "repayNum": 1,
+    "lendingNum": 1,
+    "lendingAmount": 1,
+    "firstCreditDate": "2018-01-01 09:00:00"
+  },
+  "creditInfo": {
+    "sourceCreditAmt": 1000.00,
+    "sourceCreditRate": 1
+  },
+  "personalInfo": {
+    "cardNum": "61070119850813550X",
+    "custName": "黎丹蝶",
+    "phone": "18366582979",
+    "sex": 0,
+    "age": 35,
+    "maritalStatus": 1,
+    "hasChildren": 1,
+    "personalPurchaseHouse": 2,
+    "fourVerifyResult": 0,
+    "registeredAddressProvince": "110000",
+    "registeredAddressCity": "110100",
+    "registeredAddressBorough": "110105",
+    "registeredDetailAddress": "测试地址"
+  },
+  "contactInfo": {
+    "spouseName": "人厚",
+    "spouseCardNum": "81232919711203455X",
+    "firstContactRelationship": 6,
+    "firstContactName": "小二丝",
+    "firstContactCardNum": "81232919711203455X",
+    "firstContactPhone": "13731854665"
+  },
+  "orderDetail": {
+    "dealerName": "北京王二麻子车行",
+    "manageAddressProvince": "110000",
+    "manageAddressCity": "110100",
+    "manageAddressBorough": "110105",
+    "manageDetailAddress": "北京",
+    "secondHandCarTradeName": "哈利路亚交易市场",
+    "boothNoS": "hello",
+    "manageTime": 5,
+    "employeeNum": 4,
+    "stallNum": 2,
+    "hasCompany": 0,
+    "companyName": "北京哈利路亚有线车行公司",
+    "enterpriseRegisterNumber": "123456789098765",
+    "companyType": "有线责任工资",
+    "incumbencyPosition": "法人",
+    "shareRatio": 1,
+    "carCompanyNames": "中三",
+    "currentBusinessScale": 4,
+    "manageCarPreferences": 1,
+    "stockCarTotalNum": 10,
+    "stockCarPriceRange": "10-100",
+    "stockCarPriceMidValue": 100,
+    "stockCarPriceMeanValue": 10,
+    "stockCarPriceCycleMidValue": 10,
+    "stockCarPriceCycleMeanValue": 1,
+    "manageEvaluation": 4,
+    "totalCarRelatedAmt": 10000000,
+    "averageCarRelatedAmt": 1,
+    "totalCarRelatedCnt": 3,
+    "averageCarRelatedCnt": 5
+  },
+  "imageInfo": {
+    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"",
+  "projectId":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceProjectId": "10357490",
+  "projectId": "37562553282338816",
+  "sourceUserId": "46",
+  "serviceSn": "154790",
+  "amount": 5000.00,
+  "currency": "CNY",
+  "accountNo": "6217002200003225701",
+  "accountType": 0,
+  "accountProp": 0,
+  "accountName": "黎丹蝶",
+  "id": "61070119850813550X",
+  "bankPhone": "18366582857",
+  "idType": 0,
+  "bankCode": 34
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -602,136 +732,6 @@
   "sourceProjectId":"10357490",
   "sourceUserId":"46",
   "transactionId":"Test_49"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel": "czb",
-  "sourceCode": "czb",
-  "sourceUserId": "46",
-  "transactionId": "Test_46",
-  "serviceSn": "1547905999999",
-  "applyInfo": {
-    "applyTime": "2019-02-27 14:11:05",
-    "productCode": "XJ_CZB_CAR",
-    "applySource": "api",
-    "financeChannel": 1,
-    "liveAddressProvince": "110000",
-    "liveAddressCity": "110100",
-    "liveAddressBorough": "110105",
-    "liveDetailAddress": "四川省测试地址"
-  },
-  "cardInfo": {
-    "bankCode": 34,
-    "bankCardNo": "6217002200003225701",
-    "bankPhone": "18366582857",
-    "bankNameSub": "建设银行"
-  },
-  "riskSuggestion": {
-    "disburseNum": 1,
-    "repayNum": 1,
-    "lendingNum": 1,
-    "lendingAmount": 1,
-    "firstCreditDate": "2018-01-01 09:00:00"
-  },
-  "creditInfo": {
-    "sourceCreditAmt": 1000.00,
-    "sourceCreditRate": 1
-  },
-  "personalInfo": {
-    "cardNum": "61070119850813550X",
-    "custName": "黎丹蝶",
-    "phone": "18366582979",
-    "sex": 0,
-    "age": 35,
-    "maritalStatus": 1,
-    "hasChildren": 1,
-    "personalPurchaseHouse": 2,
-    "fourVerifyResult": 0,
-    "registeredAddressProvince": "110000",
-    "registeredAddressCity": "110100",
-    "registeredAddressBorough": "110105",
-    "registeredDetailAddress": "测试地址"
-  },
-  "contactInfo": {
-    "spouseName": "人厚",
-    "spouseCardNum": "81232919711203455X",
-    "firstContactRelationship": 6,
-    "firstContactName": "小二丝",
-    "firstContactCardNum": "81232919711203455X",
-    "firstContactPhone": "13731854665"
-  },
-  "orderDetail": {
-    "dealerName": "北京王二麻子车行",
-    "manageAddressProvince": "110000",
-    "manageAddressCity": "110100",
-    "manageAddressBorough": "110105",
-    "manageDetailAddress": "北京",
-    "secondHandCarTradeName": "哈利路亚交易市场",
-    "boothNoS": "hello",
-    "manageTime": 5,
-    "employeeNum": 4,
-    "stallNum": 2,
-    "hasCompany": 0,
-    "companyName": "北京哈利路亚有线车行公司",
-    "enterpriseRegisterNumber": "123456789098765",
-    "companyType": "有线责任工资",
-    "incumbencyPosition": "法人",
-    "shareRatio": 1,
-    "carCompanyNames": "中三",
-    "currentBusinessScale": 4,
-    "manageCarPreferences": 1,
-    "stockCarTotalNum": 10,
-    "stockCarPriceRange": "10-100",
-    "stockCarPriceMidValue": 100,
-    "stockCarPriceMeanValue": 10,
-    "stockCarPriceCycleMidValue": 10,
-    "stockCarPriceCycleMeanValue": 1,
-    "manageEvaluation": 4,
-    "totalCarRelatedAmt": 10000000,
-    "averageCarRelatedAmt": 1,
-    "totalCarRelatedCnt": 3,
-    "averageCarRelatedCnt": 5
-  },
-  "imageInfo": {
-    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
-  }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel":"czb",
-  "sourceCode":"czb",
-  "sourceProjectId":"",
-  "projectId":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel": "czb",
-  "sourceCode": "czb",
-  "sourceProjectId": "10357490",
-  "projectId": "37562553282338816",
-  "sourceUserId": "46",
-  "serviceSn": "154790",
-  "amount": 5000.00,
-  "currency": "CNY",
-  "accountNo": "6217002200003225701",
-  "accountType": 0,
-  "accountProp": 0,
-  "accountName": "黎丹蝶",
-  "id": "61070119850813550X",
-  "bankPhone": "18366582857",
-  "idType": 0,
-  "bankCode": 34
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1505,7 +1505,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -1578,7 +1578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1613,7 +1613,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1663,7 +1663,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1822,7 +1822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1859,7 +1859,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -1579,7 +1579,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="query_user_amount" sheetId="2" r:id="rId1"/>
@@ -17,14 +17,12 @@
     <sheet name="credit_query_result" sheetId="3" r:id="rId3"/>
     <sheet name="test_project" sheetId="4" r:id="rId4"/>
     <sheet name="project_query_apply_result" sheetId="5" r:id="rId5"/>
-    <sheet name="upload" sheetId="6" r:id="rId6"/>
-    <sheet name="contract_sign" sheetId="7" r:id="rId7"/>
-    <sheet name="contract_query" sheetId="8" r:id="rId8"/>
-    <sheet name="project_loan" sheetId="9" r:id="rId9"/>
-    <sheet name="pre_clear_calculate" sheetId="10" r:id="rId10"/>
-    <sheet name="repayment_plan" sheetId="11" r:id="rId11"/>
-    <sheet name="receipts_notice" sheetId="12" r:id="rId12"/>
-    <sheet name="czb_credit_apply_data" sheetId="13" r:id="rId13"/>
+    <sheet name="contract_sign" sheetId="7" r:id="rId6"/>
+    <sheet name="contract_query" sheetId="8" r:id="rId7"/>
+    <sheet name="project_loan" sheetId="9" r:id="rId8"/>
+    <sheet name="pre_clear_calculate" sheetId="10" r:id="rId9"/>
+    <sheet name="repayment_plan" sheetId="11" r:id="rId10"/>
+    <sheet name="receipts_notice" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,20 +116,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>cha xun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/busi/file/upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影像传输接口</t>
-    <rPh sb="0" eb="1">
-      <t>ying xiang chuan shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jie kou</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,185 +280,6 @@
   "X-TBC-SOURCE":"tbc_zhtb_czb",
   "X-TBC-SIGN":""
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>channel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>czb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sourceCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sourceUserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transactionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceSn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "applyTime": "2019-02-27 14:11:05",
-    "productCode": "XJ_CZB_CAR",
-    "applySource": "api",
-    "financeChannel": 1,
-    "liveAddressProvince": "110000",
-    "liveAddressCity": "110100",
-    "liveAddressBorough": "110105",
-    "liveDetailAddress": "四川省测试地址"
-  }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "bankCode": 34,
-    "bankCardNo": "6217002200003225701",
-    "bankPhone": "18366582857",
-    "bankNameSub": "建设银行"
-  }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "disburseNum": 1,
-    "repayNum": 1,
-    "lendingNum": 1,
-    "lendingAmount": 1,
-    "firstCreditDate": "2018-01-01 09:00:00",
-    "normRepayNum":0,
-    "overdueTimes":0,
-    "maxOverdueDays":0
-  }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>creditInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contactInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "spouseName": "人厚",
-    "spouseCardNum": "81232919711203455X",
-    "firstContactRelationship": 6,
-    "firstContactName": "小二丝",
-    "firstContactCardNum": "81232919711203455X",
-    "firstContactPhone": "13731854665"
-  }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "dealerName": "北京王二麻子车行",
-    "manageAddressProvince": "110000",
-    "manageAddressCity": "110100",
-    "manageAddressBorough": "110105",
-    "manageDetailAddress": "北京",
-    "secondHandCarTradeName": "哈利路亚交易市场",
-    "boothNoS": "hello",
-    "manageTime": 5,
-    "employeeNum": 4,
-    "stallNum": 2,
-    "hasCompany": 0,
-    "companyName": "北京哈利路亚有线车行公司",
-    "enterpriseRegisterNumber": "123456789098765",
-    "companyType": "有线责任公司",
-    "incumbencyPosition": "法人",
-    "shareRatio": 1,
-    "carCompanyNames": "中三",
-    "currentBusinessScale": 4,
-    "manageCarPreferences": 1,
-    "stockCarTotalNum": 10,
-    "stockCarPriceRange": "10-100",
-    "stockCarPriceMidValue": 100,
-    "stockCarPriceMeanValue": 10,
-    "stockCarPriceCycleMidValue": 10,
-    "stockCarPriceCycleMeanValue": 1,
-    "manageEvaluation": 4,
-    "totalCarRelatedAmt": 10000000,
-    "averageCarRelatedAmt": 1,
-    "totalCarRelatedCnt": 3,
-    "averageCarRelatedCnt": 5,
-    "platformRegisterDays":0,
-    "platformBreakNum":0,
-    "platformBidCars":899,
-    "platformTotalAmt":8822.19,
-    "platformTotalNum":2838,
-    "platformAverageAmt":66652.22
-  }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imageInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
-  }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>riskSuggestion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "sourceCreditAmt": 200000.00,
-    "sourceCreditRate": 1
-  }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>personalInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "cardNum": "61070119850813550X",
-    "custName": "黎丹蝶",
-    "phone": "18366582979",
-    "sex": 0,
-    "age": 35,
-    "maritalStatus": 1,
-    "hasChildren": 1,
-    "personalPurchaseHouse": 2,
-    "fourVerifyResult": 0,
-    "registeredAddressProvince": "110000",
-    "registeredAddressCity": "110100",
-    "registeredAddressBorough": "110105",
-    "registeredDetailAddress": "测试地址"
-  }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -733,6 +538,18 @@
   "sourceUserId":"46",
   "transactionId":"Test_49"
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -821,7 +638,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -831,9 +648,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -1138,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1153,7 +967,7 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1166,19 +980,22 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1190,60 +1007,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1254,7 +1021,7 @@
     <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,19 +1034,22 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1288,12 +1058,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1304,7 +1074,7 @@
     <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,144 +1087,27 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" customWidth="1"/>
-    <col min="4" max="4" width="72" customWidth="1"/>
-    <col min="6" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.33203125" customWidth="1"/>
-    <col min="10" max="10" width="34.1640625" customWidth="1"/>
-    <col min="11" max="11" width="40.83203125" customWidth="1"/>
-    <col min="12" max="13" width="26.83203125" customWidth="1"/>
-    <col min="14" max="14" width="46.1640625" customWidth="1"/>
-    <col min="16" max="16" width="47.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="409" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1463,7 +1116,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1493,19 +1146,22 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="171" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -1527,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1540,7 +1196,7 @@
     <col min="4" max="4" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1553,19 +1209,22 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1576,9 +1235,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1588,7 +1247,7 @@
     <col min="4" max="4" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1601,8 +1260,11 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="409" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1610,10 +1272,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1624,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1638,7 +1300,7 @@
     <col min="4" max="4" width="82.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1651,8 +1313,11 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1660,10 +1325,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1674,10 +1339,61 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="82.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1688,7 +1404,7 @@
     <col min="4" max="4" width="82.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1701,56 +1417,11 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="82.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1758,9 +1429,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1770,60 +1443,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1834,7 +1457,7 @@
     <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1847,8 +1470,64 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="288" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="288" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1856,10 +1535,10 @@
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="query_user_amount" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -550,6 +550,10 @@
   </si>
   <si>
     <t>resultCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +613,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -637,8 +641,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -649,8 +655,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -665,6 +672,7 @@
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -678,6 +686,7 @@
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -955,7 +964,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -997,6 +1006,9 @@
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1010,7 +1022,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1051,6 +1063,9 @@
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1063,7 +1078,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1104,10 +1119,14 @@
       <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1116,7 +1135,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1163,6 +1182,9 @@
       <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
     </row>
@@ -1186,7 +1208,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1225,6 +1247,9 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1277,6 +1302,9 @@
       <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1289,7 +1317,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1329,6 +1357,9 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>36</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1381,6 +1412,9 @@
         <v>34</v>
       </c>
       <c r="D2" s="2"/>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1393,7 +1427,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1434,6 +1468,9 @@
       <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1446,7 +1483,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1487,6 +1524,9 @@
       <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1499,7 +1539,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1540,6 +1580,9 @@
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="query_user_amount" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="68">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,14 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/busi-api/api/v1/busi/project/apply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/busi/project/queryApplyResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进件结果查询接口</t>
     <rPh sb="2" eb="3">
       <t>jie guo</t>
@@ -133,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/busi-api/api/v1/busi/contract/sign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看协议结果接口</t>
     <rPh sb="0" eb="1">
       <t>cha kan xie yi jie guo</t>
@@ -144,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/busi-api/api/v1/busi/contract/query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>放款接口</t>
     <rPh sb="0" eb="1">
       <t>fang kuan</t>
@@ -155,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/busi-api/api/v1/busi/loan/pfa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提前结清试算接口</t>
     <rPh sb="0" eb="1">
       <t>ti qian jie qing</t>
@@ -169,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/busi-api/api/v1/busi/project/preClearCalculate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
   "projectId": "35734386141831168"
 }</t>
@@ -198,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/busi-api/api/v1/busi/project/queryRepaymentPlan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回购后收款通知接口</t>
     <rPh sb="0" eb="1">
       <t>hui gou hou</t>
@@ -212,10 +184,6 @@
     <rPh sb="7" eb="8">
       <t>jie kou</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/busi/project/receiptsNotice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -264,121 +232,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/busi-api/api/v1/credit/queryResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/credit/queryUserAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/credit/apply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
   "X-TBC-SOURCE":"tbc_zhtb_czb",
   "X-TBC-SIGN":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel": "czb",
-  "sourceCode": "czb",
-  "sourceUserId": "46",
-  "transactionId": "Test_46",
-  "serviceSn": "1547905999999",
-  "applyInfo": {
-    "applyTime": "2019-02-27 14:11:05",
-    "productCode": "XJ_CZB_CAR",
-    "applySource": "api",
-    "financeChannel": 1,
-    "liveAddressProvince": "110000",
-    "liveAddressCity": "110100",
-    "liveAddressBorough": "110105",
-    "liveDetailAddress": "四川省测试地址"
-  },
-  "cardInfo": {
-    "bankCode": 34,
-    "bankCardNo": "6217002200003225701",
-    "bankPhone": "18366582857",
-    "bankNameSub": "建设银行"
-  },
-  "riskSuggestion": {
-    "disburseNum": 1,
-    "repayNum": 1,
-    "lendingNum": 1,
-    "lendingAmount": 1,
-    "firstCreditDate": "2018-01-01 09:00:00"
-  },
-  "creditInfo": {
-    "sourceCreditAmt": 1000.00,
-    "sourceCreditRate": 1
-  },
-  "personalInfo": {
-    "cardNum": "61070119850813550X",
-    "custName": "黎丹蝶",
-    "phone": "18366582979",
-    "sex": 0,
-    "age": 35,
-    "maritalStatus": 1,
-    "hasChildren": 1,
-    "personalPurchaseHouse": 2,
-    "fourVerifyResult": 0,
-    "registeredAddressProvince": "110000",
-    "registeredAddressCity": "110100",
-    "registeredAddressBorough": "110105",
-    "registeredDetailAddress": "测试地址"
-  },
-  "contactInfo": {
-    "spouseName": "人厚",
-    "spouseCardNum": "81232919711203455X",
-    "firstContactRelationship": 6,
-    "firstContactName": "小二丝",
-    "firstContactCardNum": "81232919711203455X",
-    "firstContactPhone": "13731854665"
-  },
-  "orderDetail": {
-    "dealerName": "北京王二麻子车行",
-    "manageAddressProvince": "110000",
-    "manageAddressCity": "110100",
-    "manageAddressBorough": "110105",
-    "manageDetailAddress": "北京",
-    "secondHandCarTradeName": "哈利路亚交易市场",
-    "boothNoS": "hello",
-    "manageTime": 5,
-    "employeeNum": 4,
-    "stallNum": 2,
-    "hasCompany": 0,
-    "companyName": "北京哈利路亚有线车行公司",
-    "enterpriseRegisterNumber": "123456789098765",
-    "companyType": "有线责任工资",
-    "incumbencyPosition": "法人",
-    "shareRatio": 1,
-    "carCompanyNames": "中三",
-    "currentBusinessScale": 4,
-    "manageCarPreferences": 1,
-    "stockCarTotalNum": 10,
-    "stockCarPriceRange": "10-100",
-    "stockCarPriceMidValue": 100,
-    "stockCarPriceMeanValue": 10,
-    "stockCarPriceCycleMidValue": 10,
-    "stockCarPriceCycleMeanValue": 1,
-    "manageEvaluation": 4,
-    "totalCarRelatedAmt": 10000000,
-    "averageCarRelatedAmt": 1,
-    "totalCarRelatedCnt": 3,
-    "averageCarRelatedCnt": 5
-  },
-  "imageInfo": {
-    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
-  }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -554,6 +410,1420 @@
   </si>
   <si>
     <t>2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额度授信:缺少必传normRepayNum</t>
+    <rPh sb="0" eb="1">
+      <t>e du shou xin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "46",
+  "transactionId": "Test_46",
+  "serviceSn": "1547905999999",
+  "applyInfo": {
+    "applyTime": "2019-02-27 14:11:05",
+    "productCode": "XJ_CZB_CAR",
+    "applySource": "api",
+    "financeChannel": 1,
+    "liveAddressProvince": "110000",
+    "liveAddressCity": "110100",
+    "liveAddressBorough": "110105",
+    "liveDetailAddress": "四川省测试地址"
+  },
+  "cardInfo": {
+    "bankCode": 34,
+    "bankCardNo": "6217002200003225701",
+    "bankPhone": "18366582857",
+    "bankNameSub": "建设银行"
+  },
+  "riskSuggestion": {
+    "disburseNum": 1,
+    "repayNum": 1,
+    "lendingNum": 1,
+    "lendingAmount": 1,
+    "firstCreditDate": "2018-01-01 09:00:00",
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "creditInfo": {
+    "sourceCreditAmt": 200000.00,
+    "sourceCreditRate": 1
+  },
+  "personalInfo": {
+    "cardNum": "61070119850813550X",
+    "custName": "黎丹蝶",
+    "phone": "18366582979",
+    "sex": 0,
+    "age": 35,
+    "maritalStatus": 1,
+    "hasChildren": 1,
+    "personalPurchaseHouse": 2,
+    "fourVerifyResult": 0,
+    "registeredAddressProvince": "110000",
+    "registeredAddressCity": "110100",
+    "registeredAddressBorough": "110105",
+    "registeredDetailAddress": "测试地址"
+  },
+  "contactInfo": {
+    "spouseName": "人厚",
+    "spouseCardNum": "81232919711203455X",
+    "firstContactRelationship": 6,
+    "firstContactName": "小二丝",
+    "firstContactCardNum": "81232919711203455X",
+    "firstContactPhone": "13731854665"
+  },
+  "orderDetail": {
+    "dealerName": "北京王二麻子车行",
+    "manageAddressProvince": "110000",
+    "manageAddressCity": "110100",
+    "manageAddressBorough": "110105",
+    "manageDetailAddress": "北京",
+    "secondHandCarTradeName": "哈利路亚交易市场",
+    "boothNoS": "hello",
+    "manageTime": 5,
+    "employeeNum": 4,
+    "stallNum": 2,
+    "hasCompany": 0,
+    "companyName": "北京哈利路亚有线车行公司",
+    "enterpriseRegisterNumber": "123456789098765",
+    "companyType": "有线责任公司",
+    "incumbencyPosition": "法人",
+    "shareRatio": 1,
+    "carCompanyNames": "中三",
+    "currentBusinessScale": 4,
+    "manageCarPreferences": 1,
+    "stockCarTotalNum": 10,
+    "stockCarPriceRange": "10-100",
+    "stockCarPriceMidValue": 100,
+    "stockCarPriceMeanValue": 10,
+    "stockCarPriceCycleMidValue": 10,
+    "stockCarPriceCycleMeanValue": 1,
+    "manageEvaluation": 4,
+    "totalCarRelatedAmt": 10000000,
+    "averageCarRelatedAmt": 1,
+    "totalCarRelatedCnt": 3,
+    "averageCarRelatedCnt": 5,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "imageInfo": {
+    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额度授信:缺少必传overdueTimes</t>
+    <rPh sb="0" eb="1">
+      <t>e du shou xin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "46",
+  "transactionId": "Test_46",
+  "serviceSn": "1547905999999",
+  "applyInfo": {
+    "applyTime": "2019-02-27 14:11:05",
+    "productCode": "XJ_CZB_CAR",
+    "applySource": "api",
+    "financeChannel": 1,
+    "liveAddressProvince": "110000",
+    "liveAddressCity": "110100",
+    "liveAddressBorough": "110105",
+    "liveDetailAddress": "四川省测试地址"
+  },
+  "cardInfo": {
+    "bankCode": 34,
+    "bankCardNo": "6217002200003225701",
+    "bankPhone": "18366582857",
+    "bankNameSub": "建设银行"
+  },
+  "riskSuggestion": {
+    "disburseNum": 1,
+    "repayNum": 1,
+    "lendingNum": 1,
+    "lendingAmount": 1,
+    "firstCreditDate": "2018-01-01 09:00:00",
+    "normRepayNum":0,
+    "maxOverdueDays":0
+  },
+  "creditInfo": {
+    "sourceCreditAmt": 200000.00,
+    "sourceCreditRate": 1
+  },
+  "personalInfo": {
+    "cardNum": "61070119850813550X",
+    "custName": "黎丹蝶",
+    "phone": "18366582979",
+    "sex": 0,
+    "age": 35,
+    "maritalStatus": 1,
+    "hasChildren": 1,
+    "personalPurchaseHouse": 2,
+    "fourVerifyResult": 0,
+    "registeredAddressProvince": "110000",
+    "registeredAddressCity": "110100",
+    "registeredAddressBorough": "110105",
+    "registeredDetailAddress": "测试地址"
+  },
+  "contactInfo": {
+    "spouseName": "人厚",
+    "spouseCardNum": "81232919711203455X",
+    "firstContactRelationship": 6,
+    "firstContactName": "小二丝",
+    "firstContactCardNum": "81232919711203455X",
+    "firstContactPhone": "13731854665"
+  },
+  "orderDetail": {
+    "dealerName": "北京王二麻子车行",
+    "manageAddressProvince": "110000",
+    "manageAddressCity": "110100",
+    "manageAddressBorough": "110105",
+    "manageDetailAddress": "北京",
+    "secondHandCarTradeName": "哈利路亚交易市场",
+    "boothNoS": "hello",
+    "manageTime": 5,
+    "employeeNum": 4,
+    "stallNum": 2,
+    "hasCompany": 0,
+    "companyName": "北京哈利路亚有线车行公司",
+    "enterpriseRegisterNumber": "123456789098765",
+    "companyType": "有线责任公司",
+    "incumbencyPosition": "法人",
+    "shareRatio": 1,
+    "carCompanyNames": "中三",
+    "currentBusinessScale": 4,
+    "manageCarPreferences": 1,
+    "stockCarTotalNum": 10,
+    "stockCarPriceRange": "10-100",
+    "stockCarPriceMidValue": 100,
+    "stockCarPriceMeanValue": 10,
+    "stockCarPriceCycleMidValue": 10,
+    "stockCarPriceCycleMeanValue": 1,
+    "manageEvaluation": 4,
+    "totalCarRelatedAmt": 10000000,
+    "averageCarRelatedAmt": 1,
+    "totalCarRelatedCnt": 3,
+    "averageCarRelatedCnt": 5,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "imageInfo": {
+    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额度授信:缺少必传maxOverdueDays</t>
+    <rPh sb="0" eb="1">
+      <t>e du shou xin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "46",
+  "transactionId": "Test_46",
+  "serviceSn": "1547905999999",
+  "applyInfo": {
+    "applyTime": "2019-02-27 14:11:05",
+    "productCode": "XJ_CZB_CAR",
+    "applySource": "api",
+    "financeChannel": 1,
+    "liveAddressProvince": "110000",
+    "liveAddressCity": "110100",
+    "liveAddressBorough": "110105",
+    "liveDetailAddress": "四川省测试地址"
+  },
+  "cardInfo": {
+    "bankCode": 34,
+    "bankCardNo": "6217002200003225701",
+    "bankPhone": "18366582857",
+    "bankNameSub": "建设银行"
+  },
+  "riskSuggestion": {
+    "disburseNum": 1,
+    "repayNum": 1,
+    "lendingNum": 1,
+    "lendingAmount": 1,
+    "firstCreditDate": "2018-01-01 09:00:00",
+    "normRepayNum":0,
+    "overdueTimes":0
+  },
+  "creditInfo": {
+    "sourceCreditAmt": 200000.00,
+    "sourceCreditRate": 1
+  },
+  "personalInfo": {
+    "cardNum": "61070119850813550X",
+    "custName": "黎丹蝶",
+    "phone": "18366582979",
+    "sex": 0,
+    "age": 35,
+    "maritalStatus": 1,
+    "hasChildren": 1,
+    "personalPurchaseHouse": 2,
+    "fourVerifyResult": 0,
+    "registeredAddressProvince": "110000",
+    "registeredAddressCity": "110100",
+    "registeredAddressBorough": "110105",
+    "registeredDetailAddress": "测试地址"
+  },
+  "contactInfo": {
+    "spouseName": "人厚",
+    "spouseCardNum": "81232919711203455X",
+    "firstContactRelationship": 6,
+    "firstContactName": "小二丝",
+    "firstContactCardNum": "81232919711203455X",
+    "firstContactPhone": "13731854665"
+  },
+  "orderDetail": {
+    "dealerName": "北京王二麻子车行",
+    "manageAddressProvince": "110000",
+    "manageAddressCity": "110100",
+    "manageAddressBorough": "110105",
+    "manageDetailAddress": "北京",
+    "secondHandCarTradeName": "哈利路亚交易市场",
+    "boothNoS": "hello",
+    "manageTime": 5,
+    "employeeNum": 4,
+    "stallNum": 2,
+    "hasCompany": 0,
+    "companyName": "北京哈利路亚有线车行公司",
+    "enterpriseRegisterNumber": "123456789098765",
+    "companyType": "有线责任公司",
+    "incumbencyPosition": "法人",
+    "shareRatio": 1,
+    "carCompanyNames": "中三",
+    "currentBusinessScale": 4,
+    "manageCarPreferences": 1,
+    "stockCarTotalNum": 10,
+    "stockCarPriceRange": "10-100",
+    "stockCarPriceMidValue": 100,
+    "stockCarPriceMeanValue": 10,
+    "stockCarPriceCycleMidValue": 10,
+    "stockCarPriceCycleMeanValue": 1,
+    "manageEvaluation": 4,
+    "totalCarRelatedAmt": 10000000,
+    "averageCarRelatedAmt": 1,
+    "totalCarRelatedCnt": 3,
+    "averageCarRelatedCnt": 5,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "imageInfo": {
+    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "46",
+  "transactionId": "Test_46",
+  "serviceSn": "1547905999999",
+  "applyInfo": {
+    "applyTime": "2019-02-27 14:11:05",
+    "productCode": "XJ_CZB_CAR",
+    "applySource": "api",
+    "financeChannel": 1,
+    "liveAddressProvince": "110000",
+    "liveAddressCity": "110100",
+    "liveAddressBorough": "110105",
+    "liveDetailAddress": "四川省测试地址"
+  },
+  "cardInfo": {
+    "bankCode": 34,
+    "bankCardNo": "6217002200003225701",
+    "bankPhone": "18366582857",
+    "bankNameSub": "建设银行"
+  },
+  "riskSuggestion": {
+    "disburseNum": 1,
+    "repayNum": 1,
+    "lendingNum": 1,
+    "lendingAmount": 1,
+    "firstCreditDate": "2018-01-01 09:00:00",
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "creditInfo": {
+    "sourceCreditAmt": 200000.00,
+    "sourceCreditRate": 1
+  },
+  "personalInfo": {
+    "cardNum": "61070119850813550X",
+    "custName": "黎丹蝶",
+    "phone": "18366582979",
+    "sex": 0,
+    "age": 35,
+    "maritalStatus": 1,
+    "hasChildren": 1,
+    "personalPurchaseHouse": 2,
+    "fourVerifyResult": 0,
+    "registeredAddressProvince": "110000",
+    "registeredAddressCity": "110100",
+    "registeredAddressBorough": "110105",
+    "registeredDetailAddress": "测试地址"
+  },
+  "contactInfo": {
+    "spouseName": "人厚",
+    "spouseCardNum": "81232919711203455X",
+    "firstContactRelationship": 6,
+    "firstContactName": "小二丝",
+    "firstContactCardNum": "81232919711203455X",
+    "firstContactPhone": "13731854665"
+  },
+  "orderDetail": {
+    "dealerName": "北京王二麻子车行",
+    "manageAddressProvince": "110000",
+    "manageAddressCity": "110100",
+    "manageAddressBorough": "110105",
+    "manageDetailAddress": "北京",
+    "secondHandCarTradeName": "哈利路亚交易市场",
+    "boothNoS": "hello",
+    "manageTime": 5,
+    "employeeNum": 4,
+    "stallNum": 2,
+    "hasCompany": 0,
+    "companyName": "北京哈利路亚有线车行公司",
+    "enterpriseRegisterNumber": "123456789098765",
+    "companyType": "有线责任公司",
+    "incumbencyPosition": "法人",
+    "shareRatio": 1,
+    "carCompanyNames": "中三",
+    "currentBusinessScale": 4,
+    "manageCarPreferences": 1,
+    "stockCarPriceRange": "10-100",
+    "stockCarPriceMidValue": 100,
+    "stockCarPriceMeanValue": 10,
+    "stockCarPriceCycleMidValue": 10,
+    "stockCarPriceCycleMeanValue": 1,
+    "manageEvaluation": 4,
+    "totalCarRelatedAmt": 10000000,
+    "averageCarRelatedAmt": 1,
+    "totalCarRelatedCnt": 3,
+    "averageCarRelatedCnt": 5,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "imageInfo": {
+    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额度授信:缺少非必传stockCarTotalNum</t>
+    <rPh sb="0" eb="1">
+      <t>e du shou xin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额度授信:缺少非必传stockCarPriceRange</t>
+    <rPh sb="0" eb="1">
+      <t>e du shou xin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fei bi chuan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "46",
+  "transactionId": "Test_46",
+  "serviceSn": "1547905999999",
+  "applyInfo": {
+    "applyTime": "2019-02-27 14:11:05",
+    "productCode": "XJ_CZB_CAR",
+    "applySource": "api",
+    "financeChannel": 1,
+    "liveAddressProvince": "110000",
+    "liveAddressCity": "110100",
+    "liveAddressBorough": "110105",
+    "liveDetailAddress": "四川省测试地址"
+  },
+  "cardInfo": {
+    "bankCode": 34,
+    "bankCardNo": "6217002200003225701",
+    "bankPhone": "18366582857",
+    "bankNameSub": "建设银行"
+  },
+  "riskSuggestion": {
+    "disburseNum": 1,
+    "repayNum": 1,
+    "lendingNum": 1,
+    "lendingAmount": 1,
+    "firstCreditDate": "2018-01-01 09:00:00",
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "creditInfo": {
+    "sourceCreditAmt": 200000.00,
+    "sourceCreditRate": 1
+  },
+  "personalInfo": {
+    "cardNum": "61070119850813550X",
+    "custName": "黎丹蝶",
+    "phone": "18366582979",
+    "sex": 0,
+    "age": 35,
+    "maritalStatus": 1,
+    "hasChildren": 1,
+    "personalPurchaseHouse": 2,
+    "fourVerifyResult": 0,
+    "registeredAddressProvince": "110000",
+    "registeredAddressCity": "110100",
+    "registeredAddressBorough": "110105",
+    "registeredDetailAddress": "测试地址"
+  },
+  "contactInfo": {
+    "spouseName": "人厚",
+    "spouseCardNum": "81232919711203455X",
+    "firstContactRelationship": 6,
+    "firstContactName": "小二丝",
+    "firstContactCardNum": "81232919711203455X",
+    "firstContactPhone": "13731854665"
+  },
+  "orderDetail": {
+    "dealerName": "北京王二麻子车行",
+    "manageAddressProvince": "110000",
+    "manageAddressCity": "110100",
+    "manageAddressBorough": "110105",
+    "manageDetailAddress": "北京",
+    "secondHandCarTradeName": "哈利路亚交易市场",
+    "boothNoS": "hello",
+    "manageTime": 5,
+    "employeeNum": 4,
+    "stallNum": 2,
+    "hasCompany": 0,
+    "companyName": "北京哈利路亚有线车行公司",
+    "enterpriseRegisterNumber": "123456789098765",
+    "companyType": "有线责任公司",
+    "incumbencyPosition": "法人",
+    "shareRatio": 1,
+    "carCompanyNames": "中三",
+    "currentBusinessScale": 4,
+    "manageCarPreferences": 1,
+    "stockCarTotalNum": 10,
+    "stockCarPriceMidValue": 100,
+    "stockCarPriceMeanValue": 10,
+    "stockCarPriceCycleMidValue": 10,
+    "stockCarPriceCycleMeanValue": 1,
+    "manageEvaluation": 4,
+    "totalCarRelatedAmt": 10000000,
+    "averageCarRelatedAmt": 1,
+    "totalCarRelatedCnt": 3,
+    "averageCarRelatedCnt": 5,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "imageInfo": {
+    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额度授信:缺少非必传stockCarPriceMidValue</t>
+    <rPh sb="0" eb="1">
+      <t>e du shou xin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fei bi chuan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "46",
+  "transactionId": "Test_46",
+  "serviceSn": "1547905999999",
+  "applyInfo": {
+    "applyTime": "2019-02-27 14:11:05",
+    "productCode": "XJ_CZB_CAR",
+    "applySource": "api",
+    "financeChannel": 1,
+    "liveAddressProvince": "110000",
+    "liveAddressCity": "110100",
+    "liveAddressBorough": "110105",
+    "liveDetailAddress": "四川省测试地址"
+  },
+  "cardInfo": {
+    "bankCode": 34,
+    "bankCardNo": "6217002200003225701",
+    "bankPhone": "18366582857",
+    "bankNameSub": "建设银行"
+  },
+  "riskSuggestion": {
+    "disburseNum": 1,
+    "repayNum": 1,
+    "lendingNum": 1,
+    "lendingAmount": 1,
+    "firstCreditDate": "2018-01-01 09:00:00",
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "creditInfo": {
+    "sourceCreditAmt": 200000.00,
+    "sourceCreditRate": 1
+  },
+  "personalInfo": {
+    "cardNum": "61070119850813550X",
+    "custName": "黎丹蝶",
+    "phone": "18366582979",
+    "sex": 0,
+    "age": 35,
+    "maritalStatus": 1,
+    "hasChildren": 1,
+    "personalPurchaseHouse": 2,
+    "fourVerifyResult": 0,
+    "registeredAddressProvince": "110000",
+    "registeredAddressCity": "110100",
+    "registeredAddressBorough": "110105",
+    "registeredDetailAddress": "测试地址"
+  },
+  "contactInfo": {
+    "spouseName": "人厚",
+    "spouseCardNum": "81232919711203455X",
+    "firstContactRelationship": 6,
+    "firstContactName": "小二丝",
+    "firstContactCardNum": "81232919711203455X",
+    "firstContactPhone": "13731854665"
+  },
+  "orderDetail": {
+    "dealerName": "北京王二麻子车行",
+    "manageAddressProvince": "110000",
+    "manageAddressCity": "110100",
+    "manageAddressBorough": "110105",
+    "manageDetailAddress": "北京",
+    "secondHandCarTradeName": "哈利路亚交易市场",
+    "boothNoS": "hello",
+    "manageTime": 5,
+    "employeeNum": 4,
+    "stallNum": 2,
+    "hasCompany": 0,
+    "companyName": "北京哈利路亚有线车行公司",
+    "enterpriseRegisterNumber": "123456789098765",
+    "companyType": "有线责任公司",
+    "incumbencyPosition": "法人",
+    "shareRatio": 1,
+    "carCompanyNames": "中三",
+    "currentBusinessScale": 4,
+    "manageCarPreferences": 1,
+    "stockCarTotalNum": 10,
+    "stockCarPriceRange": "10-100",
+    "stockCarPriceMeanValue": 10,
+    "stockCarPriceCycleMidValue": 10,
+    "stockCarPriceCycleMeanValue": 1,
+    "manageEvaluation": 4,
+    "totalCarRelatedAmt": 10000000,
+    "averageCarRelatedAmt": 1,
+    "totalCarRelatedCnt": 3,
+    "averageCarRelatedCnt": 5,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "imageInfo": {
+    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额度授信:缺少非必传stockCarPriceMeanValue</t>
+    <rPh sb="0" eb="1">
+      <t>e du shou xin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fei bi chuan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额度授信:缺少非必传stockCarPriceCycleMidValue</t>
+    <rPh sb="0" eb="1">
+      <t>e du shou xin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fei bi chuan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "46",
+  "transactionId": "Test_46",
+  "serviceSn": "1547905999999",
+  "applyInfo": {
+    "applyTime": "2019-02-27 14:11:05",
+    "productCode": "XJ_CZB_CAR",
+    "applySource": "api",
+    "financeChannel": 1,
+    "liveAddressProvince": "110000",
+    "liveAddressCity": "110100",
+    "liveAddressBorough": "110105",
+    "liveDetailAddress": "四川省测试地址"
+  },
+  "cardInfo": {
+    "bankCode": 34,
+    "bankCardNo": "6217002200003225701",
+    "bankPhone": "18366582857",
+    "bankNameSub": "建设银行"
+  },
+  "riskSuggestion": {
+    "disburseNum": 1,
+    "repayNum": 1,
+    "lendingNum": 1,
+    "lendingAmount": 1,
+    "firstCreditDate": "2018-01-01 09:00:00",
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "creditInfo": {
+    "sourceCreditAmt": 200000.00,
+    "sourceCreditRate": 1
+  },
+  "personalInfo": {
+    "cardNum": "61070119850813550X",
+    "custName": "黎丹蝶",
+    "phone": "18366582979",
+    "sex": 0,
+    "age": 35,
+    "maritalStatus": 1,
+    "hasChildren": 1,
+    "personalPurchaseHouse": 2,
+    "fourVerifyResult": 0,
+    "registeredAddressProvince": "110000",
+    "registeredAddressCity": "110100",
+    "registeredAddressBorough": "110105",
+    "registeredDetailAddress": "测试地址"
+  },
+  "contactInfo": {
+    "spouseName": "人厚",
+    "spouseCardNum": "81232919711203455X",
+    "firstContactRelationship": 6,
+    "firstContactName": "小二丝",
+    "firstContactCardNum": "81232919711203455X",
+    "firstContactPhone": "13731854665"
+  },
+  "orderDetail": {
+    "dealerName": "北京王二麻子车行",
+    "manageAddressProvince": "110000",
+    "manageAddressCity": "110100",
+    "manageAddressBorough": "110105",
+    "manageDetailAddress": "北京",
+    "secondHandCarTradeName": "哈利路亚交易市场",
+    "boothNoS": "hello",
+    "manageTime": 5,
+    "employeeNum": 4,
+    "stallNum": 2,
+    "hasCompany": 0,
+    "companyName": "北京哈利路亚有线车行公司",
+    "enterpriseRegisterNumber": "123456789098765",
+    "companyType": "有线责任公司",
+    "incumbencyPosition": "法人",
+    "shareRatio": 1,
+    "carCompanyNames": "中三",
+    "currentBusinessScale": 4,
+    "manageCarPreferences": 1,
+    "stockCarTotalNum": 10,
+    "stockCarPriceRange": "10-100",
+    "stockCarPriceMidValue": 100,
+    "stockCarPriceCycleMidValue": 10,
+    "stockCarPriceCycleMeanValue": 1,
+    "manageEvaluation": 4,
+    "totalCarRelatedAmt": 10000000,
+    "averageCarRelatedAmt": 1,
+    "totalCarRelatedCnt": 3,
+    "averageCarRelatedCnt": 5,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "imageInfo": {
+    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额度授信:缺少必传platformRegisterDays</t>
+    <rPh sb="0" eb="1">
+      <t>e du shou xin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bi quan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "46",
+  "transactionId": "Test_46",
+  "serviceSn": "1547905999999",
+  "applyInfo": {
+    "applyTime": "2019-02-27 14:11:05",
+    "productCode": "XJ_CZB_CAR",
+    "applySource": "api",
+    "financeChannel": 1,
+    "liveAddressProvince": "110000",
+    "liveAddressCity": "110100",
+    "liveAddressBorough": "110105",
+    "liveDetailAddress": "四川省测试地址"
+  },
+  "cardInfo": {
+    "bankCode": 34,
+    "bankCardNo": "6217002200003225701",
+    "bankPhone": "18366582857",
+    "bankNameSub": "建设银行"
+  },
+  "riskSuggestion": {
+    "disburseNum": 1,
+    "repayNum": 1,
+    "lendingNum": 1,
+    "lendingAmount": 1,
+    "firstCreditDate": "2018-01-01 09:00:00",
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "creditInfo": {
+    "sourceCreditAmt": 200000.00,
+    "sourceCreditRate": 1
+  },
+  "personalInfo": {
+    "cardNum": "61070119850813550X",
+    "custName": "黎丹蝶",
+    "phone": "18366582979",
+    "sex": 0,
+    "age": 35,
+    "maritalStatus": 1,
+    "hasChildren": 1,
+    "personalPurchaseHouse": 2,
+    "fourVerifyResult": 0,
+    "registeredAddressProvince": "110000",
+    "registeredAddressCity": "110100",
+    "registeredAddressBorough": "110105",
+    "registeredDetailAddress": "测试地址"
+  },
+  "contactInfo": {
+    "spouseName": "人厚",
+    "spouseCardNum": "81232919711203455X",
+    "firstContactRelationship": 6,
+    "firstContactName": "小二丝",
+    "firstContactCardNum": "81232919711203455X",
+    "firstContactPhone": "13731854665"
+  },
+  "orderDetail": {
+    "dealerName": "北京王二麻子车行",
+    "manageAddressProvince": "110000",
+    "manageAddressCity": "110100",
+    "manageAddressBorough": "110105",
+    "manageDetailAddress": "北京",
+    "secondHandCarTradeName": "哈利路亚交易市场",
+    "boothNoS": "hello",
+    "manageTime": 5,
+    "employeeNum": 4,
+    "stallNum": 2,
+    "hasCompany": 0,
+    "companyName": "北京哈利路亚有线车行公司",
+    "enterpriseRegisterNumber": "123456789098765",
+    "companyType": "有线责任公司",
+    "incumbencyPosition": "法人",
+    "shareRatio": 1,
+    "carCompanyNames": "中三",
+    "currentBusinessScale": 4,
+    "manageCarPreferences": 1,
+    "stockCarTotalNum": 10,
+    "stockCarPriceRange": "10-100",
+    "stockCarPriceMidValue": 100,
+    "stockCarPriceMeanValue": 10,
+    "manageEvaluation": 4,
+    "totalCarRelatedAmt": 10000000,
+    "averageCarRelatedAmt": 1,
+    "totalCarRelatedCnt": 3,
+    "averageCarRelatedCnt": 5,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "imageInfo": {
+    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "46",
+  "transactionId": "Test_46",
+  "serviceSn": "1547905999999",
+  "applyInfo": {
+    "applyTime": "2019-02-27 14:11:05",
+    "productCode": "XJ_CZB_CAR",
+    "applySource": "api",
+    "financeChannel": 1,
+    "liveAddressProvince": "110000",
+    "liveAddressCity": "110100",
+    "liveAddressBorough": "110105",
+    "liveDetailAddress": "四川省测试地址"
+  },
+  "cardInfo": {
+    "bankCode": 34,
+    "bankCardNo": "6217002200003225701",
+    "bankPhone": "18366582857",
+    "bankNameSub": "建设银行"
+  },
+  "riskSuggestion": {
+    "disburseNum": 1,
+    "repayNum": 1,
+    "lendingNum": 1,
+    "lendingAmount": 1,
+    "firstCreditDate": "2018-01-01 09:00:00",
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "creditInfo": {
+    "sourceCreditAmt": 200000.00,
+    "sourceCreditRate": 1
+  },
+  "personalInfo": {
+    "cardNum": "61070119850813550X",
+    "custName": "黎丹蝶",
+    "phone": "18366582979",
+    "sex": 0,
+    "age": 35,
+    "maritalStatus": 1,
+    "hasChildren": 1,
+    "personalPurchaseHouse": 2,
+    "fourVerifyResult": 0,
+    "registeredAddressProvince": "110000",
+    "registeredAddressCity": "110100",
+    "registeredAddressBorough": "110105",
+    "registeredDetailAddress": "测试地址"
+  },
+  "contactInfo": {
+    "spouseName": "人厚",
+    "spouseCardNum": "81232919711203455X",
+    "firstContactRelationship": 6,
+    "firstContactName": "小二丝",
+    "firstContactCardNum": "81232919711203455X",
+    "firstContactPhone": "13731854665"
+  },
+  "orderDetail": {
+    "dealerName": "北京王二麻子车行",
+    "manageAddressProvince": "110000",
+    "manageAddressCity": "110100",
+    "manageAddressBorough": "110105",
+    "manageDetailAddress": "北京",
+    "secondHandCarTradeName": "哈利路亚交易市场",
+    "boothNoS": "hello",
+    "manageTime": 5,
+    "employeeNum": 4,
+    "stallNum": 2,
+    "hasCompany": 0,
+    "companyName": "北京哈利路亚有线车行公司",
+    "enterpriseRegisterNumber": "123456789098765",
+    "companyType": "有线责任公司",
+    "incumbencyPosition": "法人",
+    "shareRatio": 1,
+    "carCompanyNames": "中三",
+    "currentBusinessScale": 4,
+    "manageCarPreferences": 1,
+    "stockCarTotalNum": 10,
+    "stockCarPriceRange": "10-100",
+    "stockCarPriceMidValue": 100,
+    "stockCarPriceMeanValue": 10,
+    "stockCarPriceCycleMidValue": 10,
+    "stockCarPriceCycleMeanValue": 1,
+    "manageEvaluation": 4,
+    "totalCarRelatedAmt": 10000000,
+    "averageCarRelatedAmt": 1,
+    "totalCarRelatedCnt": 3,
+    "averageCarRelatedCnt": 5,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "imageInfo": {
+    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "46",
+  "transactionId": "Test_46",
+  "serviceSn": "1547905999999",
+  "applyInfo": {
+    "applyTime": "2019-02-27 14:11:05",
+    "productCode": "XJ_CZB_CAR",
+    "applySource": "api",
+    "financeChannel": 1,
+    "liveAddressProvince": "110000",
+    "liveAddressCity": "110100",
+    "liveAddressBorough": "110105",
+    "liveDetailAddress": "四川省测试地址"
+  },
+  "cardInfo": {
+    "bankCode": 34,
+    "bankCardNo": "6217002200003225701",
+    "bankPhone": "18366582857",
+    "bankNameSub": "建设银行"
+  },
+  "riskSuggestion": {
+    "disburseNum": 1,
+    "repayNum": 1,
+    "lendingNum": 1,
+    "lendingAmount": 1,
+    "firstCreditDate": "2018-01-01 09:00:00",
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "creditInfo": {
+    "sourceCreditAmt": 200000.00,
+    "sourceCreditRate": 1
+  },
+  "personalInfo": {
+    "cardNum": "61070119850813550X",
+    "custName": "黎丹蝶",
+    "phone": "18366582979",
+    "sex": 0,
+    "age": 35,
+    "maritalStatus": 1,
+    "hasChildren": 1,
+    "personalPurchaseHouse": 2,
+    "fourVerifyResult": 0,
+    "registeredAddressProvince": "110000",
+    "registeredAddressCity": "110100",
+    "registeredAddressBorough": "110105",
+    "registeredDetailAddress": "测试地址"
+  },
+  "contactInfo": {
+    "spouseName": "人厚",
+    "spouseCardNum": "81232919711203455X",
+    "firstContactRelationship": 6,
+    "firstContactName": "小二丝",
+    "firstContactCardNum": "81232919711203455X",
+    "firstContactPhone": "13731854665"
+  },
+  "orderDetail": {
+    "dealerName": "北京王二麻子车行",
+    "manageAddressProvince": "110000",
+    "manageAddressCity": "110100",
+    "manageAddressBorough": "110105",
+    "manageDetailAddress": "北京",
+    "secondHandCarTradeName": "哈利路亚交易市场",
+    "boothNoS": "hello",
+    "manageTime": 5,
+    "employeeNum": 4,
+    "stallNum": 2,
+    "hasCompany": 0,
+    "companyName": "北京哈利路亚有线车行公司",
+    "enterpriseRegisterNumber": "123456789098765",
+    "companyType": "有线责任公司",
+    "incumbencyPosition": "法人",
+    "shareRatio": 1,
+    "carCompanyNames": "中三",
+    "currentBusinessScale": 4,
+    "manageCarPreferences": 1,
+    "stockCarTotalNum": 10,
+    "stockCarPriceRange": "10-100",
+    "stockCarPriceMeanValue": 10,
+    "stockCarPriceCycleMidValue": 10,
+    "stockCarPriceCycleMeanValue": 1,
+    "manageEvaluation": 4,
+    "totalCarRelatedAmt": 10000000,
+    "averageCarRelatedAmt": 1,
+    "totalCarRelatedCnt": 3,
+    "averageCarRelatedCnt": 5,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "imageInfo": {
+    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额度授信:缺少必传platformBreakNum</t>
+    <rPh sb="0" eb="1">
+      <t>e du shou xin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bi quan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "46",
+  "transactionId": "Test_46",
+  "serviceSn": "1547905999999",
+  "applyInfo": {
+    "applyTime": "2019-02-27 14:11:05",
+    "productCode": "XJ_CZB_CAR",
+    "applySource": "api",
+    "financeChannel": 1,
+    "liveAddressProvince": "110000",
+    "liveAddressCity": "110100",
+    "liveAddressBorough": "110105",
+    "liveDetailAddress": "四川省测试地址"
+  },
+  "cardInfo": {
+    "bankCode": 34,
+    "bankCardNo": "6217002200003225701",
+    "bankPhone": "18366582857",
+    "bankNameSub": "建设银行"
+  },
+  "riskSuggestion": {
+    "disburseNum": 1,
+    "repayNum": 1,
+    "lendingNum": 1,
+    "lendingAmount": 1,
+    "firstCreditDate": "2018-01-01 09:00:00",
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "creditInfo": {
+    "sourceCreditAmt": 200000.00,
+    "sourceCreditRate": 1
+  },
+  "personalInfo": {
+    "cardNum": "61070119850813550X",
+    "custName": "黎丹蝶",
+    "phone": "18366582979",
+    "sex": 0,
+    "age": 35,
+    "maritalStatus": 1,
+    "hasChildren": 1,
+    "personalPurchaseHouse": 2,
+    "fourVerifyResult": 0,
+    "registeredAddressProvince": "110000",
+    "registeredAddressCity": "110100",
+    "registeredAddressBorough": "110105",
+    "registeredDetailAddress": "测试地址"
+  },
+  "contactInfo": {
+    "spouseName": "人厚",
+    "spouseCardNum": "81232919711203455X",
+    "firstContactRelationship": 6,
+    "firstContactName": "小二丝",
+    "firstContactCardNum": "81232919711203455X",
+    "firstContactPhone": "13731854665"
+  },
+  "orderDetail": {
+    "dealerName": "北京王二麻子车行",
+    "manageAddressProvince": "110000",
+    "manageAddressCity": "110100",
+    "manageAddressBorough": "110105",
+    "manageDetailAddress": "北京",
+    "secondHandCarTradeName": "哈利路亚交易市场",
+    "boothNoS": "hello",
+    "manageTime": 5,
+    "employeeNum": 4,
+    "stallNum": 2,
+    "hasCompany": 0,
+    "companyName": "北京哈利路亚有线车行公司",
+    "enterpriseRegisterNumber": "123456789098765",
+    "companyType": "有线责任公司",
+    "incumbencyPosition": "法人",
+    "shareRatio": 1,
+    "carCompanyNames": "中三",
+    "currentBusinessScale": 4,
+    "manageCarPreferences": 1,
+    "stockCarTotalNum": 10,
+    "stockCarPriceRange": "10-100",
+    "stockCarPriceMidValue": 100,
+    "stockCarPriceMeanValue": 10,
+    "stockCarPriceCycleMidValue": 10,
+    "stockCarPriceCycleMeanValue": 1,
+    "manageEvaluation": 4,
+    "totalCarRelatedAmt": 10000000,
+    "averageCarRelatedAmt": 1,
+    "totalCarRelatedCnt": 3,
+    "averageCarRelatedCnt": 5,
+    "platformRegisterDays":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "imageInfo": {
+    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额度授信:缺少必传platformBidCars</t>
+    <rPh sb="0" eb="1">
+      <t>e du shou xin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bi quan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/credit/apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/credit/queryUserAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/credit/queryResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/busi/project/apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/busi/project/queryApplyResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/busi/contract/sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/busi/contract/query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/busi/loan/pfa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/busi/project/preClearCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/busi/project/queryRepaymentPlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/busi/project/receiptsNotice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -964,7 +2234,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -990,7 +2260,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="128" x14ac:dyDescent="0.2">
@@ -998,16 +2268,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +2292,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1047,24 +2317,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +2348,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1103,24 +2373,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1132,27 +2402,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1160,41 +2431,253 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="171" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="106" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="G3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="143" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="137" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="124" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1208,7 +2691,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1232,7 +2715,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="128" x14ac:dyDescent="0.2">
@@ -1240,16 +2723,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1263,7 +2746,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1286,7 +2769,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="409" x14ac:dyDescent="0.2">
@@ -1294,16 +2777,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1317,7 +2800,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1342,24 +2825,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1373,7 +2856,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1398,22 +2881,22 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1427,7 +2910,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1452,24 +2935,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1483,7 +2966,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1508,24 +2991,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="288" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1539,7 +3022,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1564,24 +3047,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="query_user_amount" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="74">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1783,6 +1783,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>额度授信:缺少必传platformTotalAmt</t>
+    <rPh sb="0" eb="1">
+      <t>e du shou xin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bi quan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/api/v1/credit/apply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1824,6 +1840,362 @@
   </si>
   <si>
     <t>/api/v1/busi/project/receiptsNotice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "46",
+  "transactionId": "Test_46",
+  "serviceSn": "1547905999999",
+  "applyInfo": {
+    "applyTime": "2019-02-27 14:11:05",
+    "productCode": "XJ_CZB_CAR",
+    "applySource": "api",
+    "financeChannel": 1,
+    "liveAddressProvince": "110000",
+    "liveAddressCity": "110100",
+    "liveAddressBorough": "110105",
+    "liveDetailAddress": "四川省测试地址"
+  },
+  "cardInfo": {
+    "bankCode": 34,
+    "bankCardNo": "6217002200003225701",
+    "bankPhone": "18366582857",
+    "bankNameSub": "建设银行"
+  },
+  "riskSuggestion": {
+    "disburseNum": 1,
+    "repayNum": 1,
+    "lendingNum": 1,
+    "lendingAmount": 1,
+    "firstCreditDate": "2018-01-01 09:00:00",
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "creditInfo": {
+    "sourceCreditAmt": 200000.00,
+    "sourceCreditRate": 1
+  },
+  "personalInfo": {
+    "cardNum": "61070119850813550X",
+    "custName": "黎丹蝶",
+    "phone": "18366582979",
+    "sex": 0,
+    "age": 35,
+    "maritalStatus": 1,
+    "hasChildren": 1,
+    "personalPurchaseHouse": 2,
+    "fourVerifyResult": 0,
+    "registeredAddressProvince": "110000",
+    "registeredAddressCity": "110100",
+    "registeredAddressBorough": "110105",
+    "registeredDetailAddress": "测试地址"
+  },
+  "contactInfo": {
+    "spouseName": "人厚",
+    "spouseCardNum": "81232919711203455X",
+    "firstContactRelationship": 6,
+    "firstContactName": "小二丝",
+    "firstContactCardNum": "81232919711203455X",
+    "firstContactPhone": "13731854665"
+  },
+  "orderDetail": {
+    "dealerName": "北京王二麻子车行",
+    "manageAddressProvince": "110000",
+    "manageAddressCity": "110100",
+    "manageAddressBorough": "110105",
+    "manageDetailAddress": "北京",
+    "secondHandCarTradeName": "哈利路亚交易市场",
+    "boothNoS": "hello",
+    "manageTime": 5,
+    "employeeNum": 4,
+    "stallNum": 2,
+    "hasCompany": 0,
+    "companyName": "北京哈利路亚有线车行公司",
+    "enterpriseRegisterNumber": "123456789098765",
+    "companyType": "有线责任公司",
+    "incumbencyPosition": "法人",
+    "shareRatio": 1,
+    "carCompanyNames": "中三",
+    "currentBusinessScale": 4,
+    "manageCarPreferences": 1,
+    "stockCarTotalNum": 10,
+    "stockCarPriceRange": "10-100",
+    "stockCarPriceMidValue": 100,
+    "stockCarPriceMeanValue": 10,
+    "stockCarPriceCycleMidValue": 10,
+    "stockCarPriceCycleMeanValue": 1,
+    "manageEvaluation": 4,
+    "totalCarRelatedAmt": 10000000,
+    "averageCarRelatedAmt": 1,
+    "totalCarRelatedCnt": 3,
+    "averageCarRelatedCnt": 5,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "imageInfo": {
+    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额度授信:缺少必传platformTotalNum</t>
+    <rPh sb="0" eb="1">
+      <t>e du shou xin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bi quan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "46",
+  "transactionId": "Test_46",
+  "serviceSn": "1547905999999",
+  "applyInfo": {
+    "applyTime": "2019-02-27 14:11:05",
+    "productCode": "XJ_CZB_CAR",
+    "applySource": "api",
+    "financeChannel": 1,
+    "liveAddressProvince": "110000",
+    "liveAddressCity": "110100",
+    "liveAddressBorough": "110105",
+    "liveDetailAddress": "四川省测试地址"
+  },
+  "cardInfo": {
+    "bankCode": 34,
+    "bankCardNo": "6217002200003225701",
+    "bankPhone": "18366582857",
+    "bankNameSub": "建设银行"
+  },
+  "riskSuggestion": {
+    "disburseNum": 1,
+    "repayNum": 1,
+    "lendingNum": 1,
+    "lendingAmount": 1,
+    "firstCreditDate": "2018-01-01 09:00:00",
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "creditInfo": {
+    "sourceCreditAmt": 200000.00,
+    "sourceCreditRate": 1
+  },
+  "personalInfo": {
+    "cardNum": "61070119850813550X",
+    "custName": "黎丹蝶",
+    "phone": "18366582979",
+    "sex": 0,
+    "age": 35,
+    "maritalStatus": 1,
+    "hasChildren": 1,
+    "personalPurchaseHouse": 2,
+    "fourVerifyResult": 0,
+    "registeredAddressProvince": "110000",
+    "registeredAddressCity": "110100",
+    "registeredAddressBorough": "110105",
+    "registeredDetailAddress": "测试地址"
+  },
+  "contactInfo": {
+    "spouseName": "人厚",
+    "spouseCardNum": "81232919711203455X",
+    "firstContactRelationship": 6,
+    "firstContactName": "小二丝",
+    "firstContactCardNum": "81232919711203455X",
+    "firstContactPhone": "13731854665"
+  },
+  "orderDetail": {
+    "dealerName": "北京王二麻子车行",
+    "manageAddressProvince": "110000",
+    "manageAddressCity": "110100",
+    "manageAddressBorough": "110105",
+    "manageDetailAddress": "北京",
+    "secondHandCarTradeName": "哈利路亚交易市场",
+    "boothNoS": "hello",
+    "manageTime": 5,
+    "employeeNum": 4,
+    "stallNum": 2,
+    "hasCompany": 0,
+    "companyName": "北京哈利路亚有线车行公司",
+    "enterpriseRegisterNumber": "123456789098765",
+    "companyType": "有线责任公司",
+    "incumbencyPosition": "法人",
+    "shareRatio": 1,
+    "carCompanyNames": "中三",
+    "currentBusinessScale": 4,
+    "manageCarPreferences": 1,
+    "stockCarTotalNum": 10,
+    "stockCarPriceRange": "10-100",
+    "stockCarPriceMidValue": 100,
+    "stockCarPriceMeanValue": 10,
+    "stockCarPriceCycleMidValue": 10,
+    "stockCarPriceCycleMeanValue": 1,
+    "manageEvaluation": 4,
+    "totalCarRelatedAmt": 10000000,
+    "averageCarRelatedAmt": 1,
+    "totalCarRelatedCnt": 3,
+    "averageCarRelatedCnt": 5,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformAverageAmt":66652.22
+  },
+  "imageInfo": {
+    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额度授信:缺少必传platformAverageAmt</t>
+    <rPh sb="0" eb="1">
+      <t>e du shou xin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bi quan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "46",
+  "transactionId": "Test_46",
+  "serviceSn": "1547905999999",
+  "applyInfo": {
+    "applyTime": "2019-02-27 14:11:05",
+    "productCode": "XJ_CZB_CAR",
+    "applySource": "api",
+    "financeChannel": 1,
+    "liveAddressProvince": "110000",
+    "liveAddressCity": "110100",
+    "liveAddressBorough": "110105",
+    "liveDetailAddress": "四川省测试地址"
+  },
+  "cardInfo": {
+    "bankCode": 34,
+    "bankCardNo": "6217002200003225701",
+    "bankPhone": "18366582857",
+    "bankNameSub": "建设银行"
+  },
+  "riskSuggestion": {
+    "disburseNum": 1,
+    "repayNum": 1,
+    "lendingNum": 1,
+    "lendingAmount": 1,
+    "firstCreditDate": "2018-01-01 09:00:00",
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "creditInfo": {
+    "sourceCreditAmt": 200000.00,
+    "sourceCreditRate": 1
+  },
+  "personalInfo": {
+    "cardNum": "61070119850813550X",
+    "custName": "黎丹蝶",
+    "phone": "18366582979",
+    "sex": 0,
+    "age": 35,
+    "maritalStatus": 1,
+    "hasChildren": 1,
+    "personalPurchaseHouse": 2,
+    "fourVerifyResult": 0,
+    "registeredAddressProvince": "110000",
+    "registeredAddressCity": "110100",
+    "registeredAddressBorough": "110105",
+    "registeredDetailAddress": "测试地址"
+  },
+  "contactInfo": {
+    "spouseName": "人厚",
+    "spouseCardNum": "81232919711203455X",
+    "firstContactRelationship": 6,
+    "firstContactName": "小二丝",
+    "firstContactCardNum": "81232919711203455X",
+    "firstContactPhone": "13731854665"
+  },
+  "orderDetail": {
+    "dealerName": "北京王二麻子车行",
+    "manageAddressProvince": "110000",
+    "manageAddressCity": "110100",
+    "manageAddressBorough": "110105",
+    "manageDetailAddress": "北京",
+    "secondHandCarTradeName": "哈利路亚交易市场",
+    "boothNoS": "hello",
+    "manageTime": 5,
+    "employeeNum": 4,
+    "stallNum": 2,
+    "hasCompany": 0,
+    "companyName": "北京哈利路亚有线车行公司",
+    "enterpriseRegisterNumber": "123456789098765",
+    "companyType": "有线责任公司",
+    "incumbencyPosition": "法人",
+    "shareRatio": 1,
+    "carCompanyNames": "中三",
+    "currentBusinessScale": 4,
+    "manageCarPreferences": 1,
+    "stockCarTotalNum": 10,
+    "stockCarPriceRange": "10-100",
+    "stockCarPriceMidValue": 100,
+    "stockCarPriceMeanValue": 10,
+    "stockCarPriceCycleMidValue": 10,
+    "stockCarPriceCycleMeanValue": 1,
+    "manageEvaluation": 4,
+    "totalCarRelatedAmt": 10000000,
+    "averageCarRelatedAmt": 1,
+    "totalCarRelatedCnt": 3,
+    "averageCarRelatedCnt": 5,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838
+  },
+  "imageInfo": {
+    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
+  }
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2268,7 +2640,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -2325,7 +2697,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -2347,8 +2719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2381,7 +2753,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -2402,10 +2774,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2448,7 +2820,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>39</v>
@@ -2470,7 +2842,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -2490,7 +2862,7 @@
         <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
@@ -2507,7 +2879,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
@@ -2524,7 +2896,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -2544,7 +2916,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
@@ -2564,7 +2936,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>39</v>
@@ -2584,7 +2956,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>39</v>
@@ -2604,7 +2976,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
@@ -2624,7 +2996,7 @@
         <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>50</v>
@@ -2644,7 +3016,7 @@
         <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>50</v>
@@ -2664,7 +3036,7 @@
         <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>50</v>
@@ -2676,6 +3048,66 @@
         <v>55</v>
       </c>
       <c r="F13" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="1">
         <v>4000</v>
       </c>
     </row>
@@ -2723,7 +3155,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -2777,7 +3209,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -2833,7 +3265,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -2889,7 +3321,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -2943,7 +3375,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -2999,7 +3431,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -3055,7 +3487,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="660" windowWidth="19400" windowHeight="13100" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="4920" yWindow="660" windowWidth="19400" windowHeight="13100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="85">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,13 +221,6 @@
   "serviceSn":"1547902959779",
   "sourceCode":"czb",
   "sourceUserId":"36"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "X-TBC-SOURCE":"tbc_zhtb_czb",
-  "X-TBC-SIGN":""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2811,8 +2804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2838,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2847,7 +2840,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="131" customHeight="1" x14ac:dyDescent="0.2">
@@ -2855,41 +2848,41 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="3"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
@@ -2897,219 +2890,219 @@
     </row>
     <row r="4" spans="1:11" ht="143" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="137" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="124" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="89" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="3">
         <v>4000</v>
@@ -3117,42 +3110,42 @@
     </row>
     <row r="15" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3167,7 +3160,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3192,24 +3185,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="160" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3223,7 +3216,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3248,24 +3241,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3280,7 +3273,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3304,24 +3297,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3334,8 +3327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3361,7 +3354,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="192" x14ac:dyDescent="0.2">
@@ -3369,16 +3362,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3393,7 +3386,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3413,13 +3406,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409" x14ac:dyDescent="0.2">
@@ -3427,39 +3420,39 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="409" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3473,7 +3466,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3498,24 +3491,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="160" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3529,7 +3522,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3554,22 +3547,22 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3583,7 +3576,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3608,24 +3601,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="160" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3639,7 +3632,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3664,7 +3657,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="288" x14ac:dyDescent="0.2">
@@ -3672,16 +3665,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3695,7 +3688,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3720,24 +3713,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="160" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="660" windowWidth="19400" windowHeight="13100" tabRatio="500"/>
+    <workbookView xWindow="2040" yWindow="560" windowWidth="22920" windowHeight="13440" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="118">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,134 +258,6 @@
   "bankPhone": "18366582857",
   "idType": 0,
   "bankCode": 34
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "applyInfo":
-  {
-    "applicationPeriod":60,
-    "applyAmount":5000.00,
-    "applySource":"api",
-    "applyTerm":1,
-    "applyTime":"2019-02-27 15:02:27",
-    "financeChannel":1,
-    "liveAddressBorough":"110000",
-    "liveAddressCity":"110100",
-    "liveAddressProvince":"110105",
-    "liveDetailAddress":"北京市朝阳区",
-    "productCode":"XJ_ROMA_CAR"
-  },
-  "cardInfo":
-  {
-    "bankCardNo":"6217002200003225701",
-    "bankCode":34,
-    "bankNameSub":"建设银行",
-    "bankPhone":"18366582857"
-  },
-  "contactInfo":
-  {
-    "firstContactCardNum":"341182198612102661",
-    "firstContactName":"王倩",
-    "firstContactPhone":"18205502789",
-    "firstContactRelationship":2,
-    "spouseCardNum":"341182198612102661",
-    "spouseName":"王倩"
-  },
-  "creditInfo":
-  {
-    "sourceCreditAmt":200000,
-    "sourceCreditRate":0.12
-  },
-  "extraInfo":
-  {
-    "carSeries":"途乐(进口)",
-    "estimatedValue":"423900.0",
-    "licenseNum":"京LFT755",
-    "vehicleType":"2017款 途乐(进口) 4.0L 美版",
-    "vin":"JN8BY2NY4H9009534"
-  },
-  "imageInfo":
-  {
-    "carControlImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-5ca7f9ef5cdf18d5d39aea5809ca04ed.jpg",
-    "carDashboardImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-00d073d10a185f1e1caacc4c739ea7c5.jpg",
-    "carDealerDrivingLicenseFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-ffd90152d6ca2dcee42a00647566b5c1.jpg",
-    "carFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-4e4772442bbfd86b5119d42d87afd58a.jpg",
-    "carRegImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg"
-  },
-  "loanInfo":
-  {
-    "cycleInterval":60,
-    "interestRate":0.216,
-    "loanAmount":500.00,
-    "loanTerm":1,
-    "repayMethod":"AT",
-    "assetInterestRate": 0.130000,
-    "assetInterestRatePeriod": 1
-  },
-  "orderDetail":
-  {
-    "averageCarRelatedAmt":150000,
-    "averageCarRelatedCnt":"",
-    "boothNoS":"",
-    "carCompanyNames":"",
-    "companyName":"明光市永达汽车销售有限公司",
-    "companyType":"有限责任公司(自然人投资或控股)",
-    "currentBusinessScale":1,
-    "dealerName":"明光市永达汽车销售有限公司",
-    "employeeNum":8,
-    "enterpriseRegisterNumber":"320114000155750",
-    "hasCompany":0,
-    "incumbencyPosition":"",
-    "manageAddressBorough":"341182",
-    "manageAddressCity":"341100",
-    "manageAddressProvince":"340000",
-    "manageCarPreferences":3,
-    "manageDetailAddress":"明光街道安徽省明光市抹山大道111号徽商大市场a2-8.9.10",
-    "manageEvaluation":1,
-    "manageTime":7,
-    "secondHandCarTradeName":"滁州市旧机动车交易有限公司二手车市场",
-    "shareRatio":"",
-    "stallNum":50,
-    "stockCarPriceCycleMeanValue":55.93,
-    "stockCarPriceCycleMidValue":52,
-    "stockCarPriceMeanValue":49750,
-    "stockCarPriceMidValue":40900,
-    "stockCarPriceRange":"22000.0至105800.0",
-    "stockCarTotalNum":"6",
-    "totalCarRelatedAmt":22000000.00,
-    "totalCarRelatedCnt":146
-  },
-  "personalInfo":
-  {
-    "age":35,
-    "cardNum":"61070119850813550X",
-    "custName":"黎丹蝶",
-    "fourVerifyResult":1,
-    "hasChildren":1,
-    "maritalStatus":1,
-    "personalPurchaseHouse":2,
-    "phone":"18366582979",
-    "registeredAddressBorough":"110000",
-    "registeredAddressCity":"110100",
-    "registeredAddressProvince":"110105",
-    "registeredDetailAddress":"西林街道嘉山大道1号汇金广场2号楼503",
-    "sex":0
-  },
-  "riskSuggestion":
-  {
-    "disburseNum":5,
-    "firstCreditDate":"2019-02-20 17:01:42",
-    "lendingAmount":0,
-    "lendingNum":0,
-    "repayNum":0
-  },
-  "channel":"roma",
-  "sourceCode":"roma",
-  "sourceProjectId":"10357490",
-  "sourceUserId":"46",
-  "transactionId":"Test_49"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1877,138 +1749,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-  "applyInfo":
-  {
-    "applicationPeriod":60,
-    "applyAmount":5000.00,
-    "applySource":"api",
-    "applyTerm":1,
-    "applyTime":"2019-02-27 15:02:27",
-    "financeChannel":1,
-    "liveAddressBorough":"110000",
-    "liveAddressCity":"110100",
-    "liveAddressProvince":"110105",
-    "liveDetailAddress":"北京市朝阳区",
-    "productCode":"XJ_ROMA_CAR"
-  },
-  "cardInfo":
-  {
-    "bankCardNo":"6217002200003225701",
-    "bankCode":34,
-    "bankNameSub":"建设银行",
-    "bankPhone":"18366582857"
-  },
-  "contactInfo":
-  {
-    "firstContactCardNum":"341182198612102661",
-    "firstContactName":"王倩",
-    "firstContactPhone":"18205502789",
-    "firstContactRelationship":2,
-    "spouseCardNum":"341182198612102661",
-    "spouseName":"王倩"
-  },
-  "creditInfo":
-  {
-    "sourceCreditAmt":200000,
-    "sourceCreditRate":0.12
-  },
-  "extraInfo":
-  {
-    "carSeries":"途乐(进口)",
-    "estimatedValue":"423900.0",
-    "licenseNum":"京LFT755",
-    "vehicleType":"2017款 途乐(进口) 4.0L 美版",
-    "vin":"JN8BY2NY4H9009534"
-  },
-  "imageInfo":
-  {
-    "carControlImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-5ca7f9ef5cdf18d5d39aea5809ca04ed.jpg",
-    "carDashboardImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-00d073d10a185f1e1caacc4c739ea7c5.jpg",
-    "carDealerDrivingLicenseFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-ffd90152d6ca2dcee42a00647566b5c1.jpg",
-    "carFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-4e4772442bbfd86b5119d42d87afd58a.jpg",
-    "carRegImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg"
-  },
-  "loanInfo":
-  {
-    "cycleInterval":60,
-    "interestRate":0.216,
-    "loanAmount":500.00,
-    "loanTerm":1,
-    "repayMethod":"AT",
-    "assetInterestRate": 0.130000,
-    "assetInterestRatePeriod": 1
-  },
-  "orderDetail":
-  {
-    "averageCarRelatedAmt":150000,
-    "averageCarRelatedCnt":"",
-    "boothNoS":"",
-    "carCompanyNames":"",
-    "companyName":"明光市永达汽车销售有限公司",
-    "companyType":"有限责任公司(自然人投资或控股)",
-    "currentBusinessScale":1,
-    "dealerName":"明光市永达汽车销售有限公司",
-    "employeeNum":8,
-    "enterpriseRegisterNumber":"320114000155750",
-    "hasCompany":0,
-    "incumbencyPosition":"",
-    "manageAddressBorough":"341182",
-    "manageAddressCity":"341100",
-    "manageAddressProvince":"340000",
-    "manageCarPreferences":3,
-    "manageDetailAddress":"明光街道安徽省明光市抹山大道111号徽商大市场a2-8.9.10",
-    "manageEvaluation":1,
-    "manageTime":7,
-    "secondHandCarTradeName":"滁州市旧机动车交易有限公司二手车市场",
-    "shareRatio":"",
-    "stallNum":50,
-    "stockCarPriceCycleMeanValue":55.93,
-    "stockCarPriceCycleMidValue":52,
-    "stockCarPriceMeanValue":49750,
-    "stockCarPriceMidValue":40900,
-    "stockCarPriceRange":"22000.0至105800.0",
-    "stockCarTotalNum":"6",
-    "totalCarRelatedAmt":22000000.00,
-    "totalCarRelatedCnt":146
-  },
-  "personalInfo":
-  {
-    "age":35,
-    "cardNum":"61070119850813550X",
-    "custName":"黎丹蝶",
-    "fourVerifyResult":1,
-    "hasChildren":1,
-    "maritalStatus":1,
-    "personalPurchaseHouse":2,
-    "phone":"18366582979",
-    "registeredAddressBorough":"110000",
-    "registeredAddressCity":"110100",
-    "registeredAddressProvince":"110105",
-    "registeredDetailAddress":"西林街道嘉山大道1号汇金广场2号楼503",
-    "sex":0
-  },
-  "riskSuggestion":
-  {
-    "disburseNum":5,
-    "firstCreditDate":"2019-02-20 17:01:42",
-    "lendingAmount":0,
-    "lendingNum":0,
-    "repayNum":0
-  },
-  "channel":"roma",
-  "sourceCode":"roma",
-  "sourceProjectId":"10357490",
-  "sourceUserId":"46",
-  "transactionId":"Test_49"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2395,6 +2135,2533 @@
   </si>
   <si>
     <t>2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件接口:缺少必传项overdueTimes</t>
+    <rPh sb="0" eb="1">
+      <t>jin jian jie kou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件接口:缺少必传项maxOverdueDays</t>
+    <rPh sb="0" eb="1">
+      <t>jin jian jie kou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "applyInfo":
+  {
+    "applicationPeriod":60,
+    "applyAmount":5000.00,
+    "applySource":"api",
+    "applyTerm":1,
+    "applyTime":"2019-02-27 15:02:27",
+    "financeChannel":1,
+    "liveAddressBorough":"110000",
+    "liveAddressCity":"110100",
+    "liveAddressProvince":"110105",
+    "liveDetailAddress":"北京市朝阳区",
+    "productCode":"XJ_CZB_CAR"
+  },
+  "cardInfo":
+  {
+    "bankCardNo":"6217002200003225701",
+    "bankCode":34,
+    "bankNameSub":"建设银行",
+    "bankPhone":"18366582857"
+  },
+  "contactInfo":
+  {
+    "firstContactCardNum":"341182198612102661",
+    "firstContactName":"王倩",
+    "firstContactPhone":"18205502789",
+    "firstContactRelationship":2,
+    "spouseCardNum":"341182198612102661",
+    "spouseName":"王倩"
+  },
+  "creditInfo":
+  {
+    "sourceCreditAmt":200000,
+    "sourceCreditRate":0.12
+  },
+  "extraInfo":
+  {
+    "carSeries":"途乐(进口)",
+    "estimatedValue":"423900.0",
+    "licenseNum":"京LFT755",
+    "vehicleType":"2017款 途乐(进口) 4.0L 美版",
+    "vin":"JN8BY2NY4H9009534",
+    "carStartBidAmt":1000
+  },
+  "imageInfo":
+  {
+    "carControlImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-5ca7f9ef5cdf18d5d39aea5809ca04ed.jpg",
+    "carDashboardImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-00d073d10a185f1e1caacc4c739ea7c5.jpg",
+    "carDealerDrivingLicenseFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-ffd90152d6ca2dcee42a00647566b5c1.jpg",
+    "carFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-4e4772442bbfd86b5119d42d87afd58a.jpg",
+    "carRegImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg",
+    "carVinImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg"
+  },
+  "loanInfo":
+  {
+    "cycleInterval":60,
+    "interestRate":0.216,
+    "loanAmount":5000.00,
+    "loanTerm":1,
+    "repayMethod":"AT",
+    "assetInterestRate": 0.130000,
+    "assetInterestRatePeriod": 1
+  },
+  "orderDetail":
+  {
+    "averageCarRelatedAmt":150000,
+    "averageCarRelatedCnt":"",
+    "boothNoS":"",
+    "carCompanyNames":"",
+    "companyName":"明光市永达汽车销售有限公司",
+    "companyType":"有限责任公司(自然人投资或控股)",
+    "currentBusinessScale":1,
+    "dealerName":"明光市永达汽车销售有限公司",
+    "employeeNum":8,
+    "enterpriseRegisterNumber":"320114000155750",
+    "hasCompany":0,
+    "incumbencyPosition":"",
+    "manageAddressBorough":"341182",
+    "manageAddressCity":"341100",
+    "manageAddressProvince":"340000",
+    "manageCarPreferences":3,
+    "manageDetailAddress":"明光街道安徽省明光市抹山大道111号徽商大市场a2-8.9.10",
+    "manageEvaluation":1,
+    "manageTime":7,
+    "secondHandCarTradeName":"滁州市旧机动车交易有限公司二手车市场",
+    "shareRatio":"",
+    "stallNum":50,
+    "stockCarPriceCycleMeanValue":55.93,
+    "stockCarPriceCycleMidValue":52,
+    "stockCarPriceMeanValue":49750,
+    "stockCarPriceMidValue":40900,
+    "stockCarPriceRange":"22000.0至105800.0",
+    "stockCarTotalNum":"6",
+    "totalCarRelatedAmt":22000000.00,
+    "totalCarRelatedCnt":146,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "personalInfo":
+  {
+    "age":35,
+    "cardNum":"61070119850813550X",
+    "custName":"黎丹蝶",
+    "fourVerifyResult":1,
+    "hasChildren":1,
+    "maritalStatus":1,
+    "personalPurchaseHouse":2,
+    "phone":"18366582979",
+    "registeredAddressBorough":"110000",
+    "registeredAddressCity":"110100",
+    "registeredAddressProvince":"110105",
+    "registeredDetailAddress":"西林街道嘉山大道1号汇金广场2号楼503",
+    "sex":0
+  },
+  "riskSuggestion":
+  {
+    "disburseNum":5,
+    "firstCreditDate":"2019-02-20 17:01:42",
+    "lendingAmount":0,
+    "lendingNum":0,
+    "repayNum":0,
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"10357490",
+  "sourceUserId":"46",
+  "transactionId":"Test_49"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "applyInfo":
+  {
+    "applicationPeriod":60,
+    "applyAmount":5000.00,
+    "applySource":"api",
+    "applyTerm":1,
+    "applyTime":"2019-02-27 15:02:27",
+    "financeChannel":1,
+    "liveAddressBorough":"110000",
+    "liveAddressCity":"110100",
+    "liveAddressProvince":"110105",
+    "liveDetailAddress":"北京市朝阳区",
+    "productCode":"XJ_CZB_CAR"
+  },
+  "cardInfo":
+  {
+    "bankCardNo":"6217002200003225701",
+    "bankCode":34,
+    "bankNameSub":"建设银行",
+    "bankPhone":"18366582857"
+  },
+  "contactInfo":
+  {
+    "firstContactCardNum":"341182198612102661",
+    "firstContactName":"王倩",
+    "firstContactPhone":"18205502789",
+    "firstContactRelationship":2,
+    "spouseCardNum":"341182198612102661",
+    "spouseName":"王倩"
+  },
+  "creditInfo":
+  {
+    "sourceCreditAmt":200000,
+    "sourceCreditRate":0.12
+  },
+  "extraInfo":
+  {
+    "carSeries":"途乐(进口)",
+    "estimatedValue":"423900.0",
+    "licenseNum":"京LFT755",
+    "vehicleType":"2017款 途乐(进口) 4.0L 美版",
+    "vin":"JN8BY2NY4H9009534",
+    "carStartBidAmt":1000
+  },
+  "imageInfo":
+  {
+    "carControlImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-5ca7f9ef5cdf18d5d39aea5809ca04ed.jpg",
+    "carDashboardImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-00d073d10a185f1e1caacc4c739ea7c5.jpg",
+    "carDealerDrivingLicenseFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-ffd90152d6ca2dcee42a00647566b5c1.jpg",
+    "carFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-4e4772442bbfd86b5119d42d87afd58a.jpg",
+    "carRegImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg",
+    "carVinImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg"
+  },
+  "loanInfo":
+  {
+    "cycleInterval":60,
+    "interestRate":0.216,
+    "loanAmount":5000.00,
+    "loanTerm":1,
+    "repayMethod":"AT",
+    "assetInterestRate": 0.130000,
+    "assetInterestRatePeriod": 1
+  },
+  "orderDetail":
+  {
+    "averageCarRelatedAmt":150000,
+    "averageCarRelatedCnt":"",
+    "boothNoS":"",
+    "carCompanyNames":"",
+    "companyName":"明光市永达汽车销售有限公司",
+    "companyType":"有限责任公司(自然人投资或控股)",
+    "currentBusinessScale":1,
+    "dealerName":"明光市永达汽车销售有限公司",
+    "employeeNum":8,
+    "enterpriseRegisterNumber":"320114000155750",
+    "hasCompany":0,
+    "incumbencyPosition":"",
+    "manageAddressBorough":"341182",
+    "manageAddressCity":"341100",
+    "manageAddressProvince":"340000",
+    "manageCarPreferences":3,
+    "manageDetailAddress":"明光街道安徽省明光市抹山大道111号徽商大市场a2-8.9.10",
+    "manageEvaluation":1,
+    "manageTime":7,
+    "secondHandCarTradeName":"滁州市旧机动车交易有限公司二手车市场",
+    "shareRatio":"",
+    "stallNum":50,
+    "stockCarPriceCycleMeanValue":55.93,
+    "stockCarPriceCycleMidValue":52,
+    "stockCarPriceMeanValue":49750,
+    "stockCarPriceMidValue":40900,
+    "stockCarPriceRange":"22000.0至105800.0",
+    "stockCarTotalNum":"6",
+    "totalCarRelatedAmt":22000000.00,
+    "totalCarRelatedCnt":146,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "personalInfo":
+  {
+    "age":35,
+    "cardNum":"61070119850813550X",
+    "custName":"黎丹蝶",
+    "fourVerifyResult":1,
+    "hasChildren":1,
+    "maritalStatus":1,
+    "personalPurchaseHouse":2,
+    "phone":"18366582979",
+    "registeredAddressBorough":"110000",
+    "registeredAddressCity":"110100",
+    "registeredAddressProvince":"110105",
+    "registeredDetailAddress":"西林街道嘉山大道1号汇金广场2号楼503",
+    "sex":0
+  },
+  "riskSuggestion":
+  {
+    "disburseNum":5,
+    "firstCreditDate":"2019-02-20 17:01:42",
+    "lendingAmount":0,
+    "lendingNum":0,
+    "repayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"10357490",
+  "sourceUserId":"46",
+  "transactionId":"Test_49"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "applyInfo":
+  {
+    "applicationPeriod":60,
+    "applyAmount":5000.00,
+    "applySource":"api",
+    "applyTerm":1,
+    "applyTime":"2019-02-27 15:02:27",
+    "financeChannel":1,
+    "liveAddressBorough":"110000",
+    "liveAddressCity":"110100",
+    "liveAddressProvince":"110105",
+    "liveDetailAddress":"北京市朝阳区",
+    "productCode":"XJ_CZB_CAR"
+  },
+  "cardInfo":
+  {
+    "bankCardNo":"6217002200003225701",
+    "bankCode":34,
+    "bankNameSub":"建设银行",
+    "bankPhone":"18366582857"
+  },
+  "contactInfo":
+  {
+    "firstContactCardNum":"341182198612102661",
+    "firstContactName":"王倩",
+    "firstContactPhone":"18205502789",
+    "firstContactRelationship":2,
+    "spouseCardNum":"341182198612102661",
+    "spouseName":"王倩"
+  },
+  "creditInfo":
+  {
+    "sourceCreditAmt":200000,
+    "sourceCreditRate":0.12
+  },
+  "extraInfo":
+  {
+    "carSeries":"途乐(进口)",
+    "estimatedValue":"423900.0",
+    "licenseNum":"京LFT755",
+    "vehicleType":"2017款 途乐(进口) 4.0L 美版",
+    "vin":"JN8BY2NY4H9009534",
+    "carStartBidAmt":1000
+  },
+  "imageInfo":
+  {
+    "carControlImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-5ca7f9ef5cdf18d5d39aea5809ca04ed.jpg",
+    "carDashboardImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-00d073d10a185f1e1caacc4c739ea7c5.jpg",
+    "carDealerDrivingLicenseFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-ffd90152d6ca2dcee42a00647566b5c1.jpg",
+    "carFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-4e4772442bbfd86b5119d42d87afd58a.jpg",
+    "carRegImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg",
+    "carVinImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg"
+  },
+  "loanInfo":
+  {
+    "cycleInterval":60,
+    "interestRate":0.216,
+    "loanAmount":5000.00,
+    "loanTerm":1,
+    "repayMethod":"AT",
+    "assetInterestRate": 0.130000,
+    "assetInterestRatePeriod": 1
+  },
+  "orderDetail":
+  {
+    "averageCarRelatedAmt":150000,
+    "averageCarRelatedCnt":"",
+    "boothNoS":"",
+    "carCompanyNames":"",
+    "companyName":"明光市永达汽车销售有限公司",
+    "companyType":"有限责任公司(自然人投资或控股)",
+    "currentBusinessScale":1,
+    "dealerName":"明光市永达汽车销售有限公司",
+    "employeeNum":8,
+    "enterpriseRegisterNumber":"320114000155750",
+    "hasCompany":0,
+    "incumbencyPosition":"",
+    "manageAddressBorough":"341182",
+    "manageAddressCity":"341100",
+    "manageAddressProvince":"340000",
+    "manageCarPreferences":3,
+    "manageDetailAddress":"明光街道安徽省明光市抹山大道111号徽商大市场a2-8.9.10",
+    "manageEvaluation":1,
+    "manageTime":7,
+    "secondHandCarTradeName":"滁州市旧机动车交易有限公司二手车市场",
+    "shareRatio":"",
+    "stallNum":50,
+    "stockCarPriceCycleMeanValue":55.93,
+    "stockCarPriceCycleMidValue":52,
+    "stockCarPriceMeanValue":49750,
+    "stockCarPriceMidValue":40900,
+    "stockCarPriceRange":"22000.0至105800.0",
+    "stockCarTotalNum":"6",
+    "totalCarRelatedAmt":22000000.00,
+    "totalCarRelatedCnt":146,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "personalInfo":
+  {
+    "age":35,
+    "cardNum":"61070119850813550X",
+    "custName":"黎丹蝶",
+    "fourVerifyResult":1,
+    "hasChildren":1,
+    "maritalStatus":1,
+    "personalPurchaseHouse":2,
+    "phone":"18366582979",
+    "registeredAddressBorough":"110000",
+    "registeredAddressCity":"110100",
+    "registeredAddressProvince":"110105",
+    "registeredDetailAddress":"西林街道嘉山大道1号汇金广场2号楼503",
+    "sex":0
+  },
+  "riskSuggestion":
+  {
+    "disburseNum":5,
+    "firstCreditDate":"2019-02-20 17:01:42",
+    "lendingAmount":0,
+    "lendingNum":0,
+    "repayNum":0,
+    "normRepayNum":0,
+    "maxOverdueDays":0
+  },
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"10357490",
+  "sourceUserId":"46",
+  "transactionId":"Test_49"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "applyInfo":
+  {
+    "applicationPeriod":60,
+    "applyAmount":5000.00,
+    "applySource":"api",
+    "applyTerm":1,
+    "applyTime":"2019-02-27 15:02:27",
+    "financeChannel":1,
+    "liveAddressBorough":"110000",
+    "liveAddressCity":"110100",
+    "liveAddressProvince":"110105",
+    "liveDetailAddress":"北京市朝阳区",
+    "productCode":"XJ_CZB_CAR"
+  },
+  "cardInfo":
+  {
+    "bankCardNo":"6217002200003225701",
+    "bankCode":34,
+    "bankNameSub":"建设银行",
+    "bankPhone":"18366582857"
+  },
+  "contactInfo":
+  {
+    "firstContactCardNum":"341182198612102661",
+    "firstContactName":"王倩",
+    "firstContactPhone":"18205502789",
+    "firstContactRelationship":2,
+    "spouseCardNum":"341182198612102661",
+    "spouseName":"王倩"
+  },
+  "creditInfo":
+  {
+    "sourceCreditAmt":200000,
+    "sourceCreditRate":0.12
+  },
+  "extraInfo":
+  {
+    "carSeries":"途乐(进口)",
+    "estimatedValue":"423900.0",
+    "licenseNum":"京LFT755",
+    "vehicleType":"2017款 途乐(进口) 4.0L 美版",
+    "vin":"JN8BY2NY4H9009534",
+    "carStartBidAmt":1000
+  },
+  "imageInfo":
+  {
+    "carControlImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-5ca7f9ef5cdf18d5d39aea5809ca04ed.jpg",
+    "carDashboardImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-00d073d10a185f1e1caacc4c739ea7c5.jpg",
+    "carDealerDrivingLicenseFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-ffd90152d6ca2dcee42a00647566b5c1.jpg",
+    "carFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-4e4772442bbfd86b5119d42d87afd58a.jpg",
+    "carRegImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg",
+    "carVinImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg"
+  },
+  "loanInfo":
+  {
+    "cycleInterval":60,
+    "interestRate":0.216,
+    "loanAmount":5000.00,
+    "loanTerm":1,
+    "repayMethod":"AT",
+    "assetInterestRate": 0.130000,
+    "assetInterestRatePeriod": 1
+  },
+  "orderDetail":
+  {
+    "averageCarRelatedAmt":150000,
+    "averageCarRelatedCnt":"",
+    "boothNoS":"",
+    "carCompanyNames":"",
+    "companyName":"明光市永达汽车销售有限公司",
+    "companyType":"有限责任公司(自然人投资或控股)",
+    "currentBusinessScale":1,
+    "dealerName":"明光市永达汽车销售有限公司",
+    "employeeNum":8,
+    "enterpriseRegisterNumber":"320114000155750",
+    "hasCompany":0,
+    "incumbencyPosition":"",
+    "manageAddressBorough":"341182",
+    "manageAddressCity":"341100",
+    "manageAddressProvince":"340000",
+    "manageCarPreferences":3,
+    "manageDetailAddress":"明光街道安徽省明光市抹山大道111号徽商大市场a2-8.9.10",
+    "manageEvaluation":1,
+    "manageTime":7,
+    "secondHandCarTradeName":"滁州市旧机动车交易有限公司二手车市场",
+    "shareRatio":"",
+    "stallNum":50,
+    "stockCarPriceCycleMeanValue":55.93,
+    "stockCarPriceCycleMidValue":52,
+    "stockCarPriceMeanValue":49750,
+    "stockCarPriceMidValue":40900,
+    "stockCarPriceRange":"22000.0至105800.0",
+    "stockCarTotalNum":"6",
+    "totalCarRelatedAmt":22000000.00,
+    "totalCarRelatedCnt":146,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "personalInfo":
+  {
+    "age":35,
+    "cardNum":"61070119850813550X",
+    "custName":"黎丹蝶",
+    "fourVerifyResult":1,
+    "hasChildren":1,
+    "maritalStatus":1,
+    "personalPurchaseHouse":2,
+    "phone":"18366582979",
+    "registeredAddressBorough":"110000",
+    "registeredAddressCity":"110100",
+    "registeredAddressProvince":"110105",
+    "registeredDetailAddress":"西林街道嘉山大道1号汇金广场2号楼503",
+    "sex":0
+  },
+  "riskSuggestion":
+  {
+    "disburseNum":5,
+    "firstCreditDate":"2019-02-20 17:01:42",
+    "lendingAmount":0,
+    "lendingNum":0,
+    "repayNum":0,
+    "normRepayNum":0,
+    "overdueTimes":0
+  },
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"10357490",
+  "sourceUserId":"46",
+  "transactionId":"Test_49"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件接口:缺少非必传项stockCarTotalNum</t>
+    <rPh sb="0" eb="1">
+      <t>jin jian jie kou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "applyInfo":
+  {
+    "applicationPeriod":60,
+    "applyAmount":5000.00,
+    "applySource":"api",
+    "applyTerm":1,
+    "applyTime":"2019-02-27 15:02:27",
+    "financeChannel":1,
+    "liveAddressBorough":"110000",
+    "liveAddressCity":"110100",
+    "liveAddressProvince":"110105",
+    "liveDetailAddress":"北京市朝阳区",
+    "productCode":"XJ_CZB_CAR"
+  },
+  "cardInfo":
+  {
+    "bankCardNo":"6217002200003225701",
+    "bankCode":34,
+    "bankNameSub":"建设银行",
+    "bankPhone":"18366582857"
+  },
+  "contactInfo":
+  {
+    "firstContactCardNum":"341182198612102661",
+    "firstContactName":"王倩",
+    "firstContactPhone":"18205502789",
+    "firstContactRelationship":2,
+    "spouseCardNum":"341182198612102661",
+    "spouseName":"王倩"
+  },
+  "creditInfo":
+  {
+    "sourceCreditAmt":200000,
+    "sourceCreditRate":0.12
+  },
+  "extraInfo":
+  {
+    "carSeries":"途乐(进口)",
+    "estimatedValue":"423900.0",
+    "licenseNum":"京LFT755",
+    "vehicleType":"2017款 途乐(进口) 4.0L 美版",
+    "vin":"JN8BY2NY4H9009534",
+    "carStartBidAmt":1000
+  },
+  "imageInfo":
+  {
+    "carControlImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-5ca7f9ef5cdf18d5d39aea5809ca04ed.jpg",
+    "carDashboardImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-00d073d10a185f1e1caacc4c739ea7c5.jpg",
+    "carDealerDrivingLicenseFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-ffd90152d6ca2dcee42a00647566b5c1.jpg",
+    "carFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-4e4772442bbfd86b5119d42d87afd58a.jpg",
+    "carRegImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg",
+    "carVinImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg"
+  },
+  "loanInfo":
+  {
+    "cycleInterval":60,
+    "interestRate":0.216,
+    "loanAmount":5000.00,
+    "loanTerm":1,
+    "repayMethod":"AT",
+    "assetInterestRate": 0.130000,
+    "assetInterestRatePeriod": 1
+  },
+  "orderDetail":
+  {
+    "averageCarRelatedAmt":150000,
+    "averageCarRelatedCnt":"",
+    "boothNoS":"",
+    "carCompanyNames":"",
+    "companyName":"明光市永达汽车销售有限公司",
+    "companyType":"有限责任公司(自然人投资或控股)",
+    "currentBusinessScale":1,
+    "dealerName":"明光市永达汽车销售有限公司",
+    "employeeNum":8,
+    "enterpriseRegisterNumber":"320114000155750",
+    "hasCompany":0,
+    "incumbencyPosition":"",
+    "manageAddressBorough":"341182",
+    "manageAddressCity":"341100",
+    "manageAddressProvince":"340000",
+    "manageCarPreferences":3,
+    "manageDetailAddress":"明光街道安徽省明光市抹山大道111号徽商大市场a2-8.9.10",
+    "manageEvaluation":1,
+    "manageTime":7,
+    "secondHandCarTradeName":"滁州市旧机动车交易有限公司二手车市场",
+    "shareRatio":"",
+    "stallNum":50,
+    "stockCarPriceCycleMeanValue":55.93,
+    "stockCarPriceCycleMidValue":52,
+    "stockCarPriceMeanValue":49750,
+    "stockCarPriceMidValue":40900,
+    "stockCarPriceRange":"22000.0至105800.0",
+    "totalCarRelatedAmt":22000000.00,
+    "totalCarRelatedCnt":146,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "personalInfo":
+  {
+    "age":35,
+    "cardNum":"61070119850813550X",
+    "custName":"黎丹蝶",
+    "fourVerifyResult":1,
+    "hasChildren":1,
+    "maritalStatus":1,
+    "personalPurchaseHouse":2,
+    "phone":"18366582979",
+    "registeredAddressBorough":"110000",
+    "registeredAddressCity":"110100",
+    "registeredAddressProvince":"110105",
+    "registeredDetailAddress":"西林街道嘉山大道1号汇金广场2号楼503",
+    "sex":0
+  },
+  "riskSuggestion":
+  {
+    "disburseNum":5,
+    "firstCreditDate":"2019-02-20 17:01:42",
+    "lendingAmount":0,
+    "lendingNum":0,
+    "repayNum":0,
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"10357490",
+  "sourceUserId":"46",
+  "transactionId":"Test_49"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件接口:缺少非必传项stockCarPriceRange</t>
+    <rPh sb="0" eb="1">
+      <t>jin jian jie kou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "applyInfo":
+  {
+    "applicationPeriod":60,
+    "applyAmount":5000.00,
+    "applySource":"api",
+    "applyTerm":1,
+    "applyTime":"2019-02-27 15:02:27",
+    "financeChannel":1,
+    "liveAddressBorough":"110000",
+    "liveAddressCity":"110100",
+    "liveAddressProvince":"110105",
+    "liveDetailAddress":"北京市朝阳区",
+    "productCode":"XJ_CZB_CAR"
+  },
+  "cardInfo":
+  {
+    "bankCardNo":"6217002200003225701",
+    "bankCode":34,
+    "bankNameSub":"建设银行",
+    "bankPhone":"18366582857"
+  },
+  "contactInfo":
+  {
+    "firstContactCardNum":"341182198612102661",
+    "firstContactName":"王倩",
+    "firstContactPhone":"18205502789",
+    "firstContactRelationship":2,
+    "spouseCardNum":"341182198612102661",
+    "spouseName":"王倩"
+  },
+  "creditInfo":
+  {
+    "sourceCreditAmt":200000,
+    "sourceCreditRate":0.12
+  },
+  "extraInfo":
+  {
+    "carSeries":"途乐(进口)",
+    "estimatedValue":"423900.0",
+    "licenseNum":"京LFT755",
+    "vehicleType":"2017款 途乐(进口) 4.0L 美版",
+    "vin":"JN8BY2NY4H9009534",
+    "carStartBidAmt":1000
+  },
+  "imageInfo":
+  {
+    "carControlImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-5ca7f9ef5cdf18d5d39aea5809ca04ed.jpg",
+    "carDashboardImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-00d073d10a185f1e1caacc4c739ea7c5.jpg",
+    "carDealerDrivingLicenseFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-ffd90152d6ca2dcee42a00647566b5c1.jpg",
+    "carFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-4e4772442bbfd86b5119d42d87afd58a.jpg",
+    "carRegImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg",
+    "carVinImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg"
+  },
+  "loanInfo":
+  {
+    "cycleInterval":60,
+    "interestRate":0.216,
+    "loanAmount":5000.00,
+    "loanTerm":1,
+    "repayMethod":"AT",
+    "assetInterestRate": 0.130000,
+    "assetInterestRatePeriod": 1
+  },
+  "orderDetail":
+  {
+    "averageCarRelatedAmt":150000,
+    "averageCarRelatedCnt":"",
+    "boothNoS":"",
+    "carCompanyNames":"",
+    "companyName":"明光市永达汽车销售有限公司",
+    "companyType":"有限责任公司(自然人投资或控股)",
+    "currentBusinessScale":1,
+    "dealerName":"明光市永达汽车销售有限公司",
+    "employeeNum":8,
+    "enterpriseRegisterNumber":"320114000155750",
+    "hasCompany":0,
+    "incumbencyPosition":"",
+    "manageAddressBorough":"341182",
+    "manageAddressCity":"341100",
+    "manageAddressProvince":"340000",
+    "manageCarPreferences":3,
+    "manageDetailAddress":"明光街道安徽省明光市抹山大道111号徽商大市场a2-8.9.10",
+    "manageEvaluation":1,
+    "manageTime":7,
+    "secondHandCarTradeName":"滁州市旧机动车交易有限公司二手车市场",
+    "shareRatio":"",
+    "stallNum":50,
+    "stockCarPriceCycleMeanValue":55.93,
+    "stockCarPriceCycleMidValue":52,
+    "stockCarPriceMeanValue":49750,
+    "stockCarPriceMidValue":40900,
+    "stockCarTotalNum":"6",
+    "totalCarRelatedAmt":22000000.00,
+    "totalCarRelatedCnt":146,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "personalInfo":
+  {
+    "age":35,
+    "cardNum":"61070119850813550X",
+    "custName":"黎丹蝶",
+    "fourVerifyResult":1,
+    "hasChildren":1,
+    "maritalStatus":1,
+    "personalPurchaseHouse":2,
+    "phone":"18366582979",
+    "registeredAddressBorough":"110000",
+    "registeredAddressCity":"110100",
+    "registeredAddressProvince":"110105",
+    "registeredDetailAddress":"西林街道嘉山大道1号汇金广场2号楼503",
+    "sex":0
+  },
+  "riskSuggestion":
+  {
+    "disburseNum":5,
+    "firstCreditDate":"2019-02-20 17:01:42",
+    "lendingAmount":0,
+    "lendingNum":0,
+    "repayNum":0,
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"10357490",
+  "sourceUserId":"46",
+  "transactionId":"Test_49"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件接口:缺少非必传项stockCarPriceMidValue</t>
+    <rPh sb="0" eb="1">
+      <t>jin jian jie kou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "applyInfo":
+  {
+    "applicationPeriod":60,
+    "applyAmount":5000.00,
+    "applySource":"api",
+    "applyTerm":1,
+    "applyTime":"2019-02-27 15:02:27",
+    "financeChannel":1,
+    "liveAddressBorough":"110000",
+    "liveAddressCity":"110100",
+    "liveAddressProvince":"110105",
+    "liveDetailAddress":"北京市朝阳区",
+    "productCode":"XJ_CZB_CAR"
+  },
+  "cardInfo":
+  {
+    "bankCardNo":"6217002200003225701",
+    "bankCode":34,
+    "bankNameSub":"建设银行",
+    "bankPhone":"18366582857"
+  },
+  "contactInfo":
+  {
+    "firstContactCardNum":"341182198612102661",
+    "firstContactName":"王倩",
+    "firstContactPhone":"18205502789",
+    "firstContactRelationship":2,
+    "spouseCardNum":"341182198612102661",
+    "spouseName":"王倩"
+  },
+  "creditInfo":
+  {
+    "sourceCreditAmt":200000,
+    "sourceCreditRate":0.12
+  },
+  "extraInfo":
+  {
+    "carSeries":"途乐(进口)",
+    "estimatedValue":"423900.0",
+    "licenseNum":"京LFT755",
+    "vehicleType":"2017款 途乐(进口) 4.0L 美版",
+    "vin":"JN8BY2NY4H9009534",
+    "carStartBidAmt":1000
+  },
+  "imageInfo":
+  {
+    "carControlImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-5ca7f9ef5cdf18d5d39aea5809ca04ed.jpg",
+    "carDashboardImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-00d073d10a185f1e1caacc4c739ea7c5.jpg",
+    "carDealerDrivingLicenseFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-ffd90152d6ca2dcee42a00647566b5c1.jpg",
+    "carFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-4e4772442bbfd86b5119d42d87afd58a.jpg",
+    "carRegImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg",
+    "carVinImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg"
+  },
+  "loanInfo":
+  {
+    "cycleInterval":60,
+    "interestRate":0.216,
+    "loanAmount":5000.00,
+    "loanTerm":1,
+    "repayMethod":"AT",
+    "assetInterestRate": 0.130000,
+    "assetInterestRatePeriod": 1
+  },
+  "orderDetail":
+  {
+    "averageCarRelatedAmt":150000,
+    "averageCarRelatedCnt":"",
+    "boothNoS":"",
+    "carCompanyNames":"",
+    "companyName":"明光市永达汽车销售有限公司",
+    "companyType":"有限责任公司(自然人投资或控股)",
+    "currentBusinessScale":1,
+    "dealerName":"明光市永达汽车销售有限公司",
+    "employeeNum":8,
+    "enterpriseRegisterNumber":"320114000155750",
+    "hasCompany":0,
+    "incumbencyPosition":"",
+    "manageAddressBorough":"341182",
+    "manageAddressCity":"341100",
+    "manageAddressProvince":"340000",
+    "manageCarPreferences":3,
+    "manageDetailAddress":"明光街道安徽省明光市抹山大道111号徽商大市场a2-8.9.10",
+    "manageEvaluation":1,
+    "manageTime":7,
+    "secondHandCarTradeName":"滁州市旧机动车交易有限公司二手车市场",
+    "shareRatio":"",
+    "stallNum":50,
+    "stockCarPriceCycleMeanValue":55.93,
+    "stockCarPriceCycleMidValue":52,
+    "stockCarPriceMeanValue":49750,
+    "stockCarPriceRange":"22000.0至105800.0",
+    "stockCarTotalNum":"6",
+    "totalCarRelatedAmt":22000000.00,
+    "totalCarRelatedCnt":146,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "personalInfo":
+  {
+    "age":35,
+    "cardNum":"61070119850813550X",
+    "custName":"黎丹蝶",
+    "fourVerifyResult":1,
+    "hasChildren":1,
+    "maritalStatus":1,
+    "personalPurchaseHouse":2,
+    "phone":"18366582979",
+    "registeredAddressBorough":"110000",
+    "registeredAddressCity":"110100",
+    "registeredAddressProvince":"110105",
+    "registeredDetailAddress":"西林街道嘉山大道1号汇金广场2号楼503",
+    "sex":0
+  },
+  "riskSuggestion":
+  {
+    "disburseNum":5,
+    "firstCreditDate":"2019-02-20 17:01:42",
+    "lendingAmount":0,
+    "lendingNum":0,
+    "repayNum":0,
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"10357490",
+  "sourceUserId":"46",
+  "transactionId":"Test_49"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件接口:缺少非必传项stockCarPriceMeanValue</t>
+    <rPh sb="0" eb="1">
+      <t>jin jian jie kou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "applyInfo":
+  {
+    "applicationPeriod":60,
+    "applyAmount":5000.00,
+    "applySource":"api",
+    "applyTerm":1,
+    "applyTime":"2019-02-27 15:02:27",
+    "financeChannel":1,
+    "liveAddressBorough":"110000",
+    "liveAddressCity":"110100",
+    "liveAddressProvince":"110105",
+    "liveDetailAddress":"北京市朝阳区",
+    "productCode":"XJ_CZB_CAR"
+  },
+  "cardInfo":
+  {
+    "bankCardNo":"6217002200003225701",
+    "bankCode":34,
+    "bankNameSub":"建设银行",
+    "bankPhone":"18366582857"
+  },
+  "contactInfo":
+  {
+    "firstContactCardNum":"341182198612102661",
+    "firstContactName":"王倩",
+    "firstContactPhone":"18205502789",
+    "firstContactRelationship":2,
+    "spouseCardNum":"341182198612102661",
+    "spouseName":"王倩"
+  },
+  "creditInfo":
+  {
+    "sourceCreditAmt":200000,
+    "sourceCreditRate":0.12
+  },
+  "extraInfo":
+  {
+    "carSeries":"途乐(进口)",
+    "estimatedValue":"423900.0",
+    "licenseNum":"京LFT755",
+    "vehicleType":"2017款 途乐(进口) 4.0L 美版",
+    "vin":"JN8BY2NY4H9009534",
+    "carStartBidAmt":1000
+  },
+  "imageInfo":
+  {
+    "carControlImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-5ca7f9ef5cdf18d5d39aea5809ca04ed.jpg",
+    "carDashboardImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-00d073d10a185f1e1caacc4c739ea7c5.jpg",
+    "carDealerDrivingLicenseFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-ffd90152d6ca2dcee42a00647566b5c1.jpg",
+    "carFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-4e4772442bbfd86b5119d42d87afd58a.jpg",
+    "carRegImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg",
+    "carVinImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg"
+  },
+  "loanInfo":
+  {
+    "cycleInterval":60,
+    "interestRate":0.216,
+    "loanAmount":5000.00,
+    "loanTerm":1,
+    "repayMethod":"AT",
+    "assetInterestRate": 0.130000,
+    "assetInterestRatePeriod": 1
+  },
+  "orderDetail":
+  {
+    "averageCarRelatedAmt":150000,
+    "averageCarRelatedCnt":"",
+    "boothNoS":"",
+    "carCompanyNames":"",
+    "companyName":"明光市永达汽车销售有限公司",
+    "companyType":"有限责任公司(自然人投资或控股)",
+    "currentBusinessScale":1,
+    "dealerName":"明光市永达汽车销售有限公司",
+    "employeeNum":8,
+    "enterpriseRegisterNumber":"320114000155750",
+    "hasCompany":0,
+    "incumbencyPosition":"",
+    "manageAddressBorough":"341182",
+    "manageAddressCity":"341100",
+    "manageAddressProvince":"340000",
+    "manageCarPreferences":3,
+    "manageDetailAddress":"明光街道安徽省明光市抹山大道111号徽商大市场a2-8.9.10",
+    "manageEvaluation":1,
+    "manageTime":7,
+    "secondHandCarTradeName":"滁州市旧机动车交易有限公司二手车市场",
+    "shareRatio":"",
+    "stallNum":50,
+    "stockCarPriceCycleMeanValue":55.93,
+    "stockCarPriceCycleMidValue":52,
+    "stockCarPriceMidValue":40900,
+    "stockCarPriceRange":"22000.0至105800.0",
+    "stockCarTotalNum":"6",
+    "totalCarRelatedAmt":22000000.00,
+    "totalCarRelatedCnt":146,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "personalInfo":
+  {
+    "age":35,
+    "cardNum":"61070119850813550X",
+    "custName":"黎丹蝶",
+    "fourVerifyResult":1,
+    "hasChildren":1,
+    "maritalStatus":1,
+    "personalPurchaseHouse":2,
+    "phone":"18366582979",
+    "registeredAddressBorough":"110000",
+    "registeredAddressCity":"110100",
+    "registeredAddressProvince":"110105",
+    "registeredDetailAddress":"西林街道嘉山大道1号汇金广场2号楼503",
+    "sex":0
+  },
+  "riskSuggestion":
+  {
+    "disburseNum":5,
+    "firstCreditDate":"2019-02-20 17:01:42",
+    "lendingAmount":0,
+    "lendingNum":0,
+    "repayNum":0,
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"10357490",
+  "sourceUserId":"46",
+  "transactionId":"Test_49"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件接口:缺少非必传项stockCarPriceCycleMidValue</t>
+    <rPh sb="0" eb="1">
+      <t>jin jian jie kou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "applyInfo":
+  {
+    "applicationPeriod":60,
+    "applyAmount":5000.00,
+    "applySource":"api",
+    "applyTerm":1,
+    "applyTime":"2019-02-27 15:02:27",
+    "financeChannel":1,
+    "liveAddressBorough":"110000",
+    "liveAddressCity":"110100",
+    "liveAddressProvince":"110105",
+    "liveDetailAddress":"北京市朝阳区",
+    "productCode":"XJ_CZB_CAR"
+  },
+  "cardInfo":
+  {
+    "bankCardNo":"6217002200003225701",
+    "bankCode":34,
+    "bankNameSub":"建设银行",
+    "bankPhone":"18366582857"
+  },
+  "contactInfo":
+  {
+    "firstContactCardNum":"341182198612102661",
+    "firstContactName":"王倩",
+    "firstContactPhone":"18205502789",
+    "firstContactRelationship":2,
+    "spouseCardNum":"341182198612102661",
+    "spouseName":"王倩"
+  },
+  "creditInfo":
+  {
+    "sourceCreditAmt":200000,
+    "sourceCreditRate":0.12
+  },
+  "extraInfo":
+  {
+    "carSeries":"途乐(进口)",
+    "estimatedValue":"423900.0",
+    "licenseNum":"京LFT755",
+    "vehicleType":"2017款 途乐(进口) 4.0L 美版",
+    "vin":"JN8BY2NY4H9009534",
+    "carStartBidAmt":1000
+  },
+  "imageInfo":
+  {
+    "carControlImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-5ca7f9ef5cdf18d5d39aea5809ca04ed.jpg",
+    "carDashboardImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-00d073d10a185f1e1caacc4c739ea7c5.jpg",
+    "carDealerDrivingLicenseFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-ffd90152d6ca2dcee42a00647566b5c1.jpg",
+    "carFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-4e4772442bbfd86b5119d42d87afd58a.jpg",
+    "carRegImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg",
+    "carVinImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg"
+  },
+  "loanInfo":
+  {
+    "cycleInterval":60,
+    "interestRate":0.216,
+    "loanAmount":5000.00,
+    "loanTerm":1,
+    "repayMethod":"AT",
+    "assetInterestRate": 0.130000,
+    "assetInterestRatePeriod": 1
+  },
+  "orderDetail":
+  {
+    "averageCarRelatedAmt":150000,
+    "averageCarRelatedCnt":"",
+    "boothNoS":"",
+    "carCompanyNames":"",
+    "companyName":"明光市永达汽车销售有限公司",
+    "companyType":"有限责任公司(自然人投资或控股)",
+    "currentBusinessScale":1,
+    "dealerName":"明光市永达汽车销售有限公司",
+    "employeeNum":8,
+    "enterpriseRegisterNumber":"320114000155750",
+    "hasCompany":0,
+    "incumbencyPosition":"",
+    "manageAddressBorough":"341182",
+    "manageAddressCity":"341100",
+    "manageAddressProvince":"340000",
+    "manageCarPreferences":3,
+    "manageDetailAddress":"明光街道安徽省明光市抹山大道111号徽商大市场a2-8.9.10",
+    "manageEvaluation":1,
+    "manageTime":7,
+    "secondHandCarTradeName":"滁州市旧机动车交易有限公司二手车市场",
+    "shareRatio":"",
+    "stallNum":50,
+    "stockCarPriceCycleMeanValue":55.93,
+    "stockCarPriceMeanValue":49750,
+    "stockCarPriceMidValue":40900,
+    "stockCarPriceRange":"22000.0至105800.0",
+    "stockCarTotalNum":"6",
+    "totalCarRelatedAmt":22000000.00,
+    "totalCarRelatedCnt":146,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "personalInfo":
+  {
+    "age":35,
+    "cardNum":"61070119850813550X",
+    "custName":"黎丹蝶",
+    "fourVerifyResult":1,
+    "hasChildren":1,
+    "maritalStatus":1,
+    "personalPurchaseHouse":2,
+    "phone":"18366582979",
+    "registeredAddressBorough":"110000",
+    "registeredAddressCity":"110100",
+    "registeredAddressProvince":"110105",
+    "registeredDetailAddress":"西林街道嘉山大道1号汇金广场2号楼503",
+    "sex":0
+  },
+  "riskSuggestion":
+  {
+    "disburseNum":5,
+    "firstCreditDate":"2019-02-20 17:01:42",
+    "lendingAmount":0,
+    "lendingNum":0,
+    "repayNum":0,
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"10357490",
+  "sourceUserId":"46",
+  "transactionId":"Test_49"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件接口:缺少非必传项stockCarPriceCycleMeanValue</t>
+    <rPh sb="0" eb="1">
+      <t>jin jian jie kou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "applyInfo":
+  {
+    "applicationPeriod":60,
+    "applyAmount":5000.00,
+    "applySource":"api",
+    "applyTerm":1,
+    "applyTime":"2019-02-27 15:02:27",
+    "financeChannel":1,
+    "liveAddressBorough":"110000",
+    "liveAddressCity":"110100",
+    "liveAddressProvince":"110105",
+    "liveDetailAddress":"北京市朝阳区",
+    "productCode":"XJ_CZB_CAR"
+  },
+  "cardInfo":
+  {
+    "bankCardNo":"6217002200003225701",
+    "bankCode":34,
+    "bankNameSub":"建设银行",
+    "bankPhone":"18366582857"
+  },
+  "contactInfo":
+  {
+    "firstContactCardNum":"341182198612102661",
+    "firstContactName":"王倩",
+    "firstContactPhone":"18205502789",
+    "firstContactRelationship":2,
+    "spouseCardNum":"341182198612102661",
+    "spouseName":"王倩"
+  },
+  "creditInfo":
+  {
+    "sourceCreditAmt":200000,
+    "sourceCreditRate":0.12
+  },
+  "extraInfo":
+  {
+    "carSeries":"途乐(进口)",
+    "estimatedValue":"423900.0",
+    "licenseNum":"京LFT755",
+    "vehicleType":"2017款 途乐(进口) 4.0L 美版",
+    "vin":"JN8BY2NY4H9009534",
+    "carStartBidAmt":1000
+  },
+  "imageInfo":
+  {
+    "carControlImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-5ca7f9ef5cdf18d5d39aea5809ca04ed.jpg",
+    "carDashboardImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-00d073d10a185f1e1caacc4c739ea7c5.jpg",
+    "carDealerDrivingLicenseFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-ffd90152d6ca2dcee42a00647566b5c1.jpg",
+    "carFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-4e4772442bbfd86b5119d42d87afd58a.jpg",
+    "carRegImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg",
+    "carVinImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg"
+  },
+  "loanInfo":
+  {
+    "cycleInterval":60,
+    "interestRate":0.216,
+    "loanAmount":5000.00,
+    "loanTerm":1,
+    "repayMethod":"AT",
+    "assetInterestRate": 0.130000,
+    "assetInterestRatePeriod": 1
+  },
+  "orderDetail":
+  {
+    "averageCarRelatedAmt":150000,
+    "averageCarRelatedCnt":"",
+    "boothNoS":"",
+    "carCompanyNames":"",
+    "companyName":"明光市永达汽车销售有限公司",
+    "companyType":"有限责任公司(自然人投资或控股)",
+    "currentBusinessScale":1,
+    "dealerName":"明光市永达汽车销售有限公司",
+    "employeeNum":8,
+    "enterpriseRegisterNumber":"320114000155750",
+    "hasCompany":0,
+    "incumbencyPosition":"",
+    "manageAddressBorough":"341182",
+    "manageAddressCity":"341100",
+    "manageAddressProvince":"340000",
+    "manageCarPreferences":3,
+    "manageDetailAddress":"明光街道安徽省明光市抹山大道111号徽商大市场a2-8.9.10",
+    "manageEvaluation":1,
+    "manageTime":7,
+    "secondHandCarTradeName":"滁州市旧机动车交易有限公司二手车市场",
+    "shareRatio":"",
+    "stallNum":50,
+    "stockCarPriceCycleMidValue":52,
+    "stockCarPriceMeanValue":49750,
+    "stockCarPriceMidValue":40900,
+    "stockCarPriceRange":"22000.0至105800.0",
+    "stockCarTotalNum":"6",
+    "totalCarRelatedAmt":22000000.00,
+    "totalCarRelatedCnt":146,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "personalInfo":
+  {
+    "age":35,
+    "cardNum":"61070119850813550X",
+    "custName":"黎丹蝶",
+    "fourVerifyResult":1,
+    "hasChildren":1,
+    "maritalStatus":1,
+    "personalPurchaseHouse":2,
+    "phone":"18366582979",
+    "registeredAddressBorough":"110000",
+    "registeredAddressCity":"110100",
+    "registeredAddressProvince":"110105",
+    "registeredDetailAddress":"西林街道嘉山大道1号汇金广场2号楼503",
+    "sex":0
+  },
+  "riskSuggestion":
+  {
+    "disburseNum":5,
+    "firstCreditDate":"2019-02-20 17:01:42",
+    "lendingAmount":0,
+    "lendingNum":0,
+    "repayNum":0,
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"10357490",
+  "sourceUserId":"46",
+  "transactionId":"Test_49"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件接口:缺少必传项platformRegisterDays</t>
+    <rPh sb="0" eb="1">
+      <t>jin jian jie kou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "applyInfo":
+  {
+    "applicationPeriod":60,
+    "applyAmount":5000.00,
+    "applySource":"api",
+    "applyTerm":1,
+    "applyTime":"2019-02-27 15:02:27",
+    "financeChannel":1,
+    "liveAddressBorough":"110000",
+    "liveAddressCity":"110100",
+    "liveAddressProvince":"110105",
+    "liveDetailAddress":"北京市朝阳区",
+    "productCode":"XJ_CZB_CAR"
+  },
+  "cardInfo":
+  {
+    "bankCardNo":"6217002200003225701",
+    "bankCode":34,
+    "bankNameSub":"建设银行",
+    "bankPhone":"18366582857"
+  },
+  "contactInfo":
+  {
+    "firstContactCardNum":"341182198612102661",
+    "firstContactName":"王倩",
+    "firstContactPhone":"18205502789",
+    "firstContactRelationship":2,
+    "spouseCardNum":"341182198612102661",
+    "spouseName":"王倩"
+  },
+  "creditInfo":
+  {
+    "sourceCreditAmt":200000,
+    "sourceCreditRate":0.12
+  },
+  "extraInfo":
+  {
+    "carSeries":"途乐(进口)",
+    "estimatedValue":"423900.0",
+    "licenseNum":"京LFT755",
+    "vehicleType":"2017款 途乐(进口) 4.0L 美版",
+    "vin":"JN8BY2NY4H9009534",
+    "carStartBidAmt":1000
+  },
+  "imageInfo":
+  {
+    "carControlImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-5ca7f9ef5cdf18d5d39aea5809ca04ed.jpg",
+    "carDashboardImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-00d073d10a185f1e1caacc4c739ea7c5.jpg",
+    "carDealerDrivingLicenseFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-ffd90152d6ca2dcee42a00647566b5c1.jpg",
+    "carFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-4e4772442bbfd86b5119d42d87afd58a.jpg",
+    "carRegImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg",
+    "carVinImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg"
+  },
+  "loanInfo":
+  {
+    "cycleInterval":60,
+    "interestRate":0.216,
+    "loanAmount":5000.00,
+    "loanTerm":1,
+    "repayMethod":"AT",
+    "assetInterestRate": 0.130000,
+    "assetInterestRatePeriod": 1
+  },
+  "orderDetail":
+  {
+    "averageCarRelatedAmt":150000,
+    "averageCarRelatedCnt":"",
+    "boothNoS":"",
+    "carCompanyNames":"",
+    "companyName":"明光市永达汽车销售有限公司",
+    "companyType":"有限责任公司(自然人投资或控股)",
+    "currentBusinessScale":1,
+    "dealerName":"明光市永达汽车销售有限公司",
+    "employeeNum":8,
+    "enterpriseRegisterNumber":"320114000155750",
+    "hasCompany":0,
+    "incumbencyPosition":"",
+    "manageAddressBorough":"341182",
+    "manageAddressCity":"341100",
+    "manageAddressProvince":"340000",
+    "manageCarPreferences":3,
+    "manageDetailAddress":"明光街道安徽省明光市抹山大道111号徽商大市场a2-8.9.10",
+    "manageEvaluation":1,
+    "manageTime":7,
+    "secondHandCarTradeName":"滁州市旧机动车交易有限公司二手车市场",
+    "shareRatio":"",
+    "stallNum":50,
+    "stockCarPriceCycleMeanValue":55.93,
+    "stockCarPriceCycleMidValue":52,
+    "stockCarPriceMeanValue":49750,
+    "stockCarPriceMidValue":40900,
+    "stockCarPriceRange":"22000.0至105800.0",
+    "stockCarTotalNum":"6",
+    "totalCarRelatedAmt":22000000.00,
+    "totalCarRelatedCnt":146,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "personalInfo":
+  {
+    "age":35,
+    "cardNum":"61070119850813550X",
+    "custName":"黎丹蝶",
+    "fourVerifyResult":1,
+    "hasChildren":1,
+    "maritalStatus":1,
+    "personalPurchaseHouse":2,
+    "phone":"18366582979",
+    "registeredAddressBorough":"110000",
+    "registeredAddressCity":"110100",
+    "registeredAddressProvince":"110105",
+    "registeredDetailAddress":"西林街道嘉山大道1号汇金广场2号楼503",
+    "sex":0
+  },
+  "riskSuggestion":
+  {
+    "disburseNum":5,
+    "firstCreditDate":"2019-02-20 17:01:42",
+    "lendingAmount":0,
+    "lendingNum":0,
+    "repayNum":0,
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"10357490",
+  "sourceUserId":"46",
+  "transactionId":"Test_49"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件接口:缺少必传项platformBreakNum</t>
+    <rPh sb="0" eb="1">
+      <t>jin jian jie kou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "applyInfo":
+  {
+    "applicationPeriod":60,
+    "applyAmount":5000.00,
+    "applySource":"api",
+    "applyTerm":1,
+    "applyTime":"2019-02-27 15:02:27",
+    "financeChannel":1,
+    "liveAddressBorough":"110000",
+    "liveAddressCity":"110100",
+    "liveAddressProvince":"110105",
+    "liveDetailAddress":"北京市朝阳区",
+    "productCode":"XJ_CZB_CAR"
+  },
+  "cardInfo":
+  {
+    "bankCardNo":"6217002200003225701",
+    "bankCode":34,
+    "bankNameSub":"建设银行",
+    "bankPhone":"18366582857"
+  },
+  "contactInfo":
+  {
+    "firstContactCardNum":"341182198612102661",
+    "firstContactName":"王倩",
+    "firstContactPhone":"18205502789",
+    "firstContactRelationship":2,
+    "spouseCardNum":"341182198612102661",
+    "spouseName":"王倩"
+  },
+  "creditInfo":
+  {
+    "sourceCreditAmt":200000,
+    "sourceCreditRate":0.12
+  },
+  "extraInfo":
+  {
+    "carSeries":"途乐(进口)",
+    "estimatedValue":"423900.0",
+    "licenseNum":"京LFT755",
+    "vehicleType":"2017款 途乐(进口) 4.0L 美版",
+    "vin":"JN8BY2NY4H9009534",
+    "carStartBidAmt":1000
+  },
+  "imageInfo":
+  {
+    "carControlImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-5ca7f9ef5cdf18d5d39aea5809ca04ed.jpg",
+    "carDashboardImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-00d073d10a185f1e1caacc4c739ea7c5.jpg",
+    "carDealerDrivingLicenseFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-ffd90152d6ca2dcee42a00647566b5c1.jpg",
+    "carFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-4e4772442bbfd86b5119d42d87afd58a.jpg",
+    "carRegImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg",
+    "carVinImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg"
+  },
+  "loanInfo":
+  {
+    "cycleInterval":60,
+    "interestRate":0.216,
+    "loanAmount":5000.00,
+    "loanTerm":1,
+    "repayMethod":"AT",
+    "assetInterestRate": 0.130000,
+    "assetInterestRatePeriod": 1
+  },
+  "orderDetail":
+  {
+    "averageCarRelatedAmt":150000,
+    "averageCarRelatedCnt":"",
+    "boothNoS":"",
+    "carCompanyNames":"",
+    "companyName":"明光市永达汽车销售有限公司",
+    "companyType":"有限责任公司(自然人投资或控股)",
+    "currentBusinessScale":1,
+    "dealerName":"明光市永达汽车销售有限公司",
+    "employeeNum":8,
+    "enterpriseRegisterNumber":"320114000155750",
+    "hasCompany":0,
+    "incumbencyPosition":"",
+    "manageAddressBorough":"341182",
+    "manageAddressCity":"341100",
+    "manageAddressProvince":"340000",
+    "manageCarPreferences":3,
+    "manageDetailAddress":"明光街道安徽省明光市抹山大道111号徽商大市场a2-8.9.10",
+    "manageEvaluation":1,
+    "manageTime":7,
+    "secondHandCarTradeName":"滁州市旧机动车交易有限公司二手车市场",
+    "shareRatio":"",
+    "stallNum":50,
+    "stockCarPriceCycleMeanValue":55.93,
+    "stockCarPriceCycleMidValue":52,
+    "stockCarPriceMeanValue":49750,
+    "stockCarPriceMidValue":40900,
+    "stockCarPriceRange":"22000.0至105800.0",
+    "stockCarTotalNum":"6",
+    "totalCarRelatedAmt":22000000.00,
+    "totalCarRelatedCnt":146,
+    "platformRegisterDays":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "personalInfo":
+  {
+    "age":35,
+    "cardNum":"61070119850813550X",
+    "custName":"黎丹蝶",
+    "fourVerifyResult":1,
+    "hasChildren":1,
+    "maritalStatus":1,
+    "personalPurchaseHouse":2,
+    "phone":"18366582979",
+    "registeredAddressBorough":"110000",
+    "registeredAddressCity":"110100",
+    "registeredAddressProvince":"110105",
+    "registeredDetailAddress":"西林街道嘉山大道1号汇金广场2号楼503",
+    "sex":0
+  },
+  "riskSuggestion":
+  {
+    "disburseNum":5,
+    "firstCreditDate":"2019-02-20 17:01:42",
+    "lendingAmount":0,
+    "lendingNum":0,
+    "repayNum":0,
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"10357490",
+  "sourceUserId":"46",
+  "transactionId":"Test_49"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件接口:缺少必传项platformBidCars</t>
+    <rPh sb="0" eb="1">
+      <t>jin jian jie kou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "applyInfo":
+  {
+    "applicationPeriod":60,
+    "applyAmount":5000.00,
+    "applySource":"api",
+    "applyTerm":1,
+    "applyTime":"2019-02-27 15:02:27",
+    "financeChannel":1,
+    "liveAddressBorough":"110000",
+    "liveAddressCity":"110100",
+    "liveAddressProvince":"110105",
+    "liveDetailAddress":"北京市朝阳区",
+    "productCode":"XJ_CZB_CAR"
+  },
+  "cardInfo":
+  {
+    "bankCardNo":"6217002200003225701",
+    "bankCode":34,
+    "bankNameSub":"建设银行",
+    "bankPhone":"18366582857"
+  },
+  "contactInfo":
+  {
+    "firstContactCardNum":"341182198612102661",
+    "firstContactName":"王倩",
+    "firstContactPhone":"18205502789",
+    "firstContactRelationship":2,
+    "spouseCardNum":"341182198612102661",
+    "spouseName":"王倩"
+  },
+  "creditInfo":
+  {
+    "sourceCreditAmt":200000,
+    "sourceCreditRate":0.12
+  },
+  "extraInfo":
+  {
+    "carSeries":"途乐(进口)",
+    "estimatedValue":"423900.0",
+    "licenseNum":"京LFT755",
+    "vehicleType":"2017款 途乐(进口) 4.0L 美版",
+    "vin":"JN8BY2NY4H9009534",
+    "carStartBidAmt":1000
+  },
+  "imageInfo":
+  {
+    "carControlImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-5ca7f9ef5cdf18d5d39aea5809ca04ed.jpg",
+    "carDashboardImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-00d073d10a185f1e1caacc4c739ea7c5.jpg",
+    "carDealerDrivingLicenseFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-ffd90152d6ca2dcee42a00647566b5c1.jpg",
+    "carFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-4e4772442bbfd86b5119d42d87afd58a.jpg",
+    "carRegImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg",
+    "carVinImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg"
+  },
+  "loanInfo":
+  {
+    "cycleInterval":60,
+    "interestRate":0.216,
+    "loanAmount":5000.00,
+    "loanTerm":1,
+    "repayMethod":"AT",
+    "assetInterestRate": 0.130000,
+    "assetInterestRatePeriod": 1
+  },
+  "orderDetail":
+  {
+    "averageCarRelatedAmt":150000,
+    "averageCarRelatedCnt":"",
+    "boothNoS":"",
+    "carCompanyNames":"",
+    "companyName":"明光市永达汽车销售有限公司",
+    "companyType":"有限责任公司(自然人投资或控股)",
+    "currentBusinessScale":1,
+    "dealerName":"明光市永达汽车销售有限公司",
+    "employeeNum":8,
+    "enterpriseRegisterNumber":"320114000155750",
+    "hasCompany":0,
+    "incumbencyPosition":"",
+    "manageAddressBorough":"341182",
+    "manageAddressCity":"341100",
+    "manageAddressProvince":"340000",
+    "manageCarPreferences":3,
+    "manageDetailAddress":"明光街道安徽省明光市抹山大道111号徽商大市场a2-8.9.10",
+    "manageEvaluation":1,
+    "manageTime":7,
+    "secondHandCarTradeName":"滁州市旧机动车交易有限公司二手车市场",
+    "shareRatio":"",
+    "stallNum":50,
+    "stockCarPriceCycleMeanValue":55.93,
+    "stockCarPriceCycleMidValue":52,
+    "stockCarPriceMeanValue":49750,
+    "stockCarPriceMidValue":40900,
+    "stockCarPriceRange":"22000.0至105800.0",
+    "stockCarTotalNum":"6",
+    "totalCarRelatedAmt":22000000.00,
+    "totalCarRelatedCnt":146,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "personalInfo":
+  {
+    "age":35,
+    "cardNum":"61070119850813550X",
+    "custName":"黎丹蝶",
+    "fourVerifyResult":1,
+    "hasChildren":1,
+    "maritalStatus":1,
+    "personalPurchaseHouse":2,
+    "phone":"18366582979",
+    "registeredAddressBorough":"110000",
+    "registeredAddressCity":"110100",
+    "registeredAddressProvince":"110105",
+    "registeredDetailAddress":"西林街道嘉山大道1号汇金广场2号楼503",
+    "sex":0
+  },
+  "riskSuggestion":
+  {
+    "disburseNum":5,
+    "firstCreditDate":"2019-02-20 17:01:42",
+    "lendingAmount":0,
+    "lendingNum":0,
+    "repayNum":0,
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"10357490",
+  "sourceUserId":"46",
+  "transactionId":"Test_49"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件接口:缺少必传项platformTotalAmt</t>
+    <rPh sb="0" eb="1">
+      <t>jin jian jie kou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "applyInfo":
+  {
+    "applicationPeriod":60,
+    "applyAmount":5000.00,
+    "applySource":"api",
+    "applyTerm":1,
+    "applyTime":"2019-02-27 15:02:27",
+    "financeChannel":1,
+    "liveAddressBorough":"110000",
+    "liveAddressCity":"110100",
+    "liveAddressProvince":"110105",
+    "liveDetailAddress":"北京市朝阳区",
+    "productCode":"XJ_CZB_CAR"
+  },
+  "cardInfo":
+  {
+    "bankCardNo":"6217002200003225701",
+    "bankCode":34,
+    "bankNameSub":"建设银行",
+    "bankPhone":"18366582857"
+  },
+  "contactInfo":
+  {
+    "firstContactCardNum":"341182198612102661",
+    "firstContactName":"王倩",
+    "firstContactPhone":"18205502789",
+    "firstContactRelationship":2,
+    "spouseCardNum":"341182198612102661",
+    "spouseName":"王倩"
+  },
+  "creditInfo":
+  {
+    "sourceCreditAmt":200000,
+    "sourceCreditRate":0.12
+  },
+  "extraInfo":
+  {
+    "carSeries":"途乐(进口)",
+    "estimatedValue":"423900.0",
+    "licenseNum":"京LFT755",
+    "vehicleType":"2017款 途乐(进口) 4.0L 美版",
+    "vin":"JN8BY2NY4H9009534",
+    "carStartBidAmt":1000
+  },
+  "imageInfo":
+  {
+    "carControlImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-5ca7f9ef5cdf18d5d39aea5809ca04ed.jpg",
+    "carDashboardImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-00d073d10a185f1e1caacc4c739ea7c5.jpg",
+    "carDealerDrivingLicenseFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-ffd90152d6ca2dcee42a00647566b5c1.jpg",
+    "carFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-4e4772442bbfd86b5119d42d87afd58a.jpg",
+    "carRegImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg",
+    "carVinImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg"
+  },
+  "loanInfo":
+  {
+    "cycleInterval":60,
+    "interestRate":0.216,
+    "loanAmount":5000.00,
+    "loanTerm":1,
+    "repayMethod":"AT",
+    "assetInterestRate": 0.130000,
+    "assetInterestRatePeriod": 1
+  },
+  "orderDetail":
+  {
+    "averageCarRelatedAmt":150000,
+    "averageCarRelatedCnt":"",
+    "boothNoS":"",
+    "carCompanyNames":"",
+    "companyName":"明光市永达汽车销售有限公司",
+    "companyType":"有限责任公司(自然人投资或控股)",
+    "currentBusinessScale":1,
+    "dealerName":"明光市永达汽车销售有限公司",
+    "employeeNum":8,
+    "enterpriseRegisterNumber":"320114000155750",
+    "hasCompany":0,
+    "incumbencyPosition":"",
+    "manageAddressBorough":"341182",
+    "manageAddressCity":"341100",
+    "manageAddressProvince":"340000",
+    "manageCarPreferences":3,
+    "manageDetailAddress":"明光街道安徽省明光市抹山大道111号徽商大市场a2-8.9.10",
+    "manageEvaluation":1,
+    "manageTime":7,
+    "secondHandCarTradeName":"滁州市旧机动车交易有限公司二手车市场",
+    "shareRatio":"",
+    "stallNum":50,
+    "stockCarPriceCycleMeanValue":55.93,
+    "stockCarPriceCycleMidValue":52,
+    "stockCarPriceMeanValue":49750,
+    "stockCarPriceMidValue":40900,
+    "stockCarPriceRange":"22000.0至105800.0",
+    "stockCarTotalNum":"6",
+    "totalCarRelatedAmt":22000000.00,
+    "totalCarRelatedCnt":146,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "personalInfo":
+  {
+    "age":35,
+    "cardNum":"61070119850813550X",
+    "custName":"黎丹蝶",
+    "fourVerifyResult":1,
+    "hasChildren":1,
+    "maritalStatus":1,
+    "personalPurchaseHouse":2,
+    "phone":"18366582979",
+    "registeredAddressBorough":"110000",
+    "registeredAddressCity":"110100",
+    "registeredAddressProvince":"110105",
+    "registeredDetailAddress":"西林街道嘉山大道1号汇金广场2号楼503",
+    "sex":0
+  },
+  "riskSuggestion":
+  {
+    "disburseNum":5,
+    "firstCreditDate":"2019-02-20 17:01:42",
+    "lendingAmount":0,
+    "lendingNum":0,
+    "repayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"10357490",
+  "sourceUserId":"46",
+  "transactionId":"Test_49"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件接口:缺少必传项platformTotalNum</t>
+    <rPh sb="0" eb="1">
+      <t>jin jian jie kou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "applyInfo":
+  {
+    "applicationPeriod":60,
+    "applyAmount":5000.00,
+    "applySource":"api",
+    "applyTerm":1,
+    "applyTime":"2019-02-27 15:02:27",
+    "financeChannel":1,
+    "liveAddressBorough":"110000",
+    "liveAddressCity":"110100",
+    "liveAddressProvince":"110105",
+    "liveDetailAddress":"北京市朝阳区",
+    "productCode":"XJ_CZB_CAR"
+  },
+  "cardInfo":
+  {
+    "bankCardNo":"6217002200003225701",
+    "bankCode":34,
+    "bankNameSub":"建设银行",
+    "bankPhone":"18366582857"
+  },
+  "contactInfo":
+  {
+    "firstContactCardNum":"341182198612102661",
+    "firstContactName":"王倩",
+    "firstContactPhone":"18205502789",
+    "firstContactRelationship":2,
+    "spouseCardNum":"341182198612102661",
+    "spouseName":"王倩"
+  },
+  "creditInfo":
+  {
+    "sourceCreditAmt":200000,
+    "sourceCreditRate":0.12
+  },
+  "extraInfo":
+  {
+    "carSeries":"途乐(进口)",
+    "estimatedValue":"423900.0",
+    "licenseNum":"京LFT755",
+    "vehicleType":"2017款 途乐(进口) 4.0L 美版",
+    "vin":"JN8BY2NY4H9009534",
+    "carStartBidAmt":1000
+  },
+  "imageInfo":
+  {
+    "carControlImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-5ca7f9ef5cdf18d5d39aea5809ca04ed.jpg",
+    "carDashboardImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-00d073d10a185f1e1caacc4c739ea7c5.jpg",
+    "carDealerDrivingLicenseFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-ffd90152d6ca2dcee42a00647566b5c1.jpg",
+    "carFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-4e4772442bbfd86b5119d42d87afd58a.jpg",
+    "carRegImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg",
+    "carVinImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg"
+  },
+  "loanInfo":
+  {
+    "cycleInterval":60,
+    "interestRate":0.216,
+    "loanAmount":5000.00,
+    "loanTerm":1,
+    "repayMethod":"AT",
+    "assetInterestRate": 0.130000,
+    "assetInterestRatePeriod": 1
+  },
+  "orderDetail":
+  {
+    "averageCarRelatedAmt":150000,
+    "averageCarRelatedCnt":"",
+    "boothNoS":"",
+    "carCompanyNames":"",
+    "companyName":"明光市永达汽车销售有限公司",
+    "companyType":"有限责任公司(自然人投资或控股)",
+    "currentBusinessScale":1,
+    "dealerName":"明光市永达汽车销售有限公司",
+    "employeeNum":8,
+    "enterpriseRegisterNumber":"320114000155750",
+    "hasCompany":0,
+    "incumbencyPosition":"",
+    "manageAddressBorough":"341182",
+    "manageAddressCity":"341100",
+    "manageAddressProvince":"340000",
+    "manageCarPreferences":3,
+    "manageDetailAddress":"明光街道安徽省明光市抹山大道111号徽商大市场a2-8.9.10",
+    "manageEvaluation":1,
+    "manageTime":7,
+    "secondHandCarTradeName":"滁州市旧机动车交易有限公司二手车市场",
+    "shareRatio":"",
+    "stallNum":50,
+    "stockCarPriceCycleMeanValue":55.93,
+    "stockCarPriceCycleMidValue":52,
+    "stockCarPriceMeanValue":49750,
+    "stockCarPriceMidValue":40900,
+    "stockCarPriceRange":"22000.0至105800.0",
+    "stockCarTotalNum":"6",
+    "totalCarRelatedAmt":22000000.00,
+    "totalCarRelatedCnt":146,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformAverageAmt":66652.22
+  },
+  "personalInfo":
+  {
+    "age":35,
+    "cardNum":"61070119850813550X",
+    "custName":"黎丹蝶",
+    "fourVerifyResult":1,
+    "hasChildren":1,
+    "maritalStatus":1,
+    "personalPurchaseHouse":2,
+    "phone":"18366582979",
+    "registeredAddressBorough":"110000",
+    "registeredAddressCity":"110100",
+    "registeredAddressProvince":"110105",
+    "registeredDetailAddress":"西林街道嘉山大道1号汇金广场2号楼503",
+    "sex":0
+  },
+  "riskSuggestion":
+  {
+    "disburseNum":5,
+    "firstCreditDate":"2019-02-20 17:01:42",
+    "lendingAmount":0,
+    "lendingNum":0,
+    "repayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"10357490",
+  "sourceUserId":"46",
+  "transactionId":"Test_49"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "applyInfo":
+  {
+    "applicationPeriod":60,
+    "applyAmount":5000.00,
+    "applySource":"api",
+    "applyTerm":1,
+    "applyTime":"2019-02-27 15:02:27",
+    "financeChannel":1,
+    "liveAddressBorough":"110000",
+    "liveAddressCity":"110100",
+    "liveAddressProvince":"110105",
+    "liveDetailAddress":"北京市朝阳区",
+    "productCode":"XJ_CZB_CAR"
+  },
+  "cardInfo":
+  {
+    "bankCardNo":"6217002200003225701",
+    "bankCode":34,
+    "bankNameSub":"建设银行",
+    "bankPhone":"18366582857"
+  },
+  "contactInfo":
+  {
+    "firstContactCardNum":"341182198612102661",
+    "firstContactName":"王倩",
+    "firstContactPhone":"18205502789",
+    "firstContactRelationship":2,
+    "spouseCardNum":"341182198612102661",
+    "spouseName":"王倩"
+  },
+  "creditInfo":
+  {
+    "sourceCreditAmt":200000,
+    "sourceCreditRate":0.12
+  },
+  "extraInfo":
+  {
+    "carSeries":"途乐(进口)",
+    "estimatedValue":"423900.0",
+    "licenseNum":"京LFT755",
+    "vehicleType":"2017款 途乐(进口) 4.0L 美版",
+    "vin":"JN8BY2NY4H9009534",
+    "carStartBidAmt":1000
+  },
+  "imageInfo":
+  {
+    "carControlImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-5ca7f9ef5cdf18d5d39aea5809ca04ed.jpg",
+    "carDashboardImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-00d073d10a185f1e1caacc4c739ea7c5.jpg",
+    "carDealerDrivingLicenseFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-ffd90152d6ca2dcee42a00647566b5c1.jpg",
+    "carFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-4e4772442bbfd86b5119d42d87afd58a.jpg",
+    "carRegImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg",
+    "carVinImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg"
+  },
+  "loanInfo":
+  {
+    "cycleInterval":60,
+    "interestRate":0.216,
+    "loanAmount":5000.00,
+    "loanTerm":1,
+    "repayMethod":"AT",
+    "assetInterestRate": 0.130000,
+    "assetInterestRatePeriod": 1
+  },
+  "orderDetail":
+  {
+    "averageCarRelatedAmt":150000,
+    "averageCarRelatedCnt":"",
+    "boothNoS":"",
+    "carCompanyNames":"",
+    "companyName":"明光市永达汽车销售有限公司",
+    "companyType":"有限责任公司(自然人投资或控股)",
+    "currentBusinessScale":1,
+    "dealerName":"明光市永达汽车销售有限公司",
+    "employeeNum":8,
+    "enterpriseRegisterNumber":"320114000155750",
+    "hasCompany":0,
+    "incumbencyPosition":"",
+    "manageAddressBorough":"341182",
+    "manageAddressCity":"341100",
+    "manageAddressProvince":"340000",
+    "manageCarPreferences":3,
+    "manageDetailAddress":"明光街道安徽省明光市抹山大道111号徽商大市场a2-8.9.10",
+    "manageEvaluation":1,
+    "manageTime":7,
+    "secondHandCarTradeName":"滁州市旧机动车交易有限公司二手车市场",
+    "shareRatio":"",
+    "stallNum":50,
+    "stockCarPriceCycleMeanValue":55.93,
+    "stockCarPriceCycleMidValue":52,
+    "stockCarPriceMeanValue":49750,
+    "stockCarPriceMidValue":40900,
+    "stockCarPriceRange":"22000.0至105800.0",
+    "stockCarTotalNum":"6",
+    "totalCarRelatedAmt":22000000.00,
+    "totalCarRelatedCnt":146,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838
+  },
+  "personalInfo":
+  {
+    "age":35,
+    "cardNum":"61070119850813550X",
+    "custName":"黎丹蝶",
+    "fourVerifyResult":1,
+    "hasChildren":1,
+    "maritalStatus":1,
+    "personalPurchaseHouse":2,
+    "phone":"18366582979",
+    "registeredAddressBorough":"110000",
+    "registeredAddressCity":"110100",
+    "registeredAddressProvince":"110105",
+    "registeredDetailAddress":"西林街道嘉山大道1号汇金广场2号楼503",
+    "sex":0
+  },
+  "riskSuggestion":
+  {
+    "disburseNum":5,
+    "firstCreditDate":"2019-02-20 17:01:42",
+    "lendingAmount":0,
+    "lendingNum":0,
+    "repayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"10357490",
+  "sourceUserId":"46",
+  "transactionId":"Test_49"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件接口:缺少必传项platformAverageAmt</t>
+    <rPh sb="0" eb="1">
+      <t>jin jian jie kou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件接口:缺少必传项carStartBidAmt</t>
+    <rPh sb="0" eb="1">
+      <t>jin jian jie kou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que shao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "applyInfo":
+  {
+    "applicationPeriod":60,
+    "applyAmount":5000.00,
+    "applySource":"api",
+    "applyTerm":1,
+    "applyTime":"2019-02-27 15:02:27",
+    "financeChannel":1,
+    "liveAddressBorough":"110000",
+    "liveAddressCity":"110100",
+    "liveAddressProvince":"110105",
+    "liveDetailAddress":"北京市朝阳区",
+    "productCode":"XJ_CZB_CAR"
+  },
+  "cardInfo":
+  {
+    "bankCardNo":"6217002200003225701",
+    "bankCode":34,
+    "bankNameSub":"建设银行",
+    "bankPhone":"18366582857"
+  },
+  "contactInfo":
+  {
+    "firstContactCardNum":"341182198612102661",
+    "firstContactName":"王倩",
+    "firstContactPhone":"18205502789",
+    "firstContactRelationship":2,
+    "spouseCardNum":"341182198612102661",
+    "spouseName":"王倩"
+  },
+  "creditInfo":
+  {
+    "sourceCreditAmt":200000,
+    "sourceCreditRate":0.12
+  },
+  "extraInfo":
+  {
+    "carSeries":"途乐(进口)",
+    "estimatedValue":"423900.0",
+    "licenseNum":"京LFT755",
+    "vehicleType":"2017款 途乐(进口) 4.0L 美版",
+    "vin":"JN8BY2NY4H9009534"
+  },
+  "imageInfo":
+  {
+    "carControlImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-5ca7f9ef5cdf18d5d39aea5809ca04ed.jpg",
+    "carDashboardImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-00d073d10a185f1e1caacc4c739ea7c5.jpg",
+    "carDealerDrivingLicenseFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-ffd90152d6ca2dcee42a00647566b5c1.jpg",
+    "carFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-4e4772442bbfd86b5119d42d87afd58a.jpg",
+    "carRegImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg",
+    "carVinImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg"
+  },
+  "loanInfo":
+  {
+    "cycleInterval":60,
+    "interestRate":0.216,
+    "loanAmount":5000.00,
+    "loanTerm":1,
+    "repayMethod":"AT",
+    "assetInterestRate": 0.130000,
+    "assetInterestRatePeriod": 1
+  },
+  "orderDetail":
+  {
+    "averageCarRelatedAmt":150000,
+    "averageCarRelatedCnt":"",
+    "boothNoS":"",
+    "carCompanyNames":"",
+    "companyName":"明光市永达汽车销售有限公司",
+    "companyType":"有限责任公司(自然人投资或控股)",
+    "currentBusinessScale":1,
+    "dealerName":"明光市永达汽车销售有限公司",
+    "employeeNum":8,
+    "enterpriseRegisterNumber":"320114000155750",
+    "hasCompany":0,
+    "incumbencyPosition":"",
+    "manageAddressBorough":"341182",
+    "manageAddressCity":"341100",
+    "manageAddressProvince":"340000",
+    "manageCarPreferences":3,
+    "manageDetailAddress":"明光街道安徽省明光市抹山大道111号徽商大市场a2-8.9.10",
+    "manageEvaluation":1,
+    "manageTime":7,
+    "secondHandCarTradeName":"滁州市旧机动车交易有限公司二手车市场",
+    "shareRatio":"",
+    "stallNum":50,
+    "stockCarPriceCycleMeanValue":55.93,
+    "stockCarPriceCycleMidValue":52,
+    "stockCarPriceMeanValue":49750,
+    "stockCarPriceMidValue":40900,
+    "stockCarPriceRange":"22000.0至105800.0",
+    "stockCarTotalNum":"6",
+    "totalCarRelatedAmt":22000000.00,
+    "totalCarRelatedCnt":146,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "personalInfo":
+  {
+    "age":35,
+    "cardNum":"61070119850813550X",
+    "custName":"黎丹蝶",
+    "fourVerifyResult":1,
+    "hasChildren":1,
+    "maritalStatus":1,
+    "personalPurchaseHouse":2,
+    "phone":"18366582979",
+    "registeredAddressBorough":"110000",
+    "registeredAddressCity":"110100",
+    "registeredAddressProvince":"110105",
+    "registeredDetailAddress":"西林街道嘉山大道1号汇金广场2号楼503",
+    "sex":0
+  },
+  "riskSuggestion":
+  {
+    "disburseNum":5,
+    "firstCreditDate":"2019-02-20 17:01:42",
+    "lendingAmount":0,
+    "lendingNum":0,
+    "repayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"10357490",
+  "sourceUserId":"46",
+  "transactionId":"Test_49"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2485,7 +4752,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2497,6 +4764,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2804,8 +5074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2831,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2840,7 +5110,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="131" customHeight="1" x14ac:dyDescent="0.2">
@@ -2848,41 +5118,41 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
@@ -2890,219 +5160,219 @@
     </row>
     <row r="4" spans="1:11" ht="143" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="137" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="124" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="89" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="3">
         <v>4000</v>
@@ -3110,42 +5380,42 @@
     </row>
     <row r="15" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3185,7 +5455,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="256" x14ac:dyDescent="0.2">
@@ -3193,16 +5463,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3241,7 +5511,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="112" x14ac:dyDescent="0.2">
@@ -3249,16 +5519,16 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3297,7 +5567,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="192" x14ac:dyDescent="0.2">
@@ -3305,16 +5575,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3354,7 +5624,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="192" x14ac:dyDescent="0.2">
@@ -3362,16 +5632,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3383,14 +5653,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="62.6640625" customWidth="1"/>
   </cols>
@@ -3406,53 +5677,353 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="409" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>29</v>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3491,7 +6062,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="256" x14ac:dyDescent="0.2">
@@ -3499,16 +6070,16 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +6118,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="144" x14ac:dyDescent="0.2">
@@ -3555,14 +6126,14 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3601,7 +6172,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="256" x14ac:dyDescent="0.2">
@@ -3609,16 +6180,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3657,7 +6228,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="288" x14ac:dyDescent="0.2">
@@ -3665,16 +6236,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3713,7 +6284,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="256" x14ac:dyDescent="0.2">
@@ -3721,16 +6292,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="560" windowWidth="22920" windowHeight="13440" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="2020" yWindow="560" windowWidth="22920" windowHeight="13440" tabRatio="500" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="contract_sign" sheetId="7" r:id="rId6"/>
     <sheet name="contract_query" sheetId="8" r:id="rId7"/>
     <sheet name="project_loan" sheetId="9" r:id="rId8"/>
-    <sheet name="pre_clear_calculate" sheetId="10" r:id="rId9"/>
-    <sheet name="repayment_plan" sheetId="11" r:id="rId10"/>
-    <sheet name="receipts_notice" sheetId="12" r:id="rId11"/>
+    <sheet name="pfa_query" sheetId="13" r:id="rId9"/>
+    <sheet name="pre_clear_calculate" sheetId="10" r:id="rId10"/>
+    <sheet name="repayment_plan" sheetId="11" r:id="rId11"/>
+    <sheet name="receipts_notice" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="790">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,13 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看协议结果接口</t>
-    <rPh sb="0" eb="1">
-      <t>cha kan xie yi jie guo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>放款接口</t>
     <rPh sb="0" eb="1">
       <t>fang kuan</t>
@@ -135,94 +129,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提前结清试算接口</t>
-    <rPh sb="0" eb="1">
-      <t>ti qian jie qing</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shi suan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "projectId": "35734386141831168"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询当前还款计划接口</t>
-    <rPh sb="0" eb="1">
-      <t>cha xun dang qian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>huan kuan ji hua</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>jie kou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "projectId":"35734386141831168"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回购后收款通知接口</t>
-    <rPh sb="0" eb="1">
-      <t>hui gou hou</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shou kuan tong zhi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>jie kou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "projectId":"30844098113970111",
-  "clearTime":"2019-01-01 11:11:11"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel": "czb",
-  "sourceCode": "czb",
-  "creditId": "37259945351061504"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "associationId":"34745104849707008",
-  "channel":"czb",
-  "contractId":"34746648307441664",
-  "contractType":2,
-  "requestTime":"2019-02-13 11:29:29",
-  "serviceSn":"1547902959779",
-  "sourceCode":"czb",
-  "sourceUserId":"36"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
   "X-TBC-SOURCE":"tbc_zhtb_czb",
   "X-TBC-SIGN":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel":"czb",
-  "sourceCode":"czb",
-  "sourceProjectId":"",
-  "projectId":""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -42494,6 +42403,537 @@
  "sourceProjectId": "10357490",
  "sourceUserId": "46",
  "transactionId": "Test_49"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "creditId": "43064549250715648"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "projectId": "10022797191479296"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "projectId":"10022797191479296"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "projectId":"30844098113970111",
+  "clearTime":"2019-01-01 11:11:11"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件结果查询接口-缺少必传项channel</t>
+    <rPh sb="2" eb="3">
+      <t>jie guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cha xun</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bi chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件结果查询接口-缺少必传项sourceCode</t>
+    <rPh sb="2" eb="3">
+      <t>jie guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cha xun</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bi chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件结果查询接口-缺少必传项sourceProjectId</t>
+    <rPh sb="2" eb="3">
+      <t>jie guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cha xun</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bi chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件结果查询接口-缺少必传项projectId</t>
+    <rPh sb="2" eb="3">
+      <t>jie guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cha xun</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bi chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看协议结果接口-正常传参</t>
+    <rPh sb="0" eb="1">
+      <t>cha kan xie yi jie guo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zheng chang chuan can</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>can shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">查看协议结果接口-缺少必传项associationId </t>
+    <rPh sb="0" eb="1">
+      <t>cha kan xie yi jie guo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bi chuan xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">查看协议结果接口-缺少必传项channel </t>
+    <rPh sb="0" eb="1">
+      <t>cha kan xie yi jie guo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bi chuan xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">查看协议结果接口-缺少必传项sourceCode </t>
+    <rPh sb="0" eb="1">
+      <t>cha kan xie yi jie guo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bi chuan xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">查看协议结果接口-缺少必传项serviceSn </t>
+    <rPh sb="0" eb="1">
+      <t>cha kan xie yi jie guo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bi chuan xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">查看协议结果接口-缺少必传项requestTime </t>
+    <rPh sb="0" eb="1">
+      <t>cha kan xie yi jie guo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bi chuan xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">查看协议结果接口-缺少必传项sourceUserId </t>
+    <rPh sb="0" eb="1">
+      <t>cha kan xie yi jie guo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bi chuan xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">查看协议结果接口-缺少必传项contractType </t>
+    <rPh sb="0" eb="1">
+      <t>cha kan xie yi jie guo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bi chuan xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">查看协议结果接口-缺少必传项contractId </t>
+    <rPh sb="0" eb="1">
+      <t>cha kan xie yi jie guo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bi chuan xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前结清试算接口-正常传参</t>
+    <rPh sb="0" eb="1">
+      <t>ti qian jie qing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi suan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zheng chang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chuan can</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>can shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前结清试算接口-缺少必传项projectId</t>
+    <rPh sb="0" eb="1">
+      <t>ti qian jie qing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi suan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bi chaun xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询当前还款计划接口-正常传参</t>
+    <rPh sb="0" eb="1">
+      <t>cha xun dang qian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huan kuan ji hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zheng chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询当前还款计划接口-缺少必传项projectId</t>
+    <rPh sb="0" eb="1">
+      <t>cha xun dang qian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huan kuan ji hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bi chuan xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回购后收款通知接口-正常传参</t>
+    <rPh sb="0" eb="1">
+      <t>hui gou hou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou kuan tong zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zheng chang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chuan can</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回购后收款通知接口-缺少必传项projectId</t>
+    <rPh sb="0" eb="1">
+      <t>hui gou hou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou kuan tong zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bi chuan xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "clearTime":"2019-01-01 11:11:11"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回购后收款通知接口-缺少必传项clearTime</t>
+    <rPh sb="0" eb="1">
+      <t>hui gou hou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou kuan tong zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bi chuan xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "projectId":"30844098113970111"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"10347408",
+  "projectId":"43363695841005568"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "sourceCode":"czb",
+  "sourceProjectId":"10347408",
+  "projectId":"43363695841005568"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel":"czb",
+  "sourceProjectId":"10347408",
+  "projectId":"43363695841005568"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel":"czb",
+  "sourceCode":"czb",
+  "projectId":"43363695841005568"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"10347408"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "associationId":"43366346787934208",
+  "channel":"czb",
+  "contractId":"43405329358147584",
+  "contractType":2,
+  "requestTime":"2019-02-13 11:29:29",
+  "serviceSn":"373718",
+  "sourceCode":"czb",
+  "sourceUserId":"27230"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel":"czb",
+  "contractId":"43405329358147584",
+  "contractType":2,
+  "requestTime":"2019-02-13 11:29:29",
+  "serviceSn":"373718",
+  "sourceCode":"czb",
+  "sourceUserId":"27230"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "associationId":"43366346787934208",
+  "contractId":"43405329358147584",
+  "contractType":2,
+  "requestTime":"2019-02-13 11:29:29",
+  "serviceSn":"373718",
+  "sourceCode":"czb",
+  "sourceUserId":"27230"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "associationId":"43366346787934208",
+  "channel":"czb",
+  "contractId":"43405329358147584",
+  "contractType":2,
+  "requestTime":"2019-02-13 11:29:29",
+  "serviceSn":"373718",
+  "sourceUserId":"27230"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "associationId":"43366346787934208",
+  "channel":"czb",
+  "contractId":"43405329358147584",
+  "contractType":2,
+  "requestTime":"2019-02-13 11:29:29",
+  "sourceCode":"czb",
+  "sourceUserId":"27230"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "associationId":"43366346787934208",
+  "channel":"czb",
+  "contractId":"43405329358147584",
+  "contractType":2,
+  "serviceSn":"373718",
+  "sourceCode":"czb",
+  "sourceUserId":"27230"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "associationId":"43366346787934208",
+  "channel":"czb",
+  "contractId":"43405329358147584",
+  "contractType":2,
+  "requestTime":"2019-02-13 11:29:29",
+  "serviceSn":"373718",
+  "sourceCode":"czb"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "associationId":"43366346787934208",
+  "channel":"czb",
+  "contractId":"43405329358147584",
+  "requestTime":"2019-02-13 11:29:29",
+  "serviceSn":"373718",
+  "sourceCode":"czb",
+  "sourceUserId":"27230"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "associationId":"43366346787934208",
+  "channel":"czb",
+  "contractType":2,
+  "requestTime":"2019-02-13 11:29:29",
+  "serviceSn":"373718",
+  "sourceCode":"czb",
+  "sourceUserId":"27230"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款结果查询接口</t>
+    <rPh sb="0" eb="1">
+      <t>fang kuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie guo cha xun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/busi/loan/query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "channel":"czb",
+ "sourceCode":"czb",
+ "serviceSn":"154790"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -42908,7 +43348,7 @@
   <dimension ref="A1:K188"/>
   <sheetViews>
     <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42934,7 +43374,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -42943,7 +43383,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="131" customHeight="1" x14ac:dyDescent="0.2">
@@ -42951,41 +43391,41 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
@@ -42993,3682 +43433,3682 @@
     </row>
     <row r="4" spans="1:11" ht="143" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="137" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="124" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="89" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="194" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="409" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C113" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="F113" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F166" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
@@ -46684,16 +47124,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -46712,24 +47152,39 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>763</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>747</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="256" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4" t="s">
+        <v>764</v>
       </c>
     </row>
   </sheetData>
@@ -46740,15 +47195,86 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="256" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="256" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
     <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
@@ -46768,24 +47294,58 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>26</v>
+      <c r="D3" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -46799,8 +47359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46824,7 +47384,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="192" x14ac:dyDescent="0.2">
@@ -46832,118 +47392,118 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>744</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -46956,7 +47516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -46980,13 +47540,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="192" x14ac:dyDescent="0.2">
@@ -46994,199 +47554,199 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="192" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="192" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="192" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="192" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="192" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="192" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="192" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="192" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="192" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -47200,8 +47760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47222,2461 +47782,2511 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="5" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="196" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E9" s="5" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>425</v>
+      </c>
       <c r="E10" s="5" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>745</v>
+      </c>
       <c r="E11" s="5" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E12" s="5" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E14" s="5" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E16" s="5" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>425</v>
+      </c>
       <c r="E18" s="5" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>745</v>
+      </c>
       <c r="E20" s="5" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="5" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="5" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="5" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E59" s="5" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E60" s="5" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="5" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="5" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="5" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="5" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="5" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="5" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D78" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E78" s="5" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D79" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>425</v>
+      </c>
       <c r="E79" s="5" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="5" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="5" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="5" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="5" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="5" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="5" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="5" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="5" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="5" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="5" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="5" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="5" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="5" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="5" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D94" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E94" s="5" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="5" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D96" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E96" s="5" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="5" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="5" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="5" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="5" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="5" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="5" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="5" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="5" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="5" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="5" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D107" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E107" s="5" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="5" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="5" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="5" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="5" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D112" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E112" s="5" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="5" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D114" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>425</v>
+      </c>
       <c r="E114" s="5" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="5" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D116" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E116" s="5" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="5" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D118" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E118" s="5" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D119" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E119" s="5" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D120" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>425</v>
+      </c>
       <c r="E120" s="5" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="5" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="5" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="5" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D124" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E124" s="5" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D125" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E125" s="5" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D126" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>746</v>
+      </c>
       <c r="E126" s="5" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D127" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E127" s="5" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="5" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="5" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="5" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="5" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="5" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="5" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="5" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="5" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="5" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="5" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -49687,15 +50297,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="82.33203125" customWidth="1"/>
@@ -49715,7 +50325,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="256" x14ac:dyDescent="0.2">
@@ -49723,16 +50333,84 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>773</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="256" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="256" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="256" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="256" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -49746,7 +50424,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49771,7 +50449,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="144" x14ac:dyDescent="0.2">
@@ -49779,14 +50457,14 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -49797,18 +50475,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5" customWidth="1"/>
     <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -49825,24 +50503,160 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>754</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>778</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="256" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="256" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="256" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="256" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="256" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="256" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="256" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="256" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -49856,7 +50670,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49881,24 +50695,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="288" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -49911,16 +50725,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -49937,24 +50750,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="256" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>787</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>788</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>789</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="560" windowWidth="22920" windowHeight="13440" tabRatio="500"/>
+    <workbookView xWindow="2020" yWindow="560" windowWidth="22920" windowHeight="13440" tabRatio="500" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -42708,10 +42708,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1/busi/loan/query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  "channel":"czb",
  "sourceCode":"czb",
@@ -42935,6 +42931,10 @@
   "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
  }
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/busi/loan/query</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -43347,7 +43347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A62" workbookViewId="0">
       <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
@@ -44585,7 +44585,7 @@
         <v>60</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>484</v>
@@ -44605,7 +44605,7 @@
         <v>60</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>19</v>
@@ -50725,8 +50725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50758,13 +50758,13 @@
         <v>785</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>16</v>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="560" windowWidth="22920" windowHeight="13440" tabRatio="500" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="2020" yWindow="560" windowWidth="22920" windowHeight="13440" tabRatio="500" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="pre_clear_calculate" sheetId="10" r:id="rId10"/>
     <sheet name="repayment_plan" sheetId="11" r:id="rId11"/>
     <sheet name="receipts_notice" sheetId="12" r:id="rId12"/>
+    <sheet name="repay" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="793">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42935,6 +42936,37 @@
   </si>
   <si>
     <t>/api/v1/busi/loan/query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/in/confirm/repay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款确认-正常传参</t>
+    <rPh sb="0" eb="1">
+      <t>huan kuan que ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zheng chang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chuan can</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "assetId":"",
+  "clearTime":"",
+  "channel":"czb",
+  "repayType":"",
+  "totalAmount":100.00,
+  "principleAmount":100.00,
+  "interestAmount":100.00,
+  "feeAmount":100.00,
+  "remark":"这是备注"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -47269,7 +47301,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47352,6 +47384,75 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="224" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -50725,7 +50826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -47392,7 +47392,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -43383,7 +43383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A186" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -47305,7 +47305,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47396,7 +47396,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47464,7 +47464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -47621,7 +47621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -47865,7 +47865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -50775,7 +50775,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50830,7 +50830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="560" windowWidth="22920" windowHeight="13440" tabRatio="500" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="2020" yWindow="560" windowWidth="22920" windowHeight="13440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -42861,6 +42861,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/api/v1/in/repaymentPlanInfoDetail/repaymentConfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
   "channel": "czb",
   "sourceCode": "czb",
@@ -42967,10 +42971,6 @@
     "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
   }
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/in/repaymentPlanInfoDetail/repaymentConfirm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -43383,8 +43383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K188"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43436,7 +43436,7 @@
         <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>16</v>
@@ -47395,8 +47395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47430,7 +47430,7 @@
         <v>789</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -47959,7 +47959,7 @@
   <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="560" windowWidth="22920" windowHeight="13440" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="2020" yWindow="560" windowWidth="22920" windowHeight="13440" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -42691,6 +42691,269 @@
   </si>
   <si>
     <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceProjectId": "10357490",
+  "projectId": "37562553282338816",
+  "sourceUserId": "46",
+  "serviceSn": "154790",
+  "amount": 50000.00,
+  "currency": "CNY",
+  "accountNo": "6225000000000000000",
+  "accountType": 0,
+  "accountProp": 1,
+  "accountName": "南京车置宝网络技术有限公司",
+  "id": "61070119850813550X",
+  "bankPhone": "18366582857",
+  "idType": 0,
+  "bankCode": 34
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "103",
+  "transactionId": "Test_103",
+  "serviceSn": "10000000",
+  "applyInfo": {
+    "applyTime": "2019-02-27 14:11:05",
+    "productCode": "XJ_CZB_CAR",
+    "applySource": "api",
+    "financeChannel": 1,
+    "liveAddressProvince": "100000",
+    "liveAddressCity": "110100",
+    "liveAddressBorough": "110105",
+    "liveDetailAddress": "四川省测试地址"
+  },
+  "cardInfo": {
+    "bankCode": 34,
+    "bankCardNo": "6222666677770003",
+    "bankPhone": "18900000003",
+    "bankNameSub": "建设银行"
+  },
+  "riskSuggestion": {
+    "disburseNum": 1,
+    "repayNum": 1,
+    "lendingNum": 1,
+    "lendingAmount": 1,
+    "firstCreditDate": "2018-01-01 09:00:00",
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "creditInfo": {
+    "sourceCreditAmt": 200000.00,
+    "sourceCreditRate": 1
+  },
+  "personalInfo": {
+    "cardNum": "61070119850813550X",
+    "custName": "黎丹蝶",
+    "phone": "18366582979",
+    "sex": 0,
+    "age": 35,
+    "maritalStatus": 1,
+    "hasChildren": 1,
+    "personalPurchaseHouse": 2,
+    "fourVerifyResult": 0,
+    "registeredAddressProvince": "110000",
+    "registeredAddressCity": "110100",
+    "registeredAddressBorough": "110105",
+    "registeredDetailAddress": "测试地址"
+  },
+  "contactInfo": {
+    "spouseName": "人厚",
+    "spouseCardNum": "81232919711203455X",
+    "firstContactRelationship": 6,
+    "firstContactName": "小二丝",
+    "firstContactCardNum": "81232919711203455X",
+    "firstContactPhone": "13731854665"
+  },
+  "orderDetail": {
+    "dealerName": "北京王二麻子车行",
+    "manageAddressProvince": "",
+    "manageAddressCity": "110100",
+    "manageAddressBorough": "110105",
+    "manageDetailAddress": "北京",
+    "secondHandCarTradeName": "哈利路亚交易市场",
+    "boothNoS": "hello",
+    "manageTime": 5,
+    "employeeNum": 4,
+    "stallNum": 2,
+    "hasCompany": 0,
+    "companyName": "北京哈利路亚有线车行公司",
+    "enterpriseRegisterNumber": "123456789098765",
+    "companyType": "有线责任公司",
+    "incumbencyPosition": "法人",
+    "shareRatio": 1,
+    "carCompanyNames": "中三",
+    "currentBusinessScale": 4,
+    "manageCarPreferences": 1,
+    "stockCarTotalNum": 10,
+    "stockCarPriceRange": "10-100",
+    "stockCarPriceMidValue": 100,
+    "stockCarPriceMeanValue": 10,
+    "stockCarPriceCycleMidValue": 10,
+    "stockCarPriceCycleMeanValue": 1,
+    "manageEvaluation": 4,
+    "totalCarRelatedAmt": 10000000,
+    "averageCarRelatedAmt": 1,
+    "totalCarRelatedCnt": 3,
+    "averageCarRelatedCnt": 5,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "imageInfo": {
+    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "X-TBC-SOURCE":"tbc_zhtb_czb",
+  "X-TBC-SIGN":"",
+  "Content-Type":"application/json"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "associationId":"48448552757645312",
+  "channel":"czb",
+  "contractId":"48448598471364608",
+  "contractType":2,
+  "requestTime":"2019-04-04 11:29:29",
+  "serviceSn":"38473818321",
+  "sourceCode":"czb",
+  "sourceUserId":"67416"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "46",
+  "transactionId": "Test_46",
+  "serviceSn": "1547905999999",
+  "applyInfo": {
+    "applyTime": "2019-02-27 14:11:05",
+    "productCode": "XJ_CZB_CAR",
+    "applySource": "api",
+    "financeChannel": 1,
+    "liveAddressProvince": "110000",
+    "liveAddressCity": "110100",
+    "liveAddressBorough": "110105",
+    "liveDetailAddress": "四川省测试地址"
+  },
+  "cardInfo": {
+    "bankCode": 95,
+    "bankCardNo": "6217002200003225701",
+    "bankPhone": "18366582857",
+    "bankNameSub": "江苏银行"
+  },
+  "riskSuggestion": {
+    "disburseNum": 1,
+    "repayNum": 1,
+    "lendingNum": 1,
+    "lendingAmount": 1,
+    "firstCreditDate": "2018-01-01 09:00:00",
+    "normRepayNum":0,
+    "overdueTimes":0,
+    "maxOverdueDays":0
+  },
+  "creditInfo": {
+    "sourceCreditAmt": 300000.00,
+    "sourceCreditRate": 1
+  },
+  "personalInfo": {
+    "cardNum": "61070119850813550X",
+    "custName": "黎丹蝶",
+    "phone": "18366582979",
+    "sex": 0,
+    "age": 35,
+    "maritalStatus": 1,
+    "hasChildren": 1,
+    "personalPurchaseHouse": 2,
+    "fourVerifyResult": 0,
+    "registeredAddressProvince": "110000",
+    "registeredAddressCity": "110100",
+    "registeredAddressBorough": "110105",
+    "registeredDetailAddress": "测试地址"
+  },
+  "contactInfo": {
+    "spouseName": "人厚",
+    "spouseCardNum": "81232919711203455X",
+    "firstContactRelationship": 6,
+    "firstContactName": "小二丝",
+    "firstContactCardNum": "81232919711203455X",
+    "firstContactPhone": "13731854665"
+  },
+  "orderDetail": {
+    "dealerName": "北京王二麻子车行",
+    "manageAddressProvince": "110000",
+    "manageAddressCity": "110100",
+    "manageAddressBorough": "110105",
+    "manageDetailAddress": "北京",
+    "secondHandCarTradeName": "哈利路亚交易市场",
+    "boothNoS": "hello",
+    "manageTime": 5,
+    "employeeNum": 4,
+    "stallNum": 2,
+    "hasCompany": 0,
+    "companyName": "北京哈利路亚有线车行公司",
+    "enterpriseRegisterNumber": "123456789098765",
+    "companyType": "有线责任公司",
+    "incumbencyPosition": "法人",
+    "shareRatio": 1,
+    "carCompanyNames": "中三",
+    "currentBusinessScale": 4,
+    "manageCarPreferences": 1,
+    "stockCarTotalNum": 10,
+    "stockCarPriceRange": "10-100",
+    "stockCarPriceMidValue": 100,
+    "stockCarPriceMeanValue": 10,
+    "stockCarPriceCycleMidValue": 10,
+    "stockCarPriceCycleMeanValue": 1,
+    "manageEvaluation": 4,
+    "totalCarRelatedAmt": 10000000,
+    "averageCarRelatedAmt": 1,
+    "totalCarRelatedCnt": 3,
+    "averageCarRelatedCnt": 5,
+    "platformRegisterDays":0,
+    "platformBreakNum":0,
+    "platformBidCars":899,
+    "platformTotalAmt":8822.19,
+    "platformTotalNum":2838,
+    "platformAverageAmt":66652.22
+  },
+  "imageInfo": {
+    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
+  }
+}</t>
+    <rPh sb="547" eb="548">
+      <t>jiang su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
  "applyInfo": {
   "applicationPeriod": 60,
   "applyAmount": 50000.00,
@@ -42706,8 +42969,8 @@
  },
  "cardInfo": {
   "bankCardNo": "6217002200003225701",
-  "bankCode": 34,
-  "bankNameSub": "建设银行",
+  "bankCode": 95,
+  "bankNameSub": "江苏银行",
   "bankPhone": "18366582857"
  },
  "contactInfo": {
@@ -42819,268 +43082,8 @@
  "transactionId": "Test_49"
 }</t>
     <rPh sb="432" eb="433">
-      <t>jian she</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel": "czb",
-  "sourceCode": "czb",
-  "sourceProjectId": "10357490",
-  "projectId": "37562553282338816",
-  "sourceUserId": "46",
-  "serviceSn": "154790",
-  "amount": 50000.00,
-  "currency": "CNY",
-  "accountNo": "6225000000000000000",
-  "accountType": 0,
-  "accountProp": 1,
-  "accountName": "南京车置宝网络技术有限公司",
-  "id": "61070119850813550X",
-  "bankPhone": "18366582857",
-  "idType": 0,
-  "bankCode": 34
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel": "czb",
-  "sourceCode": "czb",
-  "sourceUserId": "103",
-  "transactionId": "Test_103",
-  "serviceSn": "10000000",
-  "applyInfo": {
-    "applyTime": "2019-02-27 14:11:05",
-    "productCode": "XJ_CZB_CAR",
-    "applySource": "api",
-    "financeChannel": 1,
-    "liveAddressProvince": "100000",
-    "liveAddressCity": "110100",
-    "liveAddressBorough": "110105",
-    "liveDetailAddress": "四川省测试地址"
-  },
-  "cardInfo": {
-    "bankCode": 34,
-    "bankCardNo": "6222666677770003",
-    "bankPhone": "18900000003",
-    "bankNameSub": "建设银行"
-  },
-  "riskSuggestion": {
-    "disburseNum": 1,
-    "repayNum": 1,
-    "lendingNum": 1,
-    "lendingAmount": 1,
-    "firstCreditDate": "2018-01-01 09:00:00",
-    "normRepayNum":0,
-    "overdueTimes":0,
-    "maxOverdueDays":0
-  },
-  "creditInfo": {
-    "sourceCreditAmt": 200000.00,
-    "sourceCreditRate": 1
-  },
-  "personalInfo": {
-    "cardNum": "61070119850813550X",
-    "custName": "黎丹蝶",
-    "phone": "18366582979",
-    "sex": 0,
-    "age": 35,
-    "maritalStatus": 1,
-    "hasChildren": 1,
-    "personalPurchaseHouse": 2,
-    "fourVerifyResult": 0,
-    "registeredAddressProvince": "110000",
-    "registeredAddressCity": "110100",
-    "registeredAddressBorough": "110105",
-    "registeredDetailAddress": "测试地址"
-  },
-  "contactInfo": {
-    "spouseName": "人厚",
-    "spouseCardNum": "81232919711203455X",
-    "firstContactRelationship": 6,
-    "firstContactName": "小二丝",
-    "firstContactCardNum": "81232919711203455X",
-    "firstContactPhone": "13731854665"
-  },
-  "orderDetail": {
-    "dealerName": "北京王二麻子车行",
-    "manageAddressProvince": "",
-    "manageAddressCity": "110100",
-    "manageAddressBorough": "110105",
-    "manageDetailAddress": "北京",
-    "secondHandCarTradeName": "哈利路亚交易市场",
-    "boothNoS": "hello",
-    "manageTime": 5,
-    "employeeNum": 4,
-    "stallNum": 2,
-    "hasCompany": 0,
-    "companyName": "北京哈利路亚有线车行公司",
-    "enterpriseRegisterNumber": "123456789098765",
-    "companyType": "有线责任公司",
-    "incumbencyPosition": "法人",
-    "shareRatio": 1,
-    "carCompanyNames": "中三",
-    "currentBusinessScale": 4,
-    "manageCarPreferences": 1,
-    "stockCarTotalNum": 10,
-    "stockCarPriceRange": "10-100",
-    "stockCarPriceMidValue": 100,
-    "stockCarPriceMeanValue": 10,
-    "stockCarPriceCycleMidValue": 10,
-    "stockCarPriceCycleMeanValue": 1,
-    "manageEvaluation": 4,
-    "totalCarRelatedAmt": 10000000,
-    "averageCarRelatedAmt": 1,
-    "totalCarRelatedCnt": 3,
-    "averageCarRelatedCnt": 5,
-    "platformRegisterDays":0,
-    "platformBreakNum":0,
-    "platformBidCars":899,
-    "platformTotalAmt":8822.19,
-    "platformTotalNum":2838,
-    "platformAverageAmt":66652.22
-  },
-  "imageInfo": {
-    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
-  }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "X-TBC-SOURCE":"tbc_zhtb_czb",
-  "X-TBC-SIGN":"",
-  "Content-Type":"application/json"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel": "czb",
-  "sourceCode": "czb",
-  "sourceUserId": "46",
-  "transactionId": "Test_46",
-  "serviceSn": "1547905999999",
-  "applyInfo": {
-    "applyTime": "2019-02-27 14:11:05",
-    "productCode": "XJ_CZB_CAR",
-    "applySource": "api",
-    "financeChannel": 1,
-    "liveAddressProvince": "110000",
-    "liveAddressCity": "110100",
-    "liveAddressBorough": "110105",
-    "liveDetailAddress": "四川省测试地址"
-  },
-  "cardInfo": {
-    "bankCode": 34,
-    "bankCardNo": "6217002200003225701",
-    "bankPhone": "18366582857",
-    "bankNameSub": "建设银行"
-  },
-  "riskSuggestion": {
-    "disburseNum": 1,
-    "repayNum": 1,
-    "lendingNum": 1,
-    "lendingAmount": 1,
-    "firstCreditDate": "2018-01-01 09:00:00",
-    "normRepayNum":0,
-    "overdueTimes":0,
-    "maxOverdueDays":0
-  },
-  "creditInfo": {
-    "sourceCreditAmt": 300000.00,
-    "sourceCreditRate": 1
-  },
-  "personalInfo": {
-    "cardNum": "61070119850813550X",
-    "custName": "黎丹蝶",
-    "phone": "18366582979",
-    "sex": 0,
-    "age": 35,
-    "maritalStatus": 1,
-    "hasChildren": 1,
-    "personalPurchaseHouse": 2,
-    "fourVerifyResult": 0,
-    "registeredAddressProvince": "110000",
-    "registeredAddressCity": "110100",
-    "registeredAddressBorough": "110105",
-    "registeredDetailAddress": "测试地址"
-  },
-  "contactInfo": {
-    "spouseName": "人厚",
-    "spouseCardNum": "81232919711203455X",
-    "firstContactRelationship": 6,
-    "firstContactName": "小二丝",
-    "firstContactCardNum": "81232919711203455X",
-    "firstContactPhone": "13731854665"
-  },
-  "orderDetail": {
-    "dealerName": "北京王二麻子车行",
-    "manageAddressProvince": "110000",
-    "manageAddressCity": "110100",
-    "manageAddressBorough": "110105",
-    "manageDetailAddress": "北京",
-    "secondHandCarTradeName": "哈利路亚交易市场",
-    "boothNoS": "hello",
-    "manageTime": 5,
-    "employeeNum": 4,
-    "stallNum": 2,
-    "hasCompany": 0,
-    "companyName": "北京哈利路亚有线车行公司",
-    "enterpriseRegisterNumber": "123456789098765",
-    "companyType": "有线责任公司",
-    "incumbencyPosition": "法人",
-    "shareRatio": 1,
-    "carCompanyNames": "中三",
-    "currentBusinessScale": 4,
-    "manageCarPreferences": 1,
-    "stockCarTotalNum": 10,
-    "stockCarPriceRange": "10-100",
-    "stockCarPriceMidValue": 100,
-    "stockCarPriceMeanValue": 10,
-    "stockCarPriceCycleMidValue": 10,
-    "stockCarPriceCycleMeanValue": 1,
-    "manageEvaluation": 4,
-    "totalCarRelatedAmt": 10000000,
-    "averageCarRelatedAmt": 1,
-    "totalCarRelatedCnt": 3,
-    "averageCarRelatedCnt": 5,
-    "platformRegisterDays":0,
-    "platformBreakNum":0,
-    "platformBidCars":899,
-    "platformTotalAmt":8822.19,
-    "platformTotalNum":2838,
-    "platformAverageAmt":66652.22
-  },
-  "imageInfo": {
-    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
-  }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "associationId":"48448552757645312",
-  "channel":"czb",
-  "contractId":"48448598471364608",
-  "contractType":2,
-  "requestTime":"2019-04-04 11:29:29",
-  "serviceSn":"38473818321",
-  "sourceCode":"czb",
-  "sourceUserId":"67416"
-}</t>
+      <t>jiang su</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -43494,7 +43497,7 @@
   <dimension ref="A1:K188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44828,10 +44831,10 @@
         <v>278</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>18</v>
@@ -47975,7 +47978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -48018,7 +48021,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>15</v>
@@ -50692,7 +50695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -50732,7 +50735,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -50924,7 +50927,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="560" windowWidth="22920" windowHeight="13440" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="8800" yWindow="920" windowWidth="22920" windowHeight="13440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="817">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43084,6 +43084,10 @@
     <rPh sb="432" eb="433">
       <t>jiang su</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/credit/apply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -43496,8 +43500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43540,7 +43544,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>816</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>23</v>
@@ -47978,8 +47982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="920" windowWidth="22920" windowHeight="13440" tabRatio="500"/>
+    <workbookView xWindow="2680" yWindow="920" windowWidth="22920" windowHeight="13440" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -42953,6 +42953,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/api/v1/credit/apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
  "applyInfo": {
   "applicationPeriod": 60,
@@ -42991,7 +42995,8 @@
   "licenseNum": "京LFT755",
   "vehicleType": "2017款 途乐(进口) 4.0L 美版",
   "vin": "JN8BY2NY4H9009534",
-  "carStartBidAmt": 1000
+  "carStartBidAmt": 1000,
+  "engineSerialNum":"L672V83K0031"
  },
  "imageInfo": {
   "carControlImage": "http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-5ca7f9ef5cdf18d5d39aea5809ca04ed.jpg",
@@ -43014,9 +43019,9 @@
  },
  "orderDetail": {
   "averageCarRelatedAmt": 150000,
-  "averageCarRelatedCnt": "",
-  "boothNoS": "",
-  "carCompanyNames": "",
+  "averageCarRelatedCnt": "111115",
+  "boothNoS": "1234",
+  "carCompanyNames": "福特",
   "companyName": "明光市永达汽车销售有限公司",
   "companyType": "有限责任公司(自然人投资或控股)",
   "currentBusinessScale": 1,
@@ -43024,7 +43029,7 @@
   "employeeNum": 8,
   "enterpriseRegisterNumber": "320114000155750",
   "hasCompany": 0,
-  "incumbencyPosition": "",
+  "incumbencyPosition": "222",
   "manageAddressBorough": "341182",
   "manageAddressCity": "341100",
   "manageAddressProvince": "340000",
@@ -43033,7 +43038,7 @@
   "manageEvaluation": 1,
   "manageTime": 7,
   "secondHandCarTradeName": "滁州市旧机动车交易有限公司二手车市场",
-  "shareRatio": "",
+  "shareRatio": "111",
   "stallNum": 50,
   "stockCarPriceCycleMeanValue": 55.93,
   "stockCarPriceCycleMidValue": 52,
@@ -43084,10 +43089,9 @@
     <rPh sb="432" eb="433">
       <t>jiang su</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/credit/apply</t>
+    <rPh sb="2174" eb="2175">
+      <t>fu te</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -43500,7 +43504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -43544,7 +43548,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>23</v>
@@ -47982,8 +47986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48025,7 +48029,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>15</v>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="920" windowWidth="22920" windowHeight="13440" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -43087,9 +43087,9 @@
   "accountType": 0,
   "accountProp": 1,
   "accountName": "南京车置宝网络技术有限公司",
-  "id": "61070119850813550X",
+"id":"",
   "bankPhone":"18366582857",
-  "idType": 0,
+  "idType": 10,
   "bankCode": 34
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43505,7 +43505,7 @@
   <dimension ref="A1:K188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50896,7 +50896,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -1877,7 +1877,7 @@
   <dimension ref="A1:K188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3154,7 +3154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -4907,7 +4907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -1459,7 +1459,6 @@
   "accountType": 0,
   "accountProp": 1,
   "accountName": "南京车置宝网络技术有限公司",
-"id":"",
   "bankPhone":"18366582857",
   "idType": 10,
   "bankCode": 34
@@ -4936,7 +4935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="304" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="288" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>

--- a/data/chezhibao_test.xlsx
+++ b/data/chezhibao_test.xlsx
@@ -1455,7 +1455,7 @@
   "serviceSn": "154790",
   "amount": 50000.00,
   "currency": "CNY",
-  "accountNo": "6225000000000000000",
+  "accountNo": "32050159404000000122",
   "accountType": 0,
   "accountProp": 1,
   "accountName": "南京车置宝网络技术有限公司",
@@ -4907,7 +4907,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4935,7 +4935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="288" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="304" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
